--- a/public/CountryData.xlsx
+++ b/public/CountryData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jittakorn.s\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30AEC76-D212-42AF-AF74-489EEFEBB02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76864AAB-5BD4-4CC3-AA0F-9BFA623F2DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2066,7 +2066,7 @@
   <dimension ref="A1:H295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2075,6 +2075,7 @@
     <col min="3" max="3" width="26.85546875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3009,7 +3010,7 @@
         <v>79</v>
       </c>
       <c r="F35">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G35" t="s">
         <v>561</v>
@@ -3437,7 +3438,7 @@
         <v>112</v>
       </c>
       <c r="F51">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G51" t="str">
         <f>IFERROR(IF(VLOOKUP(E51,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -3518,7 +3519,7 @@
         <v>118</v>
       </c>
       <c r="F54">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G54" t="str">
         <f>IFERROR(IF(VLOOKUP(E54,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -3626,7 +3627,7 @@
         <v>126</v>
       </c>
       <c r="F58">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G58" t="str">
         <f>IFERROR(IF(VLOOKUP(E58,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -3707,7 +3708,7 @@
         <v>132</v>
       </c>
       <c r="F61">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G61" t="str">
         <f>IFERROR(IF(VLOOKUP(E61,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -3788,7 +3789,7 @@
         <v>138</v>
       </c>
       <c r="F64">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G64" t="str">
         <f>IFERROR(IF(VLOOKUP(E64,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -3842,7 +3843,7 @@
         <v>142</v>
       </c>
       <c r="F66">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G66" t="str">
         <f>IFERROR(IF(VLOOKUP(E66,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -3896,7 +3897,7 @@
         <v>146</v>
       </c>
       <c r="F68">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G68" t="str">
         <f>IFERROR(IF(VLOOKUP(E68,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -3950,7 +3951,7 @@
         <v>150</v>
       </c>
       <c r="F70">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G70" t="str">
         <f>IFERROR(IF(VLOOKUP(E70,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -4004,7 +4005,7 @@
         <v>154</v>
       </c>
       <c r="F72">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G72" t="str">
         <f>IFERROR(IF(VLOOKUP(E72,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -4058,7 +4059,7 @@
         <v>158</v>
       </c>
       <c r="F74">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G74" t="str">
         <f>IFERROR(IF(VLOOKUP(E74,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -4112,7 +4113,7 @@
         <v>162</v>
       </c>
       <c r="F76">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G76" t="str">
         <f>IFERROR(IF(VLOOKUP(E76,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -4139,7 +4140,7 @@
         <v>164</v>
       </c>
       <c r="F77">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G77" t="str">
         <f>IFERROR(IF(VLOOKUP(E77,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -4166,7 +4167,7 @@
         <v>166</v>
       </c>
       <c r="F78">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G78" t="str">
         <f>IFERROR(IF(VLOOKUP(E78,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -4274,7 +4275,7 @@
         <v>174</v>
       </c>
       <c r="F82">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G82" t="str">
         <f>IFERROR(IF(VLOOKUP(E82,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -4301,7 +4302,7 @@
         <v>176</v>
       </c>
       <c r="F83">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G83" t="str">
         <f>IFERROR(IF(VLOOKUP(E83,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -4328,7 +4329,7 @@
         <v>178</v>
       </c>
       <c r="F84">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G84" t="str">
         <f>IFERROR(IF(VLOOKUP(E84,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -4382,7 +4383,7 @@
         <v>182</v>
       </c>
       <c r="F86">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G86" t="str">
         <f>IFERROR(IF(VLOOKUP(E86,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -4409,7 +4410,7 @@
         <v>184</v>
       </c>
       <c r="F87">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G87" t="str">
         <f>IFERROR(IF(VLOOKUP(E87,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -4436,7 +4437,7 @@
         <v>186</v>
       </c>
       <c r="F88">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G88" t="str">
         <f>IFERROR(IF(VLOOKUP(E88,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -4490,7 +4491,7 @@
         <v>190</v>
       </c>
       <c r="F90">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G90" t="str">
         <f>IFERROR(IF(VLOOKUP(E90,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -4544,7 +4545,7 @@
         <v>194</v>
       </c>
       <c r="F92">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G92" t="str">
         <f>IFERROR(IF(VLOOKUP(E92,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -5021,7 +5022,7 @@
         <v>231</v>
       </c>
       <c r="F110">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G110" t="str">
         <f>IFERROR(IF(VLOOKUP(E110,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -5505,7 +5506,7 @@
         <v>269</v>
       </c>
       <c r="F128">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G128" t="str">
         <f>IFERROR(IF(VLOOKUP(E128,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -5640,7 +5641,7 @@
         <v>280</v>
       </c>
       <c r="F133">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G133" t="str">
         <f>IFERROR(IF(VLOOKUP(E133,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -5694,7 +5695,7 @@
         <v>284</v>
       </c>
       <c r="F135">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G135" t="s">
         <v>561</v>
@@ -5774,7 +5775,7 @@
         <v>290</v>
       </c>
       <c r="F138">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G138" t="str">
         <f>IFERROR(IF(VLOOKUP(E138,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -5801,7 +5802,7 @@
         <v>292</v>
       </c>
       <c r="F139">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G139" t="str">
         <f>IFERROR(IF(VLOOKUP(E139,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -5828,7 +5829,7 @@
         <v>294</v>
       </c>
       <c r="F140">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G140" t="str">
         <f>IFERROR(IF(VLOOKUP(E140,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -5855,7 +5856,7 @@
         <v>296</v>
       </c>
       <c r="F141">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G141" t="s">
         <v>561</v>
@@ -5935,7 +5936,7 @@
         <v>302</v>
       </c>
       <c r="F144">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G144" t="str">
         <f>IFERROR(IF(VLOOKUP(E144,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -6016,7 +6017,7 @@
         <v>308</v>
       </c>
       <c r="F147">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G147" t="str">
         <f>IFERROR(IF(VLOOKUP(E147,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -6097,7 +6098,7 @@
         <v>314</v>
       </c>
       <c r="F150">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G150" t="s">
         <v>561</v>
@@ -6150,7 +6151,7 @@
         <v>318</v>
       </c>
       <c r="F152">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G152" t="str">
         <f>IFERROR(IF(VLOOKUP(E152,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -6285,7 +6286,7 @@
         <v>328</v>
       </c>
       <c r="F157">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G157" t="s">
         <v>561</v>
@@ -6392,7 +6393,7 @@
         <v>336</v>
       </c>
       <c r="F161">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G161" t="s">
         <v>561</v>
@@ -6418,7 +6419,7 @@
         <v>338</v>
       </c>
       <c r="F162">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G162" t="s">
         <v>561</v>
@@ -6444,7 +6445,7 @@
         <v>340</v>
       </c>
       <c r="F163">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G163" t="str">
         <f>IFERROR(IF(VLOOKUP(E163,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -6471,7 +6472,7 @@
         <v>342</v>
       </c>
       <c r="F164">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G164" t="s">
         <v>561</v>
@@ -6578,7 +6579,7 @@
         <v>350</v>
       </c>
       <c r="F168">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G168" t="s">
         <v>561</v>
@@ -6658,7 +6659,7 @@
         <v>356</v>
       </c>
       <c r="F171">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G171" t="s">
         <v>561</v>
@@ -6684,7 +6685,7 @@
         <v>358</v>
       </c>
       <c r="F172">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G172" t="s">
         <v>561</v>
@@ -6710,7 +6711,7 @@
         <v>360</v>
       </c>
       <c r="F173">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G173" t="s">
         <v>561</v>
@@ -8352,7 +8353,7 @@
         <v>482</v>
       </c>
       <c r="F234">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G234" t="str">
         <f>IFERROR(IF(VLOOKUP(E234,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -8379,7 +8380,7 @@
         <v>484</v>
       </c>
       <c r="F235">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G235" t="str">
         <f>IFERROR(IF(VLOOKUP(E235,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -8514,7 +8515,7 @@
         <v>494</v>
       </c>
       <c r="F240">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="G240" t="str">
         <f>IFERROR(IF(VLOOKUP(E240,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -8541,7 +8542,7 @@
         <v>110</v>
       </c>
       <c r="F241">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G241" t="str">
         <f>IFERROR(IF(VLOOKUP(E241,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -8568,7 +8569,7 @@
         <v>112</v>
       </c>
       <c r="F242">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G242" t="str">
         <f>IFERROR(IF(VLOOKUP(E242,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -8595,7 +8596,7 @@
         <v>116</v>
       </c>
       <c r="F243">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G243" t="str">
         <f>IFERROR(IF(VLOOKUP(E243,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -8622,7 +8623,7 @@
         <v>118</v>
       </c>
       <c r="F244">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G244" t="str">
         <f>IFERROR(IF(VLOOKUP(E244,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -8649,7 +8650,7 @@
         <v>120</v>
       </c>
       <c r="F245">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G245" t="str">
         <f>IFERROR(IF(VLOOKUP(E245,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -8676,7 +8677,7 @@
         <v>126</v>
       </c>
       <c r="F246">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G246" t="str">
         <f>IFERROR(IF(VLOOKUP(E246,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -8703,7 +8704,7 @@
         <v>130</v>
       </c>
       <c r="F247">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G247" t="str">
         <f>IFERROR(IF(VLOOKUP(E247,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -8730,7 +8731,7 @@
         <v>132</v>
       </c>
       <c r="F248">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G248" t="str">
         <f>IFERROR(IF(VLOOKUP(E248,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -8757,7 +8758,7 @@
         <v>138</v>
       </c>
       <c r="F249">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G249" t="str">
         <f>IFERROR(IF(VLOOKUP(E249,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -8784,7 +8785,7 @@
         <v>146</v>
       </c>
       <c r="F250">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G250" t="str">
         <f>IFERROR(IF(VLOOKUP(E250,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -8811,7 +8812,7 @@
         <v>150</v>
       </c>
       <c r="F251">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G251" t="str">
         <f>IFERROR(IF(VLOOKUP(E251,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -8838,7 +8839,7 @@
         <v>154</v>
       </c>
       <c r="F252">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G252" t="str">
         <f>IFERROR(IF(VLOOKUP(E252,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -8865,7 +8866,7 @@
         <v>158</v>
       </c>
       <c r="F253">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G253" t="str">
         <f>IFERROR(IF(VLOOKUP(E253,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -8892,7 +8893,7 @@
         <v>162</v>
       </c>
       <c r="F254">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G254" t="str">
         <f>IFERROR(IF(VLOOKUP(E254,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -8919,7 +8920,7 @@
         <v>164</v>
       </c>
       <c r="F255">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G255" t="str">
         <f>IFERROR(IF(VLOOKUP(E255,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -8946,7 +8947,7 @@
         <v>166</v>
       </c>
       <c r="F256">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G256" t="str">
         <f>IFERROR(IF(VLOOKUP(E256,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -8973,7 +8974,7 @@
         <v>174</v>
       </c>
       <c r="F257">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G257" t="str">
         <f>IFERROR(IF(VLOOKUP(E257,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -9000,7 +9001,7 @@
         <v>176</v>
       </c>
       <c r="F258">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G258" t="str">
         <f>IFERROR(IF(VLOOKUP(E258,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -9027,7 +9028,7 @@
         <v>178</v>
       </c>
       <c r="F259">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G259" t="str">
         <f>IFERROR(IF(VLOOKUP(E259,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -9054,7 +9055,7 @@
         <v>182</v>
       </c>
       <c r="F260">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G260" t="str">
         <f>IFERROR(IF(VLOOKUP(E260,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -9081,7 +9082,7 @@
         <v>184</v>
       </c>
       <c r="F261">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G261" t="str">
         <f>IFERROR(IF(VLOOKUP(E261,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -9108,7 +9109,7 @@
         <v>190</v>
       </c>
       <c r="F262">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G262" t="str">
         <f>IFERROR(IF(VLOOKUP(E262,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -9135,7 +9136,7 @@
         <v>482</v>
       </c>
       <c r="F263">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G263" t="str">
         <f>IFERROR(IF(VLOOKUP(E263,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -9162,7 +9163,7 @@
         <v>497</v>
       </c>
       <c r="F264">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G264" t="str">
         <f>IFERROR(IF(VLOOKUP(E264,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -9189,7 +9190,7 @@
         <v>500</v>
       </c>
       <c r="F265">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G265" t="str">
         <f>IFERROR(IF(VLOOKUP(E265,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -9216,7 +9217,7 @@
         <v>503</v>
       </c>
       <c r="F266">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G266" t="str">
         <f>IFERROR(IF(VLOOKUP(E266,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -9243,7 +9244,7 @@
         <v>506</v>
       </c>
       <c r="F267">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G267" t="str">
         <f>IFERROR(IF(VLOOKUP(E267,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -9270,7 +9271,7 @@
         <v>122</v>
       </c>
       <c r="F268">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G268" t="str">
         <f>IFERROR(IF(VLOOKUP(E268,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -9297,7 +9298,7 @@
         <v>124</v>
       </c>
       <c r="F269">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G269" t="str">
         <f>IFERROR(IF(VLOOKUP(E269,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -9324,7 +9325,7 @@
         <v>142</v>
       </c>
       <c r="F270">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G270" t="str">
         <f>IFERROR(IF(VLOOKUP(E270,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -9351,7 +9352,7 @@
         <v>186</v>
       </c>
       <c r="F271">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G271" t="str">
         <f>IFERROR(IF(VLOOKUP(E271,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -9378,7 +9379,7 @@
         <v>194</v>
       </c>
       <c r="F272">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G272" t="str">
         <f>IFERROR(IF(VLOOKUP(E272,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -9405,7 +9406,7 @@
         <v>509</v>
       </c>
       <c r="F273">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G273" t="str">
         <f>IFERROR(IF(VLOOKUP(E273,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -9539,7 +9540,7 @@
         <v>520</v>
       </c>
       <c r="F278">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G278" t="str">
         <f>IFERROR(IF(VLOOKUP(E278,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -9620,7 +9621,7 @@
         <v>527</v>
       </c>
       <c r="F281">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G281" t="str">
         <f>IFERROR(IF(VLOOKUP(E281,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -9647,7 +9648,7 @@
         <v>530</v>
       </c>
       <c r="F282">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G282" t="str">
         <f>IFERROR(IF(VLOOKUP(E282,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -9944,7 +9945,7 @@
         <v>553</v>
       </c>
       <c r="F293">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G293" t="str">
         <f>IFERROR(IF(VLOOKUP(E293,#REF!,1,1), "No", "Yes"), "No")</f>
@@ -9971,7 +9972,7 @@
         <v>556</v>
       </c>
       <c r="F294">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G294" t="str">
         <f>IFERROR(IF(VLOOKUP(E294,#REF!,1,1), "No", "Yes"), "No")</f>

--- a/public/CountryData.xlsx
+++ b/public/CountryData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jittakorn.s\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\source\countrysearch\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76864AAB-5BD4-4CC3-AA0F-9BFA623F2DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD685C70-0718-45A1-9DBE-97DB5BF13E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t xml:space="preserve">T4 </t>
   </si>
   <si>
-    <t>NULL</t>
-  </si>
-  <si>
     <t>USD</t>
   </si>
   <si>
@@ -1728,6 +1725,9 @@
   </si>
   <si>
     <t>No Phone</t>
+  </si>
+  <si>
+    <t>No Region</t>
   </si>
 </sst>
 </file>
@@ -2065,8 +2065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H295"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="B241" sqref="B241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2095,13 +2095,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2142,7 +2142,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -2163,16 +2163,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
       </c>
       <c r="F4">
         <v>25</v>
@@ -2187,19 +2187,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
       </c>
       <c r="F5">
         <v>11</v>
@@ -2214,19 +2214,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
       <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
       </c>
       <c r="F6">
         <v>11</v>
@@ -2241,19 +2241,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
       <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
         <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
       </c>
       <c r="F7">
         <v>11</v>
@@ -2268,19 +2268,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
       <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
         <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
       </c>
       <c r="F8">
         <v>11</v>
@@ -2295,19 +2295,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
       <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
       </c>
       <c r="F9">
         <v>11</v>
@@ -2322,19 +2322,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
       </c>
       <c r="F10">
         <v>11</v>
@@ -2349,19 +2349,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
       <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
         <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
       </c>
       <c r="F11">
         <v>11</v>
@@ -2371,24 +2371,24 @@
         <v>No</v>
       </c>
       <c r="H11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
       <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
         <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
       </c>
       <c r="F12">
         <v>11</v>
@@ -2403,19 +2403,19 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
       <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
         <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
       </c>
       <c r="F13">
         <v>11</v>
@@ -2430,19 +2430,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
       <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
         <v>35</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>36</v>
       </c>
       <c r="F14">
         <v>11</v>
@@ -2457,19 +2457,19 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
       <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
         <v>37</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" t="s">
-        <v>38</v>
       </c>
       <c r="F15">
         <v>11</v>
@@ -2484,19 +2484,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
       <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
         <v>39</v>
-      </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s">
-        <v>40</v>
       </c>
       <c r="F16">
         <v>11</v>
@@ -2511,19 +2511,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
       <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
         <v>41</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>42</v>
       </c>
       <c r="F17">
         <v>11</v>
@@ -2538,19 +2538,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
       <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
         <v>43</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s">
-        <v>44</v>
       </c>
       <c r="F18">
         <v>11</v>
@@ -2565,19 +2565,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
       <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
         <v>45</v>
-      </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" t="s">
-        <v>46</v>
       </c>
       <c r="F19">
         <v>11</v>
@@ -2592,19 +2592,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
         <v>15</v>
       </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
       <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
         <v>47</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>48</v>
       </c>
       <c r="F20">
         <v>11</v>
@@ -2619,19 +2619,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
       <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
         <v>49</v>
-      </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" t="s">
-        <v>50</v>
       </c>
       <c r="F21">
         <v>11</v>
@@ -2646,19 +2646,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
         <v>15</v>
       </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
       <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
         <v>51</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s">
-        <v>52</v>
       </c>
       <c r="F22">
         <v>11</v>
@@ -2673,19 +2673,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
         <v>15</v>
       </c>
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
       <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
         <v>53</v>
-      </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" t="s">
-        <v>54</v>
       </c>
       <c r="F23">
         <v>11</v>
@@ -2700,19 +2700,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
       <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
         <v>55</v>
-      </c>
-      <c r="D24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" t="s">
-        <v>56</v>
       </c>
       <c r="F24">
         <v>11</v>
@@ -2727,19 +2727,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
         <v>15</v>
       </c>
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
       <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
         <v>57</v>
-      </c>
-      <c r="D25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" t="s">
-        <v>58</v>
       </c>
       <c r="F25">
         <v>11</v>
@@ -2754,19 +2754,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
         <v>15</v>
       </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
       <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
         <v>59</v>
-      </c>
-      <c r="D26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" t="s">
-        <v>60</v>
       </c>
       <c r="F26">
         <v>11</v>
@@ -2781,19 +2781,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
         <v>15</v>
       </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
       <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
         <v>61</v>
-      </c>
-      <c r="D27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" t="s">
-        <v>62</v>
       </c>
       <c r="F27">
         <v>11</v>
@@ -2808,19 +2808,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
         <v>15</v>
       </c>
-      <c r="B28" t="s">
-        <v>16</v>
-      </c>
       <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
         <v>63</v>
-      </c>
-      <c r="D28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" t="s">
-        <v>64</v>
       </c>
       <c r="F28">
         <v>11</v>
@@ -2835,19 +2835,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
         <v>15</v>
       </c>
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
       <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
         <v>65</v>
-      </c>
-      <c r="D29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" t="s">
-        <v>66</v>
       </c>
       <c r="F29">
         <v>11</v>
@@ -2862,19 +2862,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
         <v>15</v>
       </c>
-      <c r="B30" t="s">
-        <v>16</v>
-      </c>
       <c r="C30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
         <v>67</v>
-      </c>
-      <c r="D30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" t="s">
-        <v>68</v>
       </c>
       <c r="F30">
         <v>11</v>
@@ -2889,45 +2889,45 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
         <v>69</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
         <v>70</v>
       </c>
-      <c r="D31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" t="s">
-        <v>71</v>
-      </c>
       <c r="F31">
         <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H31" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
         <v>72</v>
-      </c>
-      <c r="D32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" t="s">
-        <v>73</v>
       </c>
       <c r="F32">
         <v>11</v>
@@ -2942,19 +2942,19 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
         <v>74</v>
-      </c>
-      <c r="D33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" t="s">
-        <v>75</v>
       </c>
       <c r="F33">
         <v>11</v>
@@ -2969,25 +2969,25 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
         <v>76</v>
       </c>
-      <c r="D34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" t="s">
-        <v>77</v>
-      </c>
       <c r="F34">
         <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H34">
         <v>996</v>
@@ -2995,25 +2995,25 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
         <v>78</v>
-      </c>
-      <c r="D35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" t="s">
-        <v>79</v>
       </c>
       <c r="F35">
         <v>22</v>
       </c>
       <c r="G35" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H35">
         <v>7</v>
@@ -3021,51 +3021,51 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
         <v>80</v>
       </c>
-      <c r="D36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" t="s">
-        <v>81</v>
-      </c>
       <c r="F36">
         <v>11</v>
       </c>
       <c r="G36" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H36" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
         <v>82</v>
       </c>
-      <c r="D37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" t="s">
-        <v>83</v>
-      </c>
       <c r="F37">
         <v>11</v>
       </c>
       <c r="G37" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H37">
         <v>995</v>
@@ -3073,25 +3073,25 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
         <v>84</v>
       </c>
-      <c r="D38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" t="s">
-        <v>85</v>
-      </c>
       <c r="F38">
         <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H38">
         <v>992</v>
@@ -3099,19 +3099,19 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
         <v>86</v>
-      </c>
-      <c r="D39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" t="s">
-        <v>87</v>
       </c>
       <c r="F39">
         <v>11</v>
@@ -3126,19 +3126,19 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
         <v>88</v>
-      </c>
-      <c r="D40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" t="s">
-        <v>89</v>
       </c>
       <c r="F40">
         <v>11</v>
@@ -3153,19 +3153,19 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
         <v>90</v>
-      </c>
-      <c r="D41" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" t="s">
-        <v>91</v>
       </c>
       <c r="F41">
         <v>11</v>
@@ -3180,19 +3180,19 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" t="s">
         <v>92</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
         <v>93</v>
-      </c>
-      <c r="D42" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" t="s">
-        <v>94</v>
       </c>
       <c r="F42">
         <v>11</v>
@@ -3207,19 +3207,19 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
         <v>95</v>
-      </c>
-      <c r="D43" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" t="s">
-        <v>96</v>
       </c>
       <c r="F43">
         <v>11</v>
@@ -3234,19 +3234,19 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
         <v>97</v>
-      </c>
-      <c r="D44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" t="s">
-        <v>98</v>
       </c>
       <c r="F44">
         <v>11</v>
@@ -3261,19 +3261,19 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
         <v>99</v>
-      </c>
-      <c r="D45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" t="s">
-        <v>100</v>
       </c>
       <c r="F45">
         <v>11</v>
@@ -3288,19 +3288,19 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
         <v>101</v>
-      </c>
-      <c r="D46" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" t="s">
-        <v>102</v>
       </c>
       <c r="F46">
         <v>11</v>
@@ -3315,19 +3315,19 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" t="s">
         <v>103</v>
-      </c>
-      <c r="D47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" t="s">
-        <v>104</v>
       </c>
       <c r="F47">
         <v>11</v>
@@ -3342,19 +3342,19 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
       </c>
       <c r="C48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" t="s">
         <v>105</v>
-      </c>
-      <c r="D48" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" t="s">
-        <v>106</v>
       </c>
       <c r="F48">
         <v>11</v>
@@ -3364,24 +3364,24 @@
         <v>No</v>
       </c>
       <c r="H48" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
       </c>
       <c r="C49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" t="s">
         <v>107</v>
-      </c>
-      <c r="D49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" t="s">
-        <v>108</v>
       </c>
       <c r="F49">
         <v>11</v>
@@ -3391,24 +3391,24 @@
         <v>No</v>
       </c>
       <c r="H49" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
       </c>
       <c r="C50" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" t="s">
         <v>109</v>
-      </c>
-      <c r="D50" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" t="s">
-        <v>110</v>
       </c>
       <c r="F50">
         <v>26</v>
@@ -3418,24 +3418,24 @@
         <v>No</v>
       </c>
       <c r="H50" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
       </c>
       <c r="C51" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" t="s">
         <v>111</v>
-      </c>
-      <c r="D51" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" t="s">
-        <v>112</v>
       </c>
       <c r="F51">
         <v>26</v>
@@ -3445,24 +3445,24 @@
         <v>No</v>
       </c>
       <c r="H51" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
       </c>
       <c r="C52" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" t="s">
         <v>113</v>
-      </c>
-      <c r="D52" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" t="s">
-        <v>114</v>
       </c>
       <c r="F52">
         <v>11</v>
@@ -3472,24 +3472,24 @@
         <v>No</v>
       </c>
       <c r="H52" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
       </c>
       <c r="C53" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" t="s">
         <v>115</v>
-      </c>
-      <c r="D53" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" t="s">
-        <v>116</v>
       </c>
       <c r="F53">
         <v>26</v>
@@ -3499,24 +3499,24 @@
         <v>No</v>
       </c>
       <c r="H53" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
       </c>
       <c r="C54" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" t="s">
         <v>117</v>
-      </c>
-      <c r="D54" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" t="s">
-        <v>118</v>
       </c>
       <c r="F54">
         <v>26</v>
@@ -3531,19 +3531,19 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
       </c>
       <c r="C55" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" t="s">
         <v>119</v>
-      </c>
-      <c r="D55" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" t="s">
-        <v>120</v>
       </c>
       <c r="F55">
         <v>26</v>
@@ -3553,24 +3553,24 @@
         <v>No</v>
       </c>
       <c r="H55" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
       </c>
       <c r="C56" t="s">
+        <v>120</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" t="s">
         <v>121</v>
-      </c>
-      <c r="D56" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" t="s">
-        <v>122</v>
       </c>
       <c r="F56">
         <v>26</v>
@@ -3580,24 +3580,24 @@
         <v>No</v>
       </c>
       <c r="H56" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
       </c>
       <c r="C57" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" t="s">
         <v>123</v>
-      </c>
-      <c r="D57" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" t="s">
-        <v>124</v>
       </c>
       <c r="F57">
         <v>26</v>
@@ -3607,24 +3607,24 @@
         <v>No</v>
       </c>
       <c r="H57" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
       </c>
       <c r="C58" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" t="s">
         <v>125</v>
-      </c>
-      <c r="D58" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" t="s">
-        <v>126</v>
       </c>
       <c r="F58">
         <v>26</v>
@@ -3639,19 +3639,19 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
       </c>
       <c r="C59" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" t="s">
         <v>127</v>
-      </c>
-      <c r="D59" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" t="s">
-        <v>128</v>
       </c>
       <c r="F59">
         <v>11</v>
@@ -3666,19 +3666,19 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
       </c>
       <c r="C60" t="s">
+        <v>128</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" t="s">
         <v>129</v>
-      </c>
-      <c r="D60" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" t="s">
-        <v>130</v>
       </c>
       <c r="F60">
         <v>26</v>
@@ -3693,19 +3693,19 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
       </c>
       <c r="C61" t="s">
+        <v>130</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" t="s">
         <v>131</v>
-      </c>
-      <c r="D61" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" t="s">
-        <v>132</v>
       </c>
       <c r="F61">
         <v>26</v>
@@ -3720,19 +3720,19 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
       </c>
       <c r="C62" t="s">
+        <v>132</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" t="s">
         <v>133</v>
-      </c>
-      <c r="D62" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" t="s">
-        <v>134</v>
       </c>
       <c r="F62">
         <v>11</v>
@@ -3747,19 +3747,19 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
       </c>
       <c r="C63" t="s">
+        <v>134</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" t="s">
         <v>135</v>
-      </c>
-      <c r="D63" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" t="s">
-        <v>136</v>
       </c>
       <c r="F63">
         <v>11</v>
@@ -3774,19 +3774,19 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
       </c>
       <c r="C64" t="s">
+        <v>136</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" t="s">
         <v>137</v>
-      </c>
-      <c r="D64" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" t="s">
-        <v>138</v>
       </c>
       <c r="F64">
         <v>26</v>
@@ -3796,24 +3796,24 @@
         <v>No</v>
       </c>
       <c r="H64" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
       </c>
       <c r="C65" t="s">
+        <v>138</v>
+      </c>
+      <c r="D65" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" t="s">
         <v>139</v>
-      </c>
-      <c r="D65" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" t="s">
-        <v>140</v>
       </c>
       <c r="F65">
         <v>11</v>
@@ -3828,19 +3828,19 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
       </c>
       <c r="C66" t="s">
+        <v>140</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" t="s">
         <v>141</v>
-      </c>
-      <c r="D66" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" t="s">
-        <v>142</v>
       </c>
       <c r="F66">
         <v>26</v>
@@ -3855,19 +3855,19 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
       </c>
       <c r="C67" t="s">
+        <v>142</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" t="s">
         <v>143</v>
-      </c>
-      <c r="D67" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" t="s">
-        <v>144</v>
       </c>
       <c r="F67">
         <v>11</v>
@@ -3882,19 +3882,19 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
       </c>
       <c r="C68" t="s">
+        <v>144</v>
+      </c>
+      <c r="D68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" t="s">
         <v>145</v>
-      </c>
-      <c r="D68" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" t="s">
-        <v>146</v>
       </c>
       <c r="F68">
         <v>26</v>
@@ -3909,19 +3909,19 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
       </c>
       <c r="C69" t="s">
+        <v>146</v>
+      </c>
+      <c r="D69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" t="s">
         <v>147</v>
-      </c>
-      <c r="D69" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" t="s">
-        <v>148</v>
       </c>
       <c r="F69">
         <v>11</v>
@@ -3936,19 +3936,19 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
       </c>
       <c r="C70" t="s">
+        <v>148</v>
+      </c>
+      <c r="D70" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" t="s">
         <v>149</v>
-      </c>
-      <c r="D70" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" t="s">
-        <v>150</v>
       </c>
       <c r="F70">
         <v>26</v>
@@ -3963,19 +3963,19 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
       </c>
       <c r="C71" t="s">
+        <v>150</v>
+      </c>
+      <c r="D71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" t="s">
         <v>151</v>
-      </c>
-      <c r="D71" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" t="s">
-        <v>152</v>
       </c>
       <c r="F71">
         <v>11</v>
@@ -3990,19 +3990,19 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
       </c>
       <c r="C72" t="s">
+        <v>152</v>
+      </c>
+      <c r="D72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" t="s">
         <v>153</v>
-      </c>
-      <c r="D72" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" t="s">
-        <v>154</v>
       </c>
       <c r="F72">
         <v>26</v>
@@ -4017,19 +4017,19 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
       </c>
       <c r="C73" t="s">
+        <v>154</v>
+      </c>
+      <c r="D73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" t="s">
         <v>155</v>
-      </c>
-      <c r="D73" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" t="s">
-        <v>156</v>
       </c>
       <c r="F73">
         <v>11</v>
@@ -4044,19 +4044,19 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
       </c>
       <c r="C74" t="s">
+        <v>156</v>
+      </c>
+      <c r="D74" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" t="s">
         <v>157</v>
-      </c>
-      <c r="D74" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" t="s">
-        <v>158</v>
       </c>
       <c r="F74">
         <v>26</v>
@@ -4071,19 +4071,19 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
       </c>
       <c r="C75" t="s">
+        <v>158</v>
+      </c>
+      <c r="D75" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" t="s">
         <v>159</v>
-      </c>
-      <c r="D75" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" t="s">
-        <v>160</v>
       </c>
       <c r="F75">
         <v>11</v>
@@ -4098,19 +4098,19 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
       </c>
       <c r="C76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" t="s">
         <v>161</v>
-      </c>
-      <c r="D76" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" t="s">
-        <v>162</v>
       </c>
       <c r="F76">
         <v>26</v>
@@ -4125,19 +4125,19 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B77" t="s">
         <v>6</v>
       </c>
       <c r="C77" t="s">
+        <v>162</v>
+      </c>
+      <c r="D77" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" t="s">
         <v>163</v>
-      </c>
-      <c r="D77" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" t="s">
-        <v>164</v>
       </c>
       <c r="F77">
         <v>26</v>
@@ -4152,19 +4152,19 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
       </c>
       <c r="C78" t="s">
+        <v>164</v>
+      </c>
+      <c r="D78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" t="s">
         <v>165</v>
-      </c>
-      <c r="D78" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" t="s">
-        <v>166</v>
       </c>
       <c r="F78">
         <v>26</v>
@@ -4179,19 +4179,19 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B79" t="s">
         <v>6</v>
       </c>
       <c r="C79" t="s">
+        <v>166</v>
+      </c>
+      <c r="D79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" t="s">
         <v>167</v>
-      </c>
-      <c r="D79" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" t="s">
-        <v>168</v>
       </c>
       <c r="F79">
         <v>11</v>
@@ -4206,19 +4206,19 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B80" t="s">
         <v>6</v>
       </c>
       <c r="C80" t="s">
+        <v>168</v>
+      </c>
+      <c r="D80" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" t="s">
         <v>169</v>
-      </c>
-      <c r="D80" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" t="s">
-        <v>170</v>
       </c>
       <c r="F80">
         <v>11</v>
@@ -4233,19 +4233,19 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B81" t="s">
         <v>6</v>
       </c>
       <c r="C81" t="s">
+        <v>170</v>
+      </c>
+      <c r="D81" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" t="s">
         <v>171</v>
-      </c>
-      <c r="D81" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" t="s">
-        <v>172</v>
       </c>
       <c r="F81">
         <v>11</v>
@@ -4260,19 +4260,19 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
       </c>
       <c r="C82" t="s">
+        <v>172</v>
+      </c>
+      <c r="D82" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" t="s">
         <v>173</v>
-      </c>
-      <c r="D82" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" t="s">
-        <v>174</v>
       </c>
       <c r="F82">
         <v>26</v>
@@ -4287,19 +4287,19 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
       </c>
       <c r="C83" t="s">
+        <v>174</v>
+      </c>
+      <c r="D83" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" t="s">
         <v>175</v>
-      </c>
-      <c r="D83" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" t="s">
-        <v>176</v>
       </c>
       <c r="F83">
         <v>26</v>
@@ -4314,19 +4314,19 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B84" t="s">
         <v>6</v>
       </c>
       <c r="C84" t="s">
+        <v>176</v>
+      </c>
+      <c r="D84" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" t="s">
         <v>177</v>
-      </c>
-      <c r="D84" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" t="s">
-        <v>178</v>
       </c>
       <c r="F84">
         <v>26</v>
@@ -4341,19 +4341,19 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B85" t="s">
         <v>6</v>
       </c>
       <c r="C85" t="s">
+        <v>178</v>
+      </c>
+      <c r="D85" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" t="s">
         <v>179</v>
-      </c>
-      <c r="D85" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" t="s">
-        <v>180</v>
       </c>
       <c r="F85">
         <v>11</v>
@@ -4368,19 +4368,19 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B86" t="s">
         <v>6</v>
       </c>
       <c r="C86" t="s">
+        <v>180</v>
+      </c>
+      <c r="D86" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" t="s">
         <v>181</v>
-      </c>
-      <c r="D86" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" t="s">
-        <v>182</v>
       </c>
       <c r="F86">
         <v>26</v>
@@ -4395,19 +4395,19 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B87" t="s">
         <v>6</v>
       </c>
       <c r="C87" t="s">
+        <v>182</v>
+      </c>
+      <c r="D87" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" t="s">
         <v>183</v>
-      </c>
-      <c r="D87" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" t="s">
-        <v>184</v>
       </c>
       <c r="F87">
         <v>26</v>
@@ -4422,19 +4422,19 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
       </c>
       <c r="C88" t="s">
+        <v>184</v>
+      </c>
+      <c r="D88" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" t="s">
         <v>185</v>
-      </c>
-      <c r="D88" t="s">
-        <v>11</v>
-      </c>
-      <c r="E88" t="s">
-        <v>186</v>
       </c>
       <c r="F88">
         <v>26</v>
@@ -4444,24 +4444,24 @@
         <v>No</v>
       </c>
       <c r="H88" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B89" t="s">
         <v>6</v>
       </c>
       <c r="C89" t="s">
+        <v>186</v>
+      </c>
+      <c r="D89" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" t="s">
         <v>187</v>
-      </c>
-      <c r="D89" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" t="s">
-        <v>188</v>
       </c>
       <c r="F89">
         <v>11</v>
@@ -4471,24 +4471,24 @@
         <v>No</v>
       </c>
       <c r="H89" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B90" t="s">
         <v>6</v>
       </c>
       <c r="C90" t="s">
+        <v>188</v>
+      </c>
+      <c r="D90" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" t="s">
         <v>189</v>
-      </c>
-      <c r="D90" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" t="s">
-        <v>190</v>
       </c>
       <c r="F90">
         <v>26</v>
@@ -4503,19 +4503,19 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B91" t="s">
         <v>6</v>
       </c>
       <c r="C91" t="s">
+        <v>190</v>
+      </c>
+      <c r="D91" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" t="s">
         <v>191</v>
-      </c>
-      <c r="D91" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" t="s">
-        <v>192</v>
       </c>
       <c r="F91">
         <v>11</v>
@@ -4525,24 +4525,24 @@
         <v>No</v>
       </c>
       <c r="H91" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
       </c>
       <c r="C92" t="s">
+        <v>192</v>
+      </c>
+      <c r="D92" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" t="s">
         <v>193</v>
-      </c>
-      <c r="D92" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" t="s">
-        <v>194</v>
       </c>
       <c r="F92">
         <v>26</v>
@@ -4557,19 +4557,19 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
       </c>
       <c r="C93" t="s">
+        <v>194</v>
+      </c>
+      <c r="D93" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" t="s">
         <v>195</v>
-      </c>
-      <c r="D93" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93" t="s">
-        <v>196</v>
       </c>
       <c r="F93">
         <v>11</v>
@@ -4584,19 +4584,19 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
       </c>
       <c r="C94" t="s">
+        <v>196</v>
+      </c>
+      <c r="D94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" t="s">
         <v>197</v>
-      </c>
-      <c r="D94" t="s">
-        <v>11</v>
-      </c>
-      <c r="E94" t="s">
-        <v>198</v>
       </c>
       <c r="F94">
         <v>11</v>
@@ -4611,103 +4611,103 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B95" t="s">
+        <v>198</v>
+      </c>
+      <c r="C95" t="s">
         <v>199</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" t="s">
         <v>200</v>
       </c>
-      <c r="D95" t="s">
-        <v>11</v>
-      </c>
-      <c r="E95" t="s">
-        <v>201</v>
-      </c>
       <c r="F95">
         <v>11</v>
       </c>
       <c r="G95" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H95" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B96" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C96" t="s">
+        <v>201</v>
+      </c>
+      <c r="D96" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" t="s">
         <v>202</v>
       </c>
-      <c r="D96" t="s">
-        <v>11</v>
-      </c>
-      <c r="E96" t="s">
-        <v>203</v>
-      </c>
       <c r="F96">
         <v>11</v>
       </c>
       <c r="G96" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H96" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B97" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C97" t="s">
+        <v>203</v>
+      </c>
+      <c r="D97" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" t="s">
         <v>204</v>
       </c>
-      <c r="D97" t="s">
-        <v>11</v>
-      </c>
-      <c r="E97" t="s">
-        <v>205</v>
-      </c>
       <c r="F97">
         <v>11</v>
       </c>
       <c r="G97" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H97" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B98" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C98" t="s">
+        <v>205</v>
+      </c>
+      <c r="D98" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" t="s">
         <v>206</v>
       </c>
-      <c r="D98" t="s">
-        <v>11</v>
-      </c>
-      <c r="E98" t="s">
-        <v>207</v>
-      </c>
       <c r="F98">
         <v>11</v>
       </c>
       <c r="G98" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H98">
         <v>964</v>
@@ -4715,19 +4715,19 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B99" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C99" t="s">
+        <v>207</v>
+      </c>
+      <c r="D99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" t="s">
         <v>208</v>
-      </c>
-      <c r="D99" t="s">
-        <v>11</v>
-      </c>
-      <c r="E99" t="s">
-        <v>209</v>
       </c>
       <c r="F99">
         <v>11</v>
@@ -4742,19 +4742,19 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B100" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C100" t="s">
+        <v>209</v>
+      </c>
+      <c r="D100" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" t="s">
         <v>210</v>
-      </c>
-      <c r="D100" t="s">
-        <v>11</v>
-      </c>
-      <c r="E100" t="s">
-        <v>211</v>
       </c>
       <c r="F100">
         <v>11</v>
@@ -4769,25 +4769,25 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B101" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C101" t="s">
+        <v>211</v>
+      </c>
+      <c r="D101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" t="s">
         <v>212</v>
       </c>
-      <c r="D101" t="s">
-        <v>11</v>
-      </c>
-      <c r="E101" t="s">
-        <v>213</v>
-      </c>
       <c r="F101">
         <v>11</v>
       </c>
       <c r="G101" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H101">
         <v>964</v>
@@ -4795,25 +4795,25 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B102" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C102" t="s">
+        <v>213</v>
+      </c>
+      <c r="D102" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" t="s">
         <v>214</v>
       </c>
-      <c r="D102" t="s">
-        <v>11</v>
-      </c>
-      <c r="E102" t="s">
-        <v>215</v>
-      </c>
       <c r="F102">
         <v>11</v>
       </c>
       <c r="G102" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H102">
         <v>965</v>
@@ -4821,25 +4821,25 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B103" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C103" t="s">
+        <v>215</v>
+      </c>
+      <c r="D103" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" t="s">
         <v>216</v>
       </c>
-      <c r="D103" t="s">
-        <v>11</v>
-      </c>
-      <c r="E103" t="s">
-        <v>217</v>
-      </c>
       <c r="F103">
         <v>11</v>
       </c>
       <c r="G103" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H103">
         <v>961</v>
@@ -4847,19 +4847,19 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B104" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C104" t="s">
+        <v>217</v>
+      </c>
+      <c r="D104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" t="s">
         <v>218</v>
-      </c>
-      <c r="D104" t="s">
-        <v>11</v>
-      </c>
-      <c r="E104" t="s">
-        <v>219</v>
       </c>
       <c r="F104">
         <v>11</v>
@@ -4874,19 +4874,19 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B105" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C105" t="s">
+        <v>219</v>
+      </c>
+      <c r="D105" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" t="s">
         <v>220</v>
-      </c>
-      <c r="D105" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105" t="s">
-        <v>221</v>
       </c>
       <c r="F105">
         <v>11</v>
@@ -4901,25 +4901,25 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B106" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C106" t="s">
+        <v>221</v>
+      </c>
+      <c r="D106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" t="s">
         <v>222</v>
       </c>
-      <c r="D106" t="s">
-        <v>11</v>
-      </c>
-      <c r="E106" t="s">
-        <v>223</v>
-      </c>
       <c r="F106">
         <v>11</v>
       </c>
       <c r="G106" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H106">
         <v>968</v>
@@ -4927,19 +4927,19 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B107" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C107" t="s">
+        <v>223</v>
+      </c>
+      <c r="D107" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" t="s">
         <v>224</v>
-      </c>
-      <c r="D107" t="s">
-        <v>11</v>
-      </c>
-      <c r="E107" t="s">
-        <v>225</v>
       </c>
       <c r="F107">
         <v>11</v>
@@ -4954,19 +4954,19 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B108" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C108" t="s">
+        <v>225</v>
+      </c>
+      <c r="D108" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" t="s">
         <v>226</v>
-      </c>
-      <c r="D108" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" t="s">
-        <v>227</v>
       </c>
       <c r="F108">
         <v>11</v>
@@ -4981,25 +4981,25 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B109" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C109" t="s">
+        <v>227</v>
+      </c>
+      <c r="D109" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" t="s">
         <v>228</v>
       </c>
-      <c r="D109" t="s">
-        <v>11</v>
-      </c>
-      <c r="E109" t="s">
-        <v>229</v>
-      </c>
       <c r="F109">
         <v>11</v>
       </c>
       <c r="G109" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H109">
         <v>974</v>
@@ -5007,19 +5007,19 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B110" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C110" t="s">
+        <v>229</v>
+      </c>
+      <c r="D110" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110" t="s">
         <v>230</v>
-      </c>
-      <c r="D110" t="s">
-        <v>11</v>
-      </c>
-      <c r="E110" t="s">
-        <v>231</v>
       </c>
       <c r="F110">
         <v>14</v>
@@ -5034,19 +5034,19 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B111" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C111" t="s">
+        <v>231</v>
+      </c>
+      <c r="D111" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" t="s">
         <v>232</v>
-      </c>
-      <c r="D111" t="s">
-        <v>11</v>
-      </c>
-      <c r="E111" t="s">
-        <v>233</v>
       </c>
       <c r="F111">
         <v>11</v>
@@ -5061,19 +5061,19 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B112" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C112" t="s">
+        <v>233</v>
+      </c>
+      <c r="D112" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" t="s">
         <v>234</v>
-      </c>
-      <c r="D112" t="s">
-        <v>11</v>
-      </c>
-      <c r="E112" t="s">
-        <v>235</v>
       </c>
       <c r="F112">
         <v>11</v>
@@ -5088,25 +5088,25 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B113" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C113" t="s">
+        <v>235</v>
+      </c>
+      <c r="D113" t="s">
+        <v>10</v>
+      </c>
+      <c r="E113" t="s">
         <v>236</v>
       </c>
-      <c r="D113" t="s">
-        <v>11</v>
-      </c>
-      <c r="E113" t="s">
-        <v>237</v>
-      </c>
       <c r="F113">
         <v>11</v>
       </c>
       <c r="G113" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H113">
         <v>216</v>
@@ -5114,19 +5114,19 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B114" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C114" t="s">
+        <v>237</v>
+      </c>
+      <c r="D114" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" t="s">
         <v>238</v>
-      </c>
-      <c r="D114" t="s">
-        <v>11</v>
-      </c>
-      <c r="E114" t="s">
-        <v>239</v>
       </c>
       <c r="F114">
         <v>11</v>
@@ -5136,24 +5136,24 @@
         <v>No</v>
       </c>
       <c r="H114" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B115" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C115" t="s">
+        <v>239</v>
+      </c>
+      <c r="D115" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" t="s">
         <v>240</v>
-      </c>
-      <c r="D115" t="s">
-        <v>11</v>
-      </c>
-      <c r="E115" t="s">
-        <v>241</v>
       </c>
       <c r="F115">
         <v>11</v>
@@ -5168,19 +5168,19 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B116" t="s">
+        <v>241</v>
+      </c>
+      <c r="C116" t="s">
         <v>242</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116" t="s">
         <v>243</v>
-      </c>
-      <c r="D116" t="s">
-        <v>11</v>
-      </c>
-      <c r="E116" t="s">
-        <v>244</v>
       </c>
       <c r="F116">
         <v>11</v>
@@ -5190,50 +5190,50 @@
         <v>No</v>
       </c>
       <c r="H116" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B117" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C117" t="s">
+        <v>244</v>
+      </c>
+      <c r="D117" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" t="s">
         <v>245</v>
       </c>
-      <c r="D117" t="s">
-        <v>11</v>
-      </c>
-      <c r="E117" t="s">
-        <v>246</v>
-      </c>
       <c r="F117">
         <v>11</v>
       </c>
       <c r="G117" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H117" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B118" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C118" t="s">
+        <v>246</v>
+      </c>
+      <c r="D118" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" t="s">
         <v>247</v>
-      </c>
-      <c r="D118" t="s">
-        <v>11</v>
-      </c>
-      <c r="E118" t="s">
-        <v>248</v>
       </c>
       <c r="F118">
         <v>11</v>
@@ -5243,24 +5243,24 @@
         <v>No</v>
       </c>
       <c r="H118" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B119" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C119" t="s">
+        <v>248</v>
+      </c>
+      <c r="D119" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" t="s">
         <v>249</v>
-      </c>
-      <c r="D119" t="s">
-        <v>11</v>
-      </c>
-      <c r="E119" t="s">
-        <v>250</v>
       </c>
       <c r="F119">
         <v>11</v>
@@ -5275,19 +5275,19 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B120" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C120" t="s">
+        <v>250</v>
+      </c>
+      <c r="D120" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" t="s">
         <v>251</v>
-      </c>
-      <c r="D120" t="s">
-        <v>11</v>
-      </c>
-      <c r="E120" t="s">
-        <v>252</v>
       </c>
       <c r="F120">
         <v>11</v>
@@ -5302,19 +5302,19 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B121" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C121" t="s">
+        <v>252</v>
+      </c>
+      <c r="D121" t="s">
+        <v>10</v>
+      </c>
+      <c r="E121" t="s">
         <v>253</v>
-      </c>
-      <c r="D121" t="s">
-        <v>11</v>
-      </c>
-      <c r="E121" t="s">
-        <v>254</v>
       </c>
       <c r="F121">
         <v>11</v>
@@ -5329,19 +5329,19 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B122" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C122" t="s">
+        <v>254</v>
+      </c>
+      <c r="D122" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122" t="s">
         <v>255</v>
-      </c>
-      <c r="D122" t="s">
-        <v>11</v>
-      </c>
-      <c r="E122" t="s">
-        <v>256</v>
       </c>
       <c r="F122">
         <v>11</v>
@@ -5356,19 +5356,19 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B123" t="s">
+        <v>256</v>
+      </c>
+      <c r="C123" t="s">
         <v>257</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123" t="s">
         <v>258</v>
-      </c>
-      <c r="D123" t="s">
-        <v>11</v>
-      </c>
-      <c r="E123" t="s">
-        <v>259</v>
       </c>
       <c r="F123">
         <v>11</v>
@@ -5378,24 +5378,24 @@
         <v>No</v>
       </c>
       <c r="H123" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B124" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C124" t="s">
+        <v>259</v>
+      </c>
+      <c r="D124" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" t="s">
         <v>260</v>
-      </c>
-      <c r="D124" t="s">
-        <v>11</v>
-      </c>
-      <c r="E124" t="s">
-        <v>261</v>
       </c>
       <c r="F124">
         <v>11</v>
@@ -5405,24 +5405,24 @@
         <v>No</v>
       </c>
       <c r="H124" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B125" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C125" t="s">
+        <v>261</v>
+      </c>
+      <c r="D125" t="s">
+        <v>10</v>
+      </c>
+      <c r="E125" t="s">
         <v>262</v>
-      </c>
-      <c r="D125" t="s">
-        <v>11</v>
-      </c>
-      <c r="E125" t="s">
-        <v>263</v>
       </c>
       <c r="F125">
         <v>11</v>
@@ -5432,24 +5432,24 @@
         <v>No</v>
       </c>
       <c r="H125" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B126" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C126" t="s">
+        <v>263</v>
+      </c>
+      <c r="D126" t="s">
+        <v>10</v>
+      </c>
+      <c r="E126" t="s">
         <v>264</v>
-      </c>
-      <c r="D126" t="s">
-        <v>11</v>
-      </c>
-      <c r="E126" t="s">
-        <v>265</v>
       </c>
       <c r="F126">
         <v>11</v>
@@ -5464,19 +5464,19 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B127" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C127" t="s">
+        <v>265</v>
+      </c>
+      <c r="D127" t="s">
+        <v>10</v>
+      </c>
+      <c r="E127" t="s">
         <v>266</v>
-      </c>
-      <c r="D127" t="s">
-        <v>11</v>
-      </c>
-      <c r="E127" t="s">
-        <v>267</v>
       </c>
       <c r="F127">
         <v>11</v>
@@ -5491,19 +5491,19 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B128" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C128" t="s">
+        <v>267</v>
+      </c>
+      <c r="D128" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128" t="s">
         <v>268</v>
-      </c>
-      <c r="D128" t="s">
-        <v>11</v>
-      </c>
-      <c r="E128" t="s">
-        <v>269</v>
       </c>
       <c r="F128">
         <v>26</v>
@@ -5518,19 +5518,19 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B129" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C129" t="s">
+        <v>269</v>
+      </c>
+      <c r="D129" t="s">
+        <v>10</v>
+      </c>
+      <c r="E129" t="s">
         <v>270</v>
-      </c>
-      <c r="D129" t="s">
-        <v>11</v>
-      </c>
-      <c r="E129" t="s">
-        <v>271</v>
       </c>
       <c r="F129">
         <v>11</v>
@@ -5545,19 +5545,19 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B130" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C130" t="s">
+        <v>271</v>
+      </c>
+      <c r="D130" t="s">
+        <v>10</v>
+      </c>
+      <c r="E130" t="s">
         <v>272</v>
-      </c>
-      <c r="D130" t="s">
-        <v>11</v>
-      </c>
-      <c r="E130" t="s">
-        <v>273</v>
       </c>
       <c r="F130">
         <v>11</v>
@@ -5572,19 +5572,19 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B131" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C131" t="s">
+        <v>273</v>
+      </c>
+      <c r="D131" t="s">
+        <v>10</v>
+      </c>
+      <c r="E131" t="s">
         <v>274</v>
-      </c>
-      <c r="D131" t="s">
-        <v>11</v>
-      </c>
-      <c r="E131" t="s">
-        <v>275</v>
       </c>
       <c r="F131">
         <v>11</v>
@@ -5599,19 +5599,19 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B132" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C132" t="s">
+        <v>275</v>
+      </c>
+      <c r="D132" t="s">
+        <v>10</v>
+      </c>
+      <c r="E132" t="s">
         <v>276</v>
-      </c>
-      <c r="D132" t="s">
-        <v>11</v>
-      </c>
-      <c r="E132" t="s">
-        <v>277</v>
       </c>
       <c r="F132">
         <v>11</v>
@@ -5621,24 +5621,24 @@
         <v>No</v>
       </c>
       <c r="H132" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C133" t="s">
+        <v>277</v>
+      </c>
+      <c r="D133" t="s">
         <v>278</v>
       </c>
-      <c r="D133" t="s">
+      <c r="E133" t="s">
         <v>279</v>
-      </c>
-      <c r="E133" t="s">
-        <v>280</v>
       </c>
       <c r="F133">
         <v>30</v>
@@ -5648,24 +5648,24 @@
         <v>No</v>
       </c>
       <c r="H133" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B134" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C134" t="s">
+        <v>280</v>
+      </c>
+      <c r="D134" t="s">
+        <v>10</v>
+      </c>
+      <c r="E134" t="s">
         <v>281</v>
-      </c>
-      <c r="D134" t="s">
-        <v>11</v>
-      </c>
-      <c r="E134" t="s">
-        <v>282</v>
       </c>
       <c r="F134">
         <v>11</v>
@@ -5675,50 +5675,50 @@
         <v>No</v>
       </c>
       <c r="H134" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B135" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C135" t="s">
+        <v>282</v>
+      </c>
+      <c r="D135" t="s">
+        <v>278</v>
+      </c>
+      <c r="E135" t="s">
         <v>283</v>
-      </c>
-      <c r="D135" t="s">
-        <v>279</v>
-      </c>
-      <c r="E135" t="s">
-        <v>284</v>
       </c>
       <c r="F135">
         <v>30</v>
       </c>
       <c r="G135" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H135" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B136" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C136" t="s">
+        <v>284</v>
+      </c>
+      <c r="D136" t="s">
+        <v>10</v>
+      </c>
+      <c r="E136" t="s">
         <v>285</v>
-      </c>
-      <c r="D136" t="s">
-        <v>11</v>
-      </c>
-      <c r="E136" t="s">
-        <v>286</v>
       </c>
       <c r="F136">
         <v>11</v>
@@ -5728,24 +5728,24 @@
         <v>No</v>
       </c>
       <c r="H136" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C137" t="s">
+        <v>286</v>
+      </c>
+      <c r="D137" t="s">
+        <v>10</v>
+      </c>
+      <c r="E137" t="s">
         <v>287</v>
-      </c>
-      <c r="D137" t="s">
-        <v>11</v>
-      </c>
-      <c r="E137" t="s">
-        <v>288</v>
       </c>
       <c r="F137">
         <v>11</v>
@@ -5755,24 +5755,24 @@
         <v>No</v>
       </c>
       <c r="H137" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B138" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C138" t="s">
+        <v>288</v>
+      </c>
+      <c r="D138" t="s">
+        <v>278</v>
+      </c>
+      <c r="E138" t="s">
         <v>289</v>
-      </c>
-      <c r="D138" t="s">
-        <v>279</v>
-      </c>
-      <c r="E138" t="s">
-        <v>290</v>
       </c>
       <c r="F138">
         <v>30</v>
@@ -5782,24 +5782,24 @@
         <v>No</v>
       </c>
       <c r="H138" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B139" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C139" t="s">
+        <v>290</v>
+      </c>
+      <c r="D139" t="s">
+        <v>278</v>
+      </c>
+      <c r="E139" t="s">
         <v>291</v>
-      </c>
-      <c r="D139" t="s">
-        <v>279</v>
-      </c>
-      <c r="E139" t="s">
-        <v>292</v>
       </c>
       <c r="F139">
         <v>30</v>
@@ -5814,19 +5814,19 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B140" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C140" t="s">
+        <v>292</v>
+      </c>
+      <c r="D140" t="s">
+        <v>278</v>
+      </c>
+      <c r="E140" t="s">
         <v>293</v>
-      </c>
-      <c r="D140" t="s">
-        <v>279</v>
-      </c>
-      <c r="E140" t="s">
-        <v>294</v>
       </c>
       <c r="F140">
         <v>30</v>
@@ -5836,50 +5836,50 @@
         <v>No</v>
       </c>
       <c r="H140" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B141" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C141" t="s">
+        <v>294</v>
+      </c>
+      <c r="D141" t="s">
+        <v>278</v>
+      </c>
+      <c r="E141" t="s">
         <v>295</v>
-      </c>
-      <c r="D141" t="s">
-        <v>279</v>
-      </c>
-      <c r="E141" t="s">
-        <v>296</v>
       </c>
       <c r="F141">
         <v>30</v>
       </c>
       <c r="G141" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H141" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B142" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C142" t="s">
+        <v>296</v>
+      </c>
+      <c r="D142" t="s">
+        <v>10</v>
+      </c>
+      <c r="E142" t="s">
         <v>297</v>
-      </c>
-      <c r="D142" t="s">
-        <v>11</v>
-      </c>
-      <c r="E142" t="s">
-        <v>298</v>
       </c>
       <c r="F142">
         <v>11</v>
@@ -5894,19 +5894,19 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C143" t="s">
+        <v>298</v>
+      </c>
+      <c r="D143" t="s">
+        <v>10</v>
+      </c>
+      <c r="E143" t="s">
         <v>299</v>
-      </c>
-      <c r="D143" t="s">
-        <v>11</v>
-      </c>
-      <c r="E143" t="s">
-        <v>300</v>
       </c>
       <c r="F143">
         <v>11</v>
@@ -5916,24 +5916,24 @@
         <v>No</v>
       </c>
       <c r="H143" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C144" t="s">
+        <v>300</v>
+      </c>
+      <c r="D144" t="s">
+        <v>278</v>
+      </c>
+      <c r="E144" t="s">
         <v>301</v>
-      </c>
-      <c r="D144" t="s">
-        <v>279</v>
-      </c>
-      <c r="E144" t="s">
-        <v>302</v>
       </c>
       <c r="F144">
         <v>30</v>
@@ -5943,24 +5943,24 @@
         <v>No</v>
       </c>
       <c r="H144" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C145" t="s">
+        <v>302</v>
+      </c>
+      <c r="D145" t="s">
+        <v>10</v>
+      </c>
+      <c r="E145" t="s">
         <v>303</v>
-      </c>
-      <c r="D145" t="s">
-        <v>11</v>
-      </c>
-      <c r="E145" t="s">
-        <v>304</v>
       </c>
       <c r="F145">
         <v>11</v>
@@ -5970,24 +5970,24 @@
         <v>No</v>
       </c>
       <c r="H145" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B146" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C146" t="s">
+        <v>304</v>
+      </c>
+      <c r="D146" t="s">
+        <v>10</v>
+      </c>
+      <c r="E146" t="s">
         <v>305</v>
-      </c>
-      <c r="D146" t="s">
-        <v>11</v>
-      </c>
-      <c r="E146" t="s">
-        <v>306</v>
       </c>
       <c r="F146">
         <v>11</v>
@@ -5997,24 +5997,24 @@
         <v>No</v>
       </c>
       <c r="H146" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B147" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C147" t="s">
+        <v>306</v>
+      </c>
+      <c r="D147" t="s">
+        <v>278</v>
+      </c>
+      <c r="E147" t="s">
         <v>307</v>
-      </c>
-      <c r="D147" t="s">
-        <v>279</v>
-      </c>
-      <c r="E147" t="s">
-        <v>308</v>
       </c>
       <c r="F147">
         <v>30</v>
@@ -6024,24 +6024,24 @@
         <v>No</v>
       </c>
       <c r="H147" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B148" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C148" t="s">
+        <v>308</v>
+      </c>
+      <c r="D148" t="s">
+        <v>10</v>
+      </c>
+      <c r="E148" t="s">
         <v>309</v>
-      </c>
-      <c r="D148" t="s">
-        <v>11</v>
-      </c>
-      <c r="E148" t="s">
-        <v>310</v>
       </c>
       <c r="F148">
         <v>11</v>
@@ -6056,19 +6056,19 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B149" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C149" t="s">
+        <v>310</v>
+      </c>
+      <c r="D149" t="s">
+        <v>10</v>
+      </c>
+      <c r="E149" t="s">
         <v>311</v>
-      </c>
-      <c r="D149" t="s">
-        <v>11</v>
-      </c>
-      <c r="E149" t="s">
-        <v>312</v>
       </c>
       <c r="F149">
         <v>11</v>
@@ -6078,50 +6078,50 @@
         <v>No</v>
       </c>
       <c r="H149" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B150" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C150" t="s">
+        <v>312</v>
+      </c>
+      <c r="D150" t="s">
+        <v>10</v>
+      </c>
+      <c r="E150" t="s">
         <v>313</v>
-      </c>
-      <c r="D150" t="s">
-        <v>11</v>
-      </c>
-      <c r="E150" t="s">
-        <v>314</v>
       </c>
       <c r="F150">
         <v>29</v>
       </c>
       <c r="G150" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H150" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B151" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C151" t="s">
+        <v>314</v>
+      </c>
+      <c r="D151" t="s">
+        <v>10</v>
+      </c>
+      <c r="E151" t="s">
         <v>315</v>
-      </c>
-      <c r="D151" t="s">
-        <v>11</v>
-      </c>
-      <c r="E151" t="s">
-        <v>316</v>
       </c>
       <c r="F151">
         <v>11</v>
@@ -6131,24 +6131,24 @@
         <v>No</v>
       </c>
       <c r="H151" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B152" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C152" t="s">
+        <v>316</v>
+      </c>
+      <c r="D152" t="s">
+        <v>278</v>
+      </c>
+      <c r="E152" t="s">
         <v>317</v>
-      </c>
-      <c r="D152" t="s">
-        <v>279</v>
-      </c>
-      <c r="E152" t="s">
-        <v>318</v>
       </c>
       <c r="F152">
         <v>30</v>
@@ -6158,24 +6158,24 @@
         <v>No</v>
       </c>
       <c r="H152" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B153" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C153" t="s">
+        <v>318</v>
+      </c>
+      <c r="D153" t="s">
+        <v>10</v>
+      </c>
+      <c r="E153" t="s">
         <v>319</v>
-      </c>
-      <c r="D153" t="s">
-        <v>11</v>
-      </c>
-      <c r="E153" t="s">
-        <v>320</v>
       </c>
       <c r="F153">
         <v>11</v>
@@ -6185,24 +6185,24 @@
         <v>No</v>
       </c>
       <c r="H153" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B154" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C154" t="s">
+        <v>320</v>
+      </c>
+      <c r="D154" t="s">
+        <v>10</v>
+      </c>
+      <c r="E154" t="s">
         <v>321</v>
-      </c>
-      <c r="D154" t="s">
-        <v>11</v>
-      </c>
-      <c r="E154" t="s">
-        <v>322</v>
       </c>
       <c r="F154">
         <v>11</v>
@@ -6212,24 +6212,24 @@
         <v>No</v>
       </c>
       <c r="H154" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B155" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C155" t="s">
+        <v>322</v>
+      </c>
+      <c r="D155" t="s">
+        <v>10</v>
+      </c>
+      <c r="E155" t="s">
         <v>323</v>
-      </c>
-      <c r="D155" t="s">
-        <v>11</v>
-      </c>
-      <c r="E155" t="s">
-        <v>324</v>
       </c>
       <c r="F155">
         <v>11</v>
@@ -6239,24 +6239,24 @@
         <v>No</v>
       </c>
       <c r="H155" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B156" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C156" t="s">
+        <v>324</v>
+      </c>
+      <c r="D156" t="s">
+        <v>10</v>
+      </c>
+      <c r="E156" t="s">
         <v>325</v>
-      </c>
-      <c r="D156" t="s">
-        <v>11</v>
-      </c>
-      <c r="E156" t="s">
-        <v>326</v>
       </c>
       <c r="F156">
         <v>11</v>
@@ -6266,50 +6266,50 @@
         <v>No</v>
       </c>
       <c r="H156" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B157" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C157" t="s">
+        <v>326</v>
+      </c>
+      <c r="D157" t="s">
+        <v>10</v>
+      </c>
+      <c r="E157" t="s">
         <v>327</v>
-      </c>
-      <c r="D157" t="s">
-        <v>11</v>
-      </c>
-      <c r="E157" t="s">
-        <v>328</v>
       </c>
       <c r="F157">
         <v>29</v>
       </c>
       <c r="G157" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H157" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B158" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C158" t="s">
+        <v>328</v>
+      </c>
+      <c r="D158" t="s">
+        <v>10</v>
+      </c>
+      <c r="E158" t="s">
         <v>329</v>
-      </c>
-      <c r="D158" t="s">
-        <v>11</v>
-      </c>
-      <c r="E158" t="s">
-        <v>330</v>
       </c>
       <c r="F158">
         <v>11</v>
@@ -6319,24 +6319,24 @@
         <v>No</v>
       </c>
       <c r="H158" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B159" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C159" t="s">
+        <v>330</v>
+      </c>
+      <c r="D159" t="s">
+        <v>10</v>
+      </c>
+      <c r="E159" t="s">
         <v>331</v>
-      </c>
-      <c r="D159" t="s">
-        <v>11</v>
-      </c>
-      <c r="E159" t="s">
-        <v>332</v>
       </c>
       <c r="F159">
         <v>11</v>
@@ -6346,24 +6346,24 @@
         <v>No</v>
       </c>
       <c r="H159" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B160" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C160" t="s">
+        <v>332</v>
+      </c>
+      <c r="D160" t="s">
+        <v>10</v>
+      </c>
+      <c r="E160" t="s">
         <v>333</v>
-      </c>
-      <c r="D160" t="s">
-        <v>11</v>
-      </c>
-      <c r="E160" t="s">
-        <v>334</v>
       </c>
       <c r="F160">
         <v>11</v>
@@ -6373,76 +6373,76 @@
         <v>No</v>
       </c>
       <c r="H160" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B161" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C161" t="s">
+        <v>334</v>
+      </c>
+      <c r="D161" t="s">
+        <v>278</v>
+      </c>
+      <c r="E161" t="s">
         <v>335</v>
-      </c>
-      <c r="D161" t="s">
-        <v>279</v>
-      </c>
-      <c r="E161" t="s">
-        <v>336</v>
       </c>
       <c r="F161">
         <v>30</v>
       </c>
       <c r="G161" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H161" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B162" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C162" t="s">
+        <v>336</v>
+      </c>
+      <c r="D162" t="s">
+        <v>10</v>
+      </c>
+      <c r="E162" t="s">
         <v>337</v>
-      </c>
-      <c r="D162" t="s">
-        <v>11</v>
-      </c>
-      <c r="E162" t="s">
-        <v>338</v>
       </c>
       <c r="F162">
         <v>29</v>
       </c>
       <c r="G162" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H162" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B163" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C163" t="s">
+        <v>338</v>
+      </c>
+      <c r="D163" t="s">
+        <v>278</v>
+      </c>
+      <c r="E163" t="s">
         <v>339</v>
-      </c>
-      <c r="D163" t="s">
-        <v>279</v>
-      </c>
-      <c r="E163" t="s">
-        <v>340</v>
       </c>
       <c r="F163">
         <v>30</v>
@@ -6457,25 +6457,25 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B164" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C164" t="s">
+        <v>340</v>
+      </c>
+      <c r="D164" t="s">
+        <v>278</v>
+      </c>
+      <c r="E164" t="s">
         <v>341</v>
-      </c>
-      <c r="D164" t="s">
-        <v>279</v>
-      </c>
-      <c r="E164" t="s">
-        <v>342</v>
       </c>
       <c r="F164">
         <v>30</v>
       </c>
       <c r="G164" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H164">
         <v>221</v>
@@ -6483,19 +6483,19 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B165" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C165" t="s">
+        <v>342</v>
+      </c>
+      <c r="D165" t="s">
+        <v>10</v>
+      </c>
+      <c r="E165" t="s">
         <v>343</v>
-      </c>
-      <c r="D165" t="s">
-        <v>11</v>
-      </c>
-      <c r="E165" t="s">
-        <v>344</v>
       </c>
       <c r="F165">
         <v>11</v>
@@ -6510,19 +6510,19 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B166" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C166" t="s">
+        <v>344</v>
+      </c>
+      <c r="D166" t="s">
+        <v>10</v>
+      </c>
+      <c r="E166" t="s">
         <v>345</v>
-      </c>
-      <c r="D166" t="s">
-        <v>11</v>
-      </c>
-      <c r="E166" t="s">
-        <v>346</v>
       </c>
       <c r="F166">
         <v>11</v>
@@ -6537,19 +6537,19 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B167" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C167" t="s">
+        <v>346</v>
+      </c>
+      <c r="D167" t="s">
+        <v>10</v>
+      </c>
+      <c r="E167" t="s">
         <v>347</v>
-      </c>
-      <c r="D167" t="s">
-        <v>11</v>
-      </c>
-      <c r="E167" t="s">
-        <v>348</v>
       </c>
       <c r="F167">
         <v>11</v>
@@ -6564,25 +6564,25 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B168" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C168" t="s">
+        <v>348</v>
+      </c>
+      <c r="D168" t="s">
+        <v>10</v>
+      </c>
+      <c r="E168" t="s">
         <v>349</v>
-      </c>
-      <c r="D168" t="s">
-        <v>11</v>
-      </c>
-      <c r="E168" t="s">
-        <v>350</v>
       </c>
       <c r="F168">
         <v>29</v>
       </c>
       <c r="G168" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H168">
         <v>211</v>
@@ -6590,19 +6590,19 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B169" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C169" t="s">
+        <v>350</v>
+      </c>
+      <c r="D169" t="s">
+        <v>10</v>
+      </c>
+      <c r="E169" t="s">
         <v>351</v>
-      </c>
-      <c r="D169" t="s">
-        <v>11</v>
-      </c>
-      <c r="E169" t="s">
-        <v>352</v>
       </c>
       <c r="F169">
         <v>11</v>
@@ -6617,19 +6617,19 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B170" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C170" t="s">
+        <v>352</v>
+      </c>
+      <c r="D170" t="s">
+        <v>10</v>
+      </c>
+      <c r="E170" t="s">
         <v>353</v>
-      </c>
-      <c r="D170" t="s">
-        <v>11</v>
-      </c>
-      <c r="E170" t="s">
-        <v>354</v>
       </c>
       <c r="F170">
         <v>11</v>
@@ -6644,25 +6644,25 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B171" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C171" t="s">
+        <v>354</v>
+      </c>
+      <c r="D171" t="s">
+        <v>10</v>
+      </c>
+      <c r="E171" t="s">
         <v>355</v>
-      </c>
-      <c r="D171" t="s">
-        <v>11</v>
-      </c>
-      <c r="E171" t="s">
-        <v>356</v>
       </c>
       <c r="F171">
         <v>29</v>
       </c>
       <c r="G171" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H171">
         <v>255</v>
@@ -6670,25 +6670,25 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B172" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C172" t="s">
+        <v>356</v>
+      </c>
+      <c r="D172" t="s">
+        <v>278</v>
+      </c>
+      <c r="E172" t="s">
         <v>357</v>
-      </c>
-      <c r="D172" t="s">
-        <v>279</v>
-      </c>
-      <c r="E172" t="s">
-        <v>358</v>
       </c>
       <c r="F172">
         <v>30</v>
       </c>
       <c r="G172" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H172">
         <v>228</v>
@@ -6696,25 +6696,25 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B173" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C173" t="s">
+        <v>358</v>
+      </c>
+      <c r="D173" t="s">
+        <v>10</v>
+      </c>
+      <c r="E173" t="s">
         <v>359</v>
-      </c>
-      <c r="D173" t="s">
-        <v>11</v>
-      </c>
-      <c r="E173" t="s">
-        <v>360</v>
       </c>
       <c r="F173">
         <v>29</v>
       </c>
       <c r="G173" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H173">
         <v>256</v>
@@ -6722,19 +6722,19 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B174" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C174" t="s">
+        <v>360</v>
+      </c>
+      <c r="D174" t="s">
+        <v>10</v>
+      </c>
+      <c r="E174" t="s">
         <v>361</v>
-      </c>
-      <c r="D174" t="s">
-        <v>11</v>
-      </c>
-      <c r="E174" t="s">
-        <v>362</v>
       </c>
       <c r="F174">
         <v>11</v>
@@ -6744,24 +6744,24 @@
         <v>No</v>
       </c>
       <c r="H174" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B175" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C175" t="s">
+        <v>362</v>
+      </c>
+      <c r="D175" t="s">
+        <v>10</v>
+      </c>
+      <c r="E175" t="s">
         <v>363</v>
-      </c>
-      <c r="D175" t="s">
-        <v>11</v>
-      </c>
-      <c r="E175" t="s">
-        <v>364</v>
       </c>
       <c r="F175">
         <v>11</v>
@@ -6776,19 +6776,19 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B176" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C176" t="s">
+        <v>364</v>
+      </c>
+      <c r="D176" t="s">
+        <v>10</v>
+      </c>
+      <c r="E176" t="s">
         <v>365</v>
-      </c>
-      <c r="D176" t="s">
-        <v>11</v>
-      </c>
-      <c r="E176" t="s">
-        <v>366</v>
       </c>
       <c r="F176">
         <v>11</v>
@@ -6803,19 +6803,19 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B177" t="s">
+        <v>366</v>
+      </c>
+      <c r="C177" t="s">
         <v>367</v>
       </c>
-      <c r="C177" t="s">
+      <c r="D177" t="s">
+        <v>10</v>
+      </c>
+      <c r="E177" t="s">
         <v>368</v>
-      </c>
-      <c r="D177" t="s">
-        <v>11</v>
-      </c>
-      <c r="E177" t="s">
-        <v>369</v>
       </c>
       <c r="F177">
         <v>11</v>
@@ -6825,24 +6825,24 @@
         <v>No</v>
       </c>
       <c r="H177" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B178" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C178" t="s">
+        <v>369</v>
+      </c>
+      <c r="D178" t="s">
+        <v>10</v>
+      </c>
+      <c r="E178" t="s">
         <v>370</v>
-      </c>
-      <c r="D178" t="s">
-        <v>11</v>
-      </c>
-      <c r="E178" t="s">
-        <v>371</v>
       </c>
       <c r="F178">
         <v>11</v>
@@ -6852,24 +6852,24 @@
         <v>No</v>
       </c>
       <c r="H178" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B179" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C179" t="s">
+        <v>371</v>
+      </c>
+      <c r="D179" t="s">
+        <v>10</v>
+      </c>
+      <c r="E179" t="s">
         <v>372</v>
-      </c>
-      <c r="D179" t="s">
-        <v>11</v>
-      </c>
-      <c r="E179" t="s">
-        <v>373</v>
       </c>
       <c r="F179">
         <v>11</v>
@@ -6879,24 +6879,24 @@
         <v>No</v>
       </c>
       <c r="H179" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B180" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C180" t="s">
+        <v>373</v>
+      </c>
+      <c r="D180" t="s">
+        <v>10</v>
+      </c>
+      <c r="E180" t="s">
         <v>374</v>
-      </c>
-      <c r="D180" t="s">
-        <v>11</v>
-      </c>
-      <c r="E180" t="s">
-        <v>375</v>
       </c>
       <c r="F180">
         <v>11</v>
@@ -6906,24 +6906,24 @@
         <v>No</v>
       </c>
       <c r="H180" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B181" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C181" t="s">
+        <v>375</v>
+      </c>
+      <c r="D181" t="s">
+        <v>10</v>
+      </c>
+      <c r="E181" t="s">
         <v>376</v>
-      </c>
-      <c r="D181" t="s">
-        <v>11</v>
-      </c>
-      <c r="E181" t="s">
-        <v>377</v>
       </c>
       <c r="F181">
         <v>11</v>
@@ -6933,24 +6933,24 @@
         <v>No</v>
       </c>
       <c r="H181" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B182" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C182" t="s">
+        <v>377</v>
+      </c>
+      <c r="D182" t="s">
+        <v>10</v>
+      </c>
+      <c r="E182" t="s">
         <v>378</v>
-      </c>
-      <c r="D182" t="s">
-        <v>11</v>
-      </c>
-      <c r="E182" t="s">
-        <v>379</v>
       </c>
       <c r="F182">
         <v>11</v>
@@ -6960,24 +6960,24 @@
         <v>No</v>
       </c>
       <c r="H182" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B183" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C183" t="s">
+        <v>379</v>
+      </c>
+      <c r="D183" t="s">
+        <v>10</v>
+      </c>
+      <c r="E183" t="s">
         <v>380</v>
-      </c>
-      <c r="D183" t="s">
-        <v>11</v>
-      </c>
-      <c r="E183" t="s">
-        <v>381</v>
       </c>
       <c r="F183">
         <v>11</v>
@@ -6987,24 +6987,24 @@
         <v>No</v>
       </c>
       <c r="H183" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B184" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C184" t="s">
+        <v>381</v>
+      </c>
+      <c r="D184" t="s">
+        <v>10</v>
+      </c>
+      <c r="E184" t="s">
         <v>382</v>
-      </c>
-      <c r="D184" t="s">
-        <v>11</v>
-      </c>
-      <c r="E184" t="s">
-        <v>383</v>
       </c>
       <c r="F184">
         <v>11</v>
@@ -7014,24 +7014,24 @@
         <v>No</v>
       </c>
       <c r="H184" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B185" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C185" t="s">
+        <v>383</v>
+      </c>
+      <c r="D185" t="s">
+        <v>10</v>
+      </c>
+      <c r="E185" t="s">
         <v>384</v>
-      </c>
-      <c r="D185" t="s">
-        <v>11</v>
-      </c>
-      <c r="E185" t="s">
-        <v>385</v>
       </c>
       <c r="F185">
         <v>11</v>
@@ -7041,24 +7041,24 @@
         <v>No</v>
       </c>
       <c r="H185" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B186" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C186" t="s">
+        <v>385</v>
+      </c>
+      <c r="D186" t="s">
+        <v>10</v>
+      </c>
+      <c r="E186" t="s">
         <v>386</v>
-      </c>
-      <c r="D186" t="s">
-        <v>11</v>
-      </c>
-      <c r="E186" t="s">
-        <v>387</v>
       </c>
       <c r="F186">
         <v>11</v>
@@ -7068,24 +7068,24 @@
         <v>No</v>
       </c>
       <c r="H186" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B187" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C187" t="s">
+        <v>387</v>
+      </c>
+      <c r="D187" t="s">
+        <v>10</v>
+      </c>
+      <c r="E187" t="s">
         <v>388</v>
-      </c>
-      <c r="D187" t="s">
-        <v>11</v>
-      </c>
-      <c r="E187" t="s">
-        <v>389</v>
       </c>
       <c r="F187">
         <v>11</v>
@@ -7095,24 +7095,24 @@
         <v>No</v>
       </c>
       <c r="H187" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B188" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C188" t="s">
+        <v>389</v>
+      </c>
+      <c r="D188" t="s">
+        <v>10</v>
+      </c>
+      <c r="E188" t="s">
         <v>390</v>
-      </c>
-      <c r="D188" t="s">
-        <v>11</v>
-      </c>
-      <c r="E188" t="s">
-        <v>391</v>
       </c>
       <c r="F188">
         <v>11</v>
@@ -7122,50 +7122,50 @@
         <v>No</v>
       </c>
       <c r="H188" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B189" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C189" t="s">
+        <v>391</v>
+      </c>
+      <c r="D189" t="s">
+        <v>10</v>
+      </c>
+      <c r="E189" t="s">
         <v>392</v>
       </c>
-      <c r="D189" t="s">
-        <v>11</v>
-      </c>
-      <c r="E189" t="s">
-        <v>393</v>
-      </c>
       <c r="F189">
         <v>11</v>
       </c>
       <c r="G189" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H189" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B190" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C190" t="s">
+        <v>393</v>
+      </c>
+      <c r="D190" t="s">
+        <v>10</v>
+      </c>
+      <c r="E190" t="s">
         <v>394</v>
-      </c>
-      <c r="D190" t="s">
-        <v>11</v>
-      </c>
-      <c r="E190" t="s">
-        <v>395</v>
       </c>
       <c r="F190">
         <v>11</v>
@@ -7175,24 +7175,24 @@
         <v>No</v>
       </c>
       <c r="H190" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B191" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C191" t="s">
+        <v>395</v>
+      </c>
+      <c r="D191" t="s">
+        <v>10</v>
+      </c>
+      <c r="E191" t="s">
         <v>396</v>
-      </c>
-      <c r="D191" t="s">
-        <v>11</v>
-      </c>
-      <c r="E191" t="s">
-        <v>397</v>
       </c>
       <c r="F191">
         <v>11</v>
@@ -7202,24 +7202,24 @@
         <v>No</v>
       </c>
       <c r="H191" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B192" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C192" t="s">
+        <v>397</v>
+      </c>
+      <c r="D192" t="s">
+        <v>10</v>
+      </c>
+      <c r="E192" t="s">
         <v>398</v>
-      </c>
-      <c r="D192" t="s">
-        <v>11</v>
-      </c>
-      <c r="E192" t="s">
-        <v>399</v>
       </c>
       <c r="F192">
         <v>11</v>
@@ -7229,24 +7229,24 @@
         <v>No</v>
       </c>
       <c r="H192" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B193" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C193" t="s">
+        <v>399</v>
+      </c>
+      <c r="D193" t="s">
+        <v>10</v>
+      </c>
+      <c r="E193" t="s">
         <v>400</v>
-      </c>
-      <c r="D193" t="s">
-        <v>11</v>
-      </c>
-      <c r="E193" t="s">
-        <v>401</v>
       </c>
       <c r="F193">
         <v>11</v>
@@ -7256,24 +7256,24 @@
         <v>No</v>
       </c>
       <c r="H193" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B194" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C194" t="s">
+        <v>401</v>
+      </c>
+      <c r="D194" t="s">
+        <v>10</v>
+      </c>
+      <c r="E194" t="s">
         <v>402</v>
-      </c>
-      <c r="D194" t="s">
-        <v>11</v>
-      </c>
-      <c r="E194" t="s">
-        <v>403</v>
       </c>
       <c r="F194">
         <v>11</v>
@@ -7283,24 +7283,24 @@
         <v>No</v>
       </c>
       <c r="H194" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B195" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C195" t="s">
+        <v>403</v>
+      </c>
+      <c r="D195" t="s">
+        <v>10</v>
+      </c>
+      <c r="E195" t="s">
         <v>404</v>
-      </c>
-      <c r="D195" t="s">
-        <v>11</v>
-      </c>
-      <c r="E195" t="s">
-        <v>405</v>
       </c>
       <c r="F195">
         <v>11</v>
@@ -7310,24 +7310,24 @@
         <v>No</v>
       </c>
       <c r="H195" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B196" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C196" t="s">
+        <v>405</v>
+      </c>
+      <c r="D196" t="s">
+        <v>10</v>
+      </c>
+      <c r="E196" t="s">
         <v>406</v>
-      </c>
-      <c r="D196" t="s">
-        <v>11</v>
-      </c>
-      <c r="E196" t="s">
-        <v>407</v>
       </c>
       <c r="F196">
         <v>11</v>
@@ -7337,24 +7337,24 @@
         <v>No</v>
       </c>
       <c r="H196" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B197" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C197" t="s">
+        <v>407</v>
+      </c>
+      <c r="D197" t="s">
+        <v>10</v>
+      </c>
+      <c r="E197" t="s">
         <v>408</v>
-      </c>
-      <c r="D197" t="s">
-        <v>11</v>
-      </c>
-      <c r="E197" t="s">
-        <v>409</v>
       </c>
       <c r="F197">
         <v>11</v>
@@ -7364,24 +7364,24 @@
         <v>No</v>
       </c>
       <c r="H197" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B198" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C198" t="s">
+        <v>409</v>
+      </c>
+      <c r="D198" t="s">
+        <v>10</v>
+      </c>
+      <c r="E198" t="s">
         <v>410</v>
-      </c>
-      <c r="D198" t="s">
-        <v>11</v>
-      </c>
-      <c r="E198" t="s">
-        <v>411</v>
       </c>
       <c r="F198">
         <v>11</v>
@@ -7396,19 +7396,19 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B199" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C199" t="s">
+        <v>411</v>
+      </c>
+      <c r="D199" t="s">
+        <v>10</v>
+      </c>
+      <c r="E199" t="s">
         <v>412</v>
-      </c>
-      <c r="D199" t="s">
-        <v>11</v>
-      </c>
-      <c r="E199" t="s">
-        <v>413</v>
       </c>
       <c r="F199">
         <v>11</v>
@@ -7418,24 +7418,24 @@
         <v>No</v>
       </c>
       <c r="H199" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B200" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C200" t="s">
+        <v>413</v>
+      </c>
+      <c r="D200" t="s">
+        <v>10</v>
+      </c>
+      <c r="E200" t="s">
         <v>414</v>
-      </c>
-      <c r="D200" t="s">
-        <v>11</v>
-      </c>
-      <c r="E200" t="s">
-        <v>415</v>
       </c>
       <c r="F200">
         <v>11</v>
@@ -7445,24 +7445,24 @@
         <v>No</v>
       </c>
       <c r="H200" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B201" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C201" t="s">
+        <v>415</v>
+      </c>
+      <c r="D201" t="s">
+        <v>10</v>
+      </c>
+      <c r="E201" t="s">
         <v>416</v>
-      </c>
-      <c r="D201" t="s">
-        <v>11</v>
-      </c>
-      <c r="E201" t="s">
-        <v>417</v>
       </c>
       <c r="F201">
         <v>11</v>
@@ -7472,24 +7472,24 @@
         <v>No</v>
       </c>
       <c r="H201" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B202" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C202" t="s">
+        <v>417</v>
+      </c>
+      <c r="D202" t="s">
+        <v>10</v>
+      </c>
+      <c r="E202" t="s">
         <v>418</v>
-      </c>
-      <c r="D202" t="s">
-        <v>11</v>
-      </c>
-      <c r="E202" t="s">
-        <v>419</v>
       </c>
       <c r="F202">
         <v>11</v>
@@ -7499,24 +7499,24 @@
         <v>No</v>
       </c>
       <c r="H202" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B203" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C203" t="s">
+        <v>419</v>
+      </c>
+      <c r="D203" t="s">
+        <v>10</v>
+      </c>
+      <c r="E203" t="s">
         <v>420</v>
-      </c>
-      <c r="D203" t="s">
-        <v>11</v>
-      </c>
-      <c r="E203" t="s">
-        <v>421</v>
       </c>
       <c r="F203">
         <v>11</v>
@@ -7531,19 +7531,19 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B204" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C204" t="s">
+        <v>421</v>
+      </c>
+      <c r="D204" t="s">
+        <v>10</v>
+      </c>
+      <c r="E204" t="s">
         <v>422</v>
-      </c>
-      <c r="D204" t="s">
-        <v>11</v>
-      </c>
-      <c r="E204" t="s">
-        <v>423</v>
       </c>
       <c r="F204">
         <v>11</v>
@@ -7553,24 +7553,24 @@
         <v>No</v>
       </c>
       <c r="H204" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B205" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C205" t="s">
+        <v>423</v>
+      </c>
+      <c r="D205" t="s">
+        <v>10</v>
+      </c>
+      <c r="E205" t="s">
         <v>424</v>
-      </c>
-      <c r="D205" t="s">
-        <v>11</v>
-      </c>
-      <c r="E205" t="s">
-        <v>425</v>
       </c>
       <c r="F205">
         <v>11</v>
@@ -7580,24 +7580,24 @@
         <v>No</v>
       </c>
       <c r="H205" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B206" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C206" t="s">
+        <v>425</v>
+      </c>
+      <c r="D206" t="s">
+        <v>10</v>
+      </c>
+      <c r="E206" t="s">
         <v>426</v>
-      </c>
-      <c r="D206" t="s">
-        <v>11</v>
-      </c>
-      <c r="E206" t="s">
-        <v>427</v>
       </c>
       <c r="F206">
         <v>11</v>
@@ -7607,24 +7607,24 @@
         <v>No</v>
       </c>
       <c r="H206" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B207" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C207" t="s">
+        <v>427</v>
+      </c>
+      <c r="D207" t="s">
+        <v>10</v>
+      </c>
+      <c r="E207" t="s">
         <v>428</v>
-      </c>
-      <c r="D207" t="s">
-        <v>11</v>
-      </c>
-      <c r="E207" t="s">
-        <v>429</v>
       </c>
       <c r="F207">
         <v>11</v>
@@ -7634,24 +7634,24 @@
         <v>No</v>
       </c>
       <c r="H207" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C208" t="s">
+        <v>429</v>
+      </c>
+      <c r="D208" t="s">
+        <v>10</v>
+      </c>
+      <c r="E208" t="s">
         <v>430</v>
-      </c>
-      <c r="D208" t="s">
-        <v>11</v>
-      </c>
-      <c r="E208" t="s">
-        <v>431</v>
       </c>
       <c r="F208">
         <v>11</v>
@@ -7661,24 +7661,24 @@
         <v>No</v>
       </c>
       <c r="H208" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B209" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C209" t="s">
+        <v>431</v>
+      </c>
+      <c r="D209" t="s">
+        <v>10</v>
+      </c>
+      <c r="E209" t="s">
         <v>432</v>
-      </c>
-      <c r="D209" t="s">
-        <v>11</v>
-      </c>
-      <c r="E209" t="s">
-        <v>433</v>
       </c>
       <c r="F209">
         <v>11</v>
@@ -7693,19 +7693,19 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B210" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C210" t="s">
+        <v>433</v>
+      </c>
+      <c r="D210" t="s">
+        <v>10</v>
+      </c>
+      <c r="E210" t="s">
         <v>434</v>
-      </c>
-      <c r="D210" t="s">
-        <v>11</v>
-      </c>
-      <c r="E210" t="s">
-        <v>435</v>
       </c>
       <c r="F210">
         <v>11</v>
@@ -7715,24 +7715,24 @@
         <v>No</v>
       </c>
       <c r="H210" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B211" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C211" t="s">
+        <v>435</v>
+      </c>
+      <c r="D211" t="s">
+        <v>10</v>
+      </c>
+      <c r="E211" t="s">
         <v>436</v>
-      </c>
-      <c r="D211" t="s">
-        <v>11</v>
-      </c>
-      <c r="E211" t="s">
-        <v>437</v>
       </c>
       <c r="F211">
         <v>11</v>
@@ -7742,24 +7742,24 @@
         <v>No</v>
       </c>
       <c r="H211" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B212" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C212" t="s">
+        <v>437</v>
+      </c>
+      <c r="D212" t="s">
+        <v>10</v>
+      </c>
+      <c r="E212" t="s">
         <v>438</v>
-      </c>
-      <c r="D212" t="s">
-        <v>11</v>
-      </c>
-      <c r="E212" t="s">
-        <v>439</v>
       </c>
       <c r="F212">
         <v>11</v>
@@ -7769,24 +7769,24 @@
         <v>No</v>
       </c>
       <c r="H212" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B213" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C213" t="s">
+        <v>439</v>
+      </c>
+      <c r="D213" t="s">
+        <v>10</v>
+      </c>
+      <c r="E213" t="s">
         <v>440</v>
-      </c>
-      <c r="D213" t="s">
-        <v>11</v>
-      </c>
-      <c r="E213" t="s">
-        <v>441</v>
       </c>
       <c r="F213">
         <v>11</v>
@@ -7796,24 +7796,24 @@
         <v>No</v>
       </c>
       <c r="H213" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B214" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C214" t="s">
+        <v>441</v>
+      </c>
+      <c r="D214" t="s">
+        <v>10</v>
+      </c>
+      <c r="E214" t="s">
         <v>442</v>
-      </c>
-      <c r="D214" t="s">
-        <v>11</v>
-      </c>
-      <c r="E214" t="s">
-        <v>443</v>
       </c>
       <c r="F214">
         <v>11</v>
@@ -7823,24 +7823,24 @@
         <v>No</v>
       </c>
       <c r="H214" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B215" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C215" t="s">
+        <v>443</v>
+      </c>
+      <c r="D215" t="s">
+        <v>10</v>
+      </c>
+      <c r="E215" t="s">
         <v>444</v>
-      </c>
-      <c r="D215" t="s">
-        <v>11</v>
-      </c>
-      <c r="E215" t="s">
-        <v>445</v>
       </c>
       <c r="F215">
         <v>11</v>
@@ -7850,24 +7850,24 @@
         <v>No</v>
       </c>
       <c r="H215" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B216" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C216" t="s">
+        <v>445</v>
+      </c>
+      <c r="D216" t="s">
+        <v>10</v>
+      </c>
+      <c r="E216" t="s">
         <v>446</v>
-      </c>
-      <c r="D216" t="s">
-        <v>11</v>
-      </c>
-      <c r="E216" t="s">
-        <v>447</v>
       </c>
       <c r="F216">
         <v>11</v>
@@ -7877,24 +7877,24 @@
         <v>No</v>
       </c>
       <c r="H216" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B217" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C217" t="s">
+        <v>447</v>
+      </c>
+      <c r="D217" t="s">
+        <v>10</v>
+      </c>
+      <c r="E217" t="s">
         <v>448</v>
-      </c>
-      <c r="D217" t="s">
-        <v>11</v>
-      </c>
-      <c r="E217" t="s">
-        <v>449</v>
       </c>
       <c r="F217">
         <v>11</v>
@@ -7904,24 +7904,24 @@
         <v>No</v>
       </c>
       <c r="H217" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B218" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C218" t="s">
+        <v>449</v>
+      </c>
+      <c r="D218" t="s">
+        <v>10</v>
+      </c>
+      <c r="E218" t="s">
         <v>450</v>
-      </c>
-      <c r="D218" t="s">
-        <v>11</v>
-      </c>
-      <c r="E218" t="s">
-        <v>451</v>
       </c>
       <c r="F218">
         <v>11</v>
@@ -7931,24 +7931,24 @@
         <v>No</v>
       </c>
       <c r="H218" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B219" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C219" t="s">
+        <v>451</v>
+      </c>
+      <c r="D219" t="s">
+        <v>10</v>
+      </c>
+      <c r="E219" t="s">
         <v>452</v>
-      </c>
-      <c r="D219" t="s">
-        <v>11</v>
-      </c>
-      <c r="E219" t="s">
-        <v>453</v>
       </c>
       <c r="F219">
         <v>11</v>
@@ -7958,24 +7958,24 @@
         <v>No</v>
       </c>
       <c r="H219" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B220" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C220" t="s">
+        <v>453</v>
+      </c>
+      <c r="D220" t="s">
+        <v>10</v>
+      </c>
+      <c r="E220" t="s">
         <v>454</v>
-      </c>
-      <c r="D220" t="s">
-        <v>11</v>
-      </c>
-      <c r="E220" t="s">
-        <v>455</v>
       </c>
       <c r="F220">
         <v>11</v>
@@ -7985,24 +7985,24 @@
         <v>No</v>
       </c>
       <c r="H220" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B221" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C221" t="s">
+        <v>455</v>
+      </c>
+      <c r="D221" t="s">
+        <v>10</v>
+      </c>
+      <c r="E221" t="s">
         <v>456</v>
-      </c>
-      <c r="D221" t="s">
-        <v>11</v>
-      </c>
-      <c r="E221" t="s">
-        <v>457</v>
       </c>
       <c r="F221">
         <v>11</v>
@@ -8012,24 +8012,24 @@
         <v>No</v>
       </c>
       <c r="H221" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B222" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C222" t="s">
+        <v>457</v>
+      </c>
+      <c r="D222" t="s">
+        <v>10</v>
+      </c>
+      <c r="E222" t="s">
         <v>458</v>
-      </c>
-      <c r="D222" t="s">
-        <v>11</v>
-      </c>
-      <c r="E222" t="s">
-        <v>459</v>
       </c>
       <c r="F222">
         <v>11</v>
@@ -8044,19 +8044,19 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B223" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C223" t="s">
+        <v>459</v>
+      </c>
+      <c r="D223" t="s">
+        <v>10</v>
+      </c>
+      <c r="E223" t="s">
         <v>460</v>
-      </c>
-      <c r="D223" t="s">
-        <v>11</v>
-      </c>
-      <c r="E223" t="s">
-        <v>461</v>
       </c>
       <c r="F223">
         <v>11</v>
@@ -8066,24 +8066,24 @@
         <v>No</v>
       </c>
       <c r="H223" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B224" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C224" t="s">
+        <v>461</v>
+      </c>
+      <c r="D224" t="s">
+        <v>10</v>
+      </c>
+      <c r="E224" t="s">
         <v>462</v>
-      </c>
-      <c r="D224" t="s">
-        <v>11</v>
-      </c>
-      <c r="E224" t="s">
-        <v>463</v>
       </c>
       <c r="F224">
         <v>11</v>
@@ -8093,24 +8093,24 @@
         <v>No</v>
       </c>
       <c r="H224" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B225" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C225" t="s">
+        <v>463</v>
+      </c>
+      <c r="D225" t="s">
+        <v>10</v>
+      </c>
+      <c r="E225" t="s">
         <v>464</v>
-      </c>
-      <c r="D225" t="s">
-        <v>11</v>
-      </c>
-      <c r="E225" t="s">
-        <v>465</v>
       </c>
       <c r="F225">
         <v>11</v>
@@ -8120,24 +8120,24 @@
         <v>No</v>
       </c>
       <c r="H225" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B226" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C226" t="s">
+        <v>465</v>
+      </c>
+      <c r="D226" t="s">
+        <v>10</v>
+      </c>
+      <c r="E226" t="s">
         <v>466</v>
-      </c>
-      <c r="D226" t="s">
-        <v>11</v>
-      </c>
-      <c r="E226" t="s">
-        <v>467</v>
       </c>
       <c r="F226">
         <v>11</v>
@@ -8147,24 +8147,24 @@
         <v>No</v>
       </c>
       <c r="H226" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B227" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C227" t="s">
+        <v>467</v>
+      </c>
+      <c r="D227" t="s">
+        <v>10</v>
+      </c>
+      <c r="E227" t="s">
         <v>468</v>
-      </c>
-      <c r="D227" t="s">
-        <v>11</v>
-      </c>
-      <c r="E227" t="s">
-        <v>469</v>
       </c>
       <c r="F227">
         <v>11</v>
@@ -8174,50 +8174,50 @@
         <v>No</v>
       </c>
       <c r="H227" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B228" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C228" t="s">
+        <v>469</v>
+      </c>
+      <c r="D228" t="s">
+        <v>10</v>
+      </c>
+      <c r="E228" t="s">
         <v>470</v>
       </c>
-      <c r="D228" t="s">
-        <v>11</v>
-      </c>
-      <c r="E228" t="s">
-        <v>471</v>
-      </c>
       <c r="F228">
         <v>11</v>
       </c>
       <c r="G228" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H228" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B229" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C229" t="s">
+        <v>471</v>
+      </c>
+      <c r="D229" t="s">
+        <v>10</v>
+      </c>
+      <c r="E229" t="s">
         <v>472</v>
-      </c>
-      <c r="D229" t="s">
-        <v>11</v>
-      </c>
-      <c r="E229" t="s">
-        <v>473</v>
       </c>
       <c r="F229">
         <v>11</v>
@@ -8227,24 +8227,24 @@
         <v>No</v>
       </c>
       <c r="H229" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B230" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C230" t="s">
+        <v>473</v>
+      </c>
+      <c r="D230" t="s">
+        <v>10</v>
+      </c>
+      <c r="E230" t="s">
         <v>474</v>
-      </c>
-      <c r="D230" t="s">
-        <v>11</v>
-      </c>
-      <c r="E230" t="s">
-        <v>475</v>
       </c>
       <c r="F230">
         <v>11</v>
@@ -8254,50 +8254,50 @@
         <v>No</v>
       </c>
       <c r="H230" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B231" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C231" t="s">
+        <v>475</v>
+      </c>
+      <c r="D231" t="s">
+        <v>10</v>
+      </c>
+      <c r="E231" t="s">
         <v>476</v>
       </c>
-      <c r="D231" t="s">
-        <v>11</v>
-      </c>
-      <c r="E231" t="s">
-        <v>477</v>
-      </c>
       <c r="F231">
         <v>11</v>
       </c>
       <c r="G231" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H231" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
+        <v>14</v>
+      </c>
+      <c r="B232" t="s">
         <v>15</v>
       </c>
-      <c r="B232" t="s">
-        <v>16</v>
-      </c>
       <c r="C232" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D232" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E232" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F232">
         <v>11</v>
@@ -8307,50 +8307,50 @@
         <v>No</v>
       </c>
       <c r="H232" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B233" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C233" t="s">
+        <v>478</v>
+      </c>
+      <c r="D233" t="s">
+        <v>10</v>
+      </c>
+      <c r="E233" t="s">
         <v>479</v>
       </c>
-      <c r="D233" t="s">
-        <v>11</v>
-      </c>
-      <c r="E233" t="s">
-        <v>480</v>
-      </c>
       <c r="F233">
         <v>11</v>
       </c>
       <c r="G233" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H233" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B234" t="s">
         <v>6</v>
       </c>
       <c r="C234" t="s">
+        <v>480</v>
+      </c>
+      <c r="D234" t="s">
+        <v>10</v>
+      </c>
+      <c r="E234" t="s">
         <v>481</v>
-      </c>
-      <c r="D234" t="s">
-        <v>11</v>
-      </c>
-      <c r="E234" t="s">
-        <v>482</v>
       </c>
       <c r="F234">
         <v>26</v>
@@ -8360,24 +8360,24 @@
         <v>No</v>
       </c>
       <c r="H234" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B235" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C235" t="s">
+        <v>482</v>
+      </c>
+      <c r="D235" t="s">
+        <v>278</v>
+      </c>
+      <c r="E235" t="s">
         <v>483</v>
-      </c>
-      <c r="D235" t="s">
-        <v>279</v>
-      </c>
-      <c r="E235" t="s">
-        <v>484</v>
       </c>
       <c r="F235">
         <v>30</v>
@@ -8387,24 +8387,24 @@
         <v>No</v>
       </c>
       <c r="H235" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B236" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C236" t="s">
+        <v>484</v>
+      </c>
+      <c r="D236" t="s">
+        <v>10</v>
+      </c>
+      <c r="E236" t="s">
         <v>485</v>
-      </c>
-      <c r="D236" t="s">
-        <v>11</v>
-      </c>
-      <c r="E236" t="s">
-        <v>486</v>
       </c>
       <c r="F236">
         <v>11</v>
@@ -8414,24 +8414,24 @@
         <v>No</v>
       </c>
       <c r="H236" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B237" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C237" t="s">
+        <v>486</v>
+      </c>
+      <c r="D237" t="s">
+        <v>10</v>
+      </c>
+      <c r="E237" t="s">
         <v>487</v>
-      </c>
-      <c r="D237" t="s">
-        <v>11</v>
-      </c>
-      <c r="E237" t="s">
-        <v>488</v>
       </c>
       <c r="F237">
         <v>11</v>
@@ -8441,24 +8441,24 @@
         <v>No</v>
       </c>
       <c r="H237" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B238" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C238" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D238" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E238" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F238">
         <v>11</v>
@@ -8468,24 +8468,24 @@
         <v>No</v>
       </c>
       <c r="H238" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B239" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C239" t="s">
+        <v>489</v>
+      </c>
+      <c r="D239" t="s">
+        <v>10</v>
+      </c>
+      <c r="E239" t="s">
         <v>490</v>
-      </c>
-      <c r="D239" t="s">
-        <v>11</v>
-      </c>
-      <c r="E239" t="s">
-        <v>491</v>
       </c>
       <c r="F239">
         <v>11</v>
@@ -8495,7 +8495,7 @@
         <v>No</v>
       </c>
       <c r="H239" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
@@ -8503,16 +8503,16 @@
         <v>5</v>
       </c>
       <c r="B240" t="s">
-        <v>10</v>
+        <v>563</v>
       </c>
       <c r="C240" t="s">
+        <v>491</v>
+      </c>
+      <c r="D240" t="s">
         <v>492</v>
       </c>
-      <c r="D240" t="s">
+      <c r="E240" t="s">
         <v>493</v>
-      </c>
-      <c r="E240" t="s">
-        <v>494</v>
       </c>
       <c r="F240">
         <v>36</v>
@@ -8533,13 +8533,13 @@
         <v>6</v>
       </c>
       <c r="C241" t="s">
+        <v>108</v>
+      </c>
+      <c r="D241" t="s">
+        <v>278</v>
+      </c>
+      <c r="E241" t="s">
         <v>109</v>
-      </c>
-      <c r="D241" t="s">
-        <v>279</v>
-      </c>
-      <c r="E241" t="s">
-        <v>110</v>
       </c>
       <c r="F241">
         <v>26</v>
@@ -8549,7 +8549,7 @@
         <v>No</v>
       </c>
       <c r="H241" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
@@ -8560,13 +8560,13 @@
         <v>6</v>
       </c>
       <c r="C242" t="s">
+        <v>110</v>
+      </c>
+      <c r="D242" t="s">
+        <v>278</v>
+      </c>
+      <c r="E242" t="s">
         <v>111</v>
-      </c>
-      <c r="D242" t="s">
-        <v>279</v>
-      </c>
-      <c r="E242" t="s">
-        <v>112</v>
       </c>
       <c r="F242">
         <v>26</v>
@@ -8576,7 +8576,7 @@
         <v>No</v>
       </c>
       <c r="H242" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
@@ -8587,13 +8587,13 @@
         <v>6</v>
       </c>
       <c r="C243" t="s">
+        <v>114</v>
+      </c>
+      <c r="D243" t="s">
+        <v>278</v>
+      </c>
+      <c r="E243" t="s">
         <v>115</v>
-      </c>
-      <c r="D243" t="s">
-        <v>279</v>
-      </c>
-      <c r="E243" t="s">
-        <v>116</v>
       </c>
       <c r="F243">
         <v>26</v>
@@ -8603,7 +8603,7 @@
         <v>No</v>
       </c>
       <c r="H243" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
@@ -8614,13 +8614,13 @@
         <v>6</v>
       </c>
       <c r="C244" t="s">
+        <v>116</v>
+      </c>
+      <c r="D244" t="s">
+        <v>278</v>
+      </c>
+      <c r="E244" t="s">
         <v>117</v>
-      </c>
-      <c r="D244" t="s">
-        <v>279</v>
-      </c>
-      <c r="E244" t="s">
-        <v>118</v>
       </c>
       <c r="F244">
         <v>26</v>
@@ -8630,7 +8630,7 @@
         <v>No</v>
       </c>
       <c r="H244" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
@@ -8641,13 +8641,13 @@
         <v>6</v>
       </c>
       <c r="C245" t="s">
+        <v>118</v>
+      </c>
+      <c r="D245" t="s">
+        <v>278</v>
+      </c>
+      <c r="E245" t="s">
         <v>119</v>
-      </c>
-      <c r="D245" t="s">
-        <v>279</v>
-      </c>
-      <c r="E245" t="s">
-        <v>120</v>
       </c>
       <c r="F245">
         <v>26</v>
@@ -8657,7 +8657,7 @@
         <v>No</v>
       </c>
       <c r="H245" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
@@ -8668,13 +8668,13 @@
         <v>6</v>
       </c>
       <c r="C246" t="s">
+        <v>124</v>
+      </c>
+      <c r="D246" t="s">
+        <v>278</v>
+      </c>
+      <c r="E246" t="s">
         <v>125</v>
-      </c>
-      <c r="D246" t="s">
-        <v>279</v>
-      </c>
-      <c r="E246" t="s">
-        <v>126</v>
       </c>
       <c r="F246">
         <v>26</v>
@@ -8684,7 +8684,7 @@
         <v>No</v>
       </c>
       <c r="H246" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
@@ -8695,13 +8695,13 @@
         <v>6</v>
       </c>
       <c r="C247" t="s">
+        <v>128</v>
+      </c>
+      <c r="D247" t="s">
+        <v>278</v>
+      </c>
+      <c r="E247" t="s">
         <v>129</v>
-      </c>
-      <c r="D247" t="s">
-        <v>279</v>
-      </c>
-      <c r="E247" t="s">
-        <v>130</v>
       </c>
       <c r="F247">
         <v>26</v>
@@ -8711,7 +8711,7 @@
         <v>No</v>
       </c>
       <c r="H247" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
@@ -8722,13 +8722,13 @@
         <v>6</v>
       </c>
       <c r="C248" t="s">
+        <v>130</v>
+      </c>
+      <c r="D248" t="s">
+        <v>278</v>
+      </c>
+      <c r="E248" t="s">
         <v>131</v>
-      </c>
-      <c r="D248" t="s">
-        <v>279</v>
-      </c>
-      <c r="E248" t="s">
-        <v>132</v>
       </c>
       <c r="F248">
         <v>26</v>
@@ -8738,7 +8738,7 @@
         <v>No</v>
       </c>
       <c r="H248" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
@@ -8749,13 +8749,13 @@
         <v>6</v>
       </c>
       <c r="C249" t="s">
+        <v>136</v>
+      </c>
+      <c r="D249" t="s">
+        <v>278</v>
+      </c>
+      <c r="E249" t="s">
         <v>137</v>
-      </c>
-      <c r="D249" t="s">
-        <v>279</v>
-      </c>
-      <c r="E249" t="s">
-        <v>138</v>
       </c>
       <c r="F249">
         <v>26</v>
@@ -8765,7 +8765,7 @@
         <v>No</v>
       </c>
       <c r="H249" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
@@ -8776,13 +8776,13 @@
         <v>6</v>
       </c>
       <c r="C250" t="s">
+        <v>144</v>
+      </c>
+      <c r="D250" t="s">
+        <v>278</v>
+      </c>
+      <c r="E250" t="s">
         <v>145</v>
-      </c>
-      <c r="D250" t="s">
-        <v>279</v>
-      </c>
-      <c r="E250" t="s">
-        <v>146</v>
       </c>
       <c r="F250">
         <v>26</v>
@@ -8792,7 +8792,7 @@
         <v>No</v>
       </c>
       <c r="H250" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
@@ -8803,13 +8803,13 @@
         <v>6</v>
       </c>
       <c r="C251" t="s">
+        <v>148</v>
+      </c>
+      <c r="D251" t="s">
+        <v>278</v>
+      </c>
+      <c r="E251" t="s">
         <v>149</v>
-      </c>
-      <c r="D251" t="s">
-        <v>279</v>
-      </c>
-      <c r="E251" t="s">
-        <v>150</v>
       </c>
       <c r="F251">
         <v>26</v>
@@ -8819,7 +8819,7 @@
         <v>No</v>
       </c>
       <c r="H251" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
@@ -8830,13 +8830,13 @@
         <v>6</v>
       </c>
       <c r="C252" t="s">
+        <v>152</v>
+      </c>
+      <c r="D252" t="s">
+        <v>278</v>
+      </c>
+      <c r="E252" t="s">
         <v>153</v>
-      </c>
-      <c r="D252" t="s">
-        <v>279</v>
-      </c>
-      <c r="E252" t="s">
-        <v>154</v>
       </c>
       <c r="F252">
         <v>26</v>
@@ -8846,7 +8846,7 @@
         <v>No</v>
       </c>
       <c r="H252" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
@@ -8857,13 +8857,13 @@
         <v>6</v>
       </c>
       <c r="C253" t="s">
+        <v>156</v>
+      </c>
+      <c r="D253" t="s">
+        <v>278</v>
+      </c>
+      <c r="E253" t="s">
         <v>157</v>
-      </c>
-      <c r="D253" t="s">
-        <v>279</v>
-      </c>
-      <c r="E253" t="s">
-        <v>158</v>
       </c>
       <c r="F253">
         <v>26</v>
@@ -8873,7 +8873,7 @@
         <v>No</v>
       </c>
       <c r="H253" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
@@ -8884,13 +8884,13 @@
         <v>6</v>
       </c>
       <c r="C254" t="s">
+        <v>160</v>
+      </c>
+      <c r="D254" t="s">
+        <v>278</v>
+      </c>
+      <c r="E254" t="s">
         <v>161</v>
-      </c>
-      <c r="D254" t="s">
-        <v>279</v>
-      </c>
-      <c r="E254" t="s">
-        <v>162</v>
       </c>
       <c r="F254">
         <v>26</v>
@@ -8900,7 +8900,7 @@
         <v>No</v>
       </c>
       <c r="H254" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
@@ -8911,13 +8911,13 @@
         <v>6</v>
       </c>
       <c r="C255" t="s">
+        <v>162</v>
+      </c>
+      <c r="D255" t="s">
+        <v>278</v>
+      </c>
+      <c r="E255" t="s">
         <v>163</v>
-      </c>
-      <c r="D255" t="s">
-        <v>279</v>
-      </c>
-      <c r="E255" t="s">
-        <v>164</v>
       </c>
       <c r="F255">
         <v>26</v>
@@ -8927,7 +8927,7 @@
         <v>No</v>
       </c>
       <c r="H255" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
@@ -8938,13 +8938,13 @@
         <v>6</v>
       </c>
       <c r="C256" t="s">
+        <v>164</v>
+      </c>
+      <c r="D256" t="s">
+        <v>278</v>
+      </c>
+      <c r="E256" t="s">
         <v>165</v>
-      </c>
-      <c r="D256" t="s">
-        <v>279</v>
-      </c>
-      <c r="E256" t="s">
-        <v>166</v>
       </c>
       <c r="F256">
         <v>26</v>
@@ -8954,7 +8954,7 @@
         <v>No</v>
       </c>
       <c r="H256" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
@@ -8965,13 +8965,13 @@
         <v>6</v>
       </c>
       <c r="C257" t="s">
+        <v>172</v>
+      </c>
+      <c r="D257" t="s">
+        <v>278</v>
+      </c>
+      <c r="E257" t="s">
         <v>173</v>
-      </c>
-      <c r="D257" t="s">
-        <v>279</v>
-      </c>
-      <c r="E257" t="s">
-        <v>174</v>
       </c>
       <c r="F257">
         <v>26</v>
@@ -8981,7 +8981,7 @@
         <v>No</v>
       </c>
       <c r="H257" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
@@ -8992,13 +8992,13 @@
         <v>6</v>
       </c>
       <c r="C258" t="s">
+        <v>174</v>
+      </c>
+      <c r="D258" t="s">
+        <v>278</v>
+      </c>
+      <c r="E258" t="s">
         <v>175</v>
-      </c>
-      <c r="D258" t="s">
-        <v>279</v>
-      </c>
-      <c r="E258" t="s">
-        <v>176</v>
       </c>
       <c r="F258">
         <v>26</v>
@@ -9008,7 +9008,7 @@
         <v>No</v>
       </c>
       <c r="H258" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
@@ -9019,13 +9019,13 @@
         <v>6</v>
       </c>
       <c r="C259" t="s">
+        <v>176</v>
+      </c>
+      <c r="D259" t="s">
+        <v>278</v>
+      </c>
+      <c r="E259" t="s">
         <v>177</v>
-      </c>
-      <c r="D259" t="s">
-        <v>279</v>
-      </c>
-      <c r="E259" t="s">
-        <v>178</v>
       </c>
       <c r="F259">
         <v>26</v>
@@ -9035,7 +9035,7 @@
         <v>No</v>
       </c>
       <c r="H259" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
@@ -9046,13 +9046,13 @@
         <v>6</v>
       </c>
       <c r="C260" t="s">
+        <v>180</v>
+      </c>
+      <c r="D260" t="s">
+        <v>278</v>
+      </c>
+      <c r="E260" t="s">
         <v>181</v>
-      </c>
-      <c r="D260" t="s">
-        <v>279</v>
-      </c>
-      <c r="E260" t="s">
-        <v>182</v>
       </c>
       <c r="F260">
         <v>26</v>
@@ -9062,7 +9062,7 @@
         <v>No</v>
       </c>
       <c r="H260" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
@@ -9073,13 +9073,13 @@
         <v>6</v>
       </c>
       <c r="C261" t="s">
+        <v>182</v>
+      </c>
+      <c r="D261" t="s">
+        <v>278</v>
+      </c>
+      <c r="E261" t="s">
         <v>183</v>
-      </c>
-      <c r="D261" t="s">
-        <v>279</v>
-      </c>
-      <c r="E261" t="s">
-        <v>184</v>
       </c>
       <c r="F261">
         <v>26</v>
@@ -9089,7 +9089,7 @@
         <v>No</v>
       </c>
       <c r="H261" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
@@ -9100,13 +9100,13 @@
         <v>6</v>
       </c>
       <c r="C262" t="s">
+        <v>188</v>
+      </c>
+      <c r="D262" t="s">
+        <v>278</v>
+      </c>
+      <c r="E262" t="s">
         <v>189</v>
-      </c>
-      <c r="D262" t="s">
-        <v>279</v>
-      </c>
-      <c r="E262" t="s">
-        <v>190</v>
       </c>
       <c r="F262">
         <v>26</v>
@@ -9116,7 +9116,7 @@
         <v>No</v>
       </c>
       <c r="H262" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
@@ -9127,13 +9127,13 @@
         <v>6</v>
       </c>
       <c r="C263" t="s">
+        <v>480</v>
+      </c>
+      <c r="D263" t="s">
+        <v>278</v>
+      </c>
+      <c r="E263" t="s">
         <v>481</v>
-      </c>
-      <c r="D263" t="s">
-        <v>279</v>
-      </c>
-      <c r="E263" t="s">
-        <v>482</v>
       </c>
       <c r="F263">
         <v>26</v>
@@ -9143,7 +9143,7 @@
         <v>No</v>
       </c>
       <c r="H263" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
@@ -9151,16 +9151,16 @@
         <v>5</v>
       </c>
       <c r="B264" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C264" t="s">
+        <v>494</v>
+      </c>
+      <c r="D264" t="s">
         <v>495</v>
       </c>
-      <c r="D264" t="s">
+      <c r="E264" t="s">
         <v>496</v>
-      </c>
-      <c r="E264" t="s">
-        <v>497</v>
       </c>
       <c r="F264">
         <v>37</v>
@@ -9178,16 +9178,16 @@
         <v>5</v>
       </c>
       <c r="B265" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C265" t="s">
+        <v>497</v>
+      </c>
+      <c r="D265" t="s">
         <v>498</v>
       </c>
-      <c r="D265" t="s">
+      <c r="E265" t="s">
         <v>499</v>
-      </c>
-      <c r="E265" t="s">
-        <v>500</v>
       </c>
       <c r="F265">
         <v>10</v>
@@ -9197,7 +9197,7 @@
         <v>No</v>
       </c>
       <c r="H265" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
@@ -9205,16 +9205,16 @@
         <v>5</v>
       </c>
       <c r="B266" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C266" t="s">
+        <v>500</v>
+      </c>
+      <c r="D266" t="s">
         <v>501</v>
       </c>
-      <c r="D266" t="s">
+      <c r="E266" t="s">
         <v>502</v>
-      </c>
-      <c r="E266" t="s">
-        <v>503</v>
       </c>
       <c r="F266">
         <v>16</v>
@@ -9232,16 +9232,16 @@
         <v>5</v>
       </c>
       <c r="B267" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C267" t="s">
+        <v>503</v>
+      </c>
+      <c r="D267" t="s">
         <v>504</v>
       </c>
-      <c r="D267" t="s">
+      <c r="E267" t="s">
         <v>505</v>
-      </c>
-      <c r="E267" t="s">
-        <v>506</v>
       </c>
       <c r="F267">
         <v>23</v>
@@ -9262,13 +9262,13 @@
         <v>6</v>
       </c>
       <c r="C268" t="s">
+        <v>120</v>
+      </c>
+      <c r="D268" t="s">
+        <v>278</v>
+      </c>
+      <c r="E268" t="s">
         <v>121</v>
-      </c>
-      <c r="D268" t="s">
-        <v>279</v>
-      </c>
-      <c r="E268" t="s">
-        <v>122</v>
       </c>
       <c r="F268">
         <v>26</v>
@@ -9278,7 +9278,7 @@
         <v>No</v>
       </c>
       <c r="H268" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
@@ -9289,13 +9289,13 @@
         <v>6</v>
       </c>
       <c r="C269" t="s">
+        <v>122</v>
+      </c>
+      <c r="D269" t="s">
+        <v>278</v>
+      </c>
+      <c r="E269" t="s">
         <v>123</v>
-      </c>
-      <c r="D269" t="s">
-        <v>279</v>
-      </c>
-      <c r="E269" t="s">
-        <v>124</v>
       </c>
       <c r="F269">
         <v>26</v>
@@ -9305,7 +9305,7 @@
         <v>No</v>
       </c>
       <c r="H269" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
@@ -9316,13 +9316,13 @@
         <v>6</v>
       </c>
       <c r="C270" t="s">
+        <v>140</v>
+      </c>
+      <c r="D270" t="s">
+        <v>278</v>
+      </c>
+      <c r="E270" t="s">
         <v>141</v>
-      </c>
-      <c r="D270" t="s">
-        <v>279</v>
-      </c>
-      <c r="E270" t="s">
-        <v>142</v>
       </c>
       <c r="F270">
         <v>26</v>
@@ -9332,7 +9332,7 @@
         <v>No</v>
       </c>
       <c r="H270" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
@@ -9343,13 +9343,13 @@
         <v>6</v>
       </c>
       <c r="C271" t="s">
+        <v>184</v>
+      </c>
+      <c r="D271" t="s">
+        <v>278</v>
+      </c>
+      <c r="E271" t="s">
         <v>185</v>
-      </c>
-      <c r="D271" t="s">
-        <v>279</v>
-      </c>
-      <c r="E271" t="s">
-        <v>186</v>
       </c>
       <c r="F271">
         <v>26</v>
@@ -9359,7 +9359,7 @@
         <v>No</v>
       </c>
       <c r="H271" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
@@ -9370,13 +9370,13 @@
         <v>6</v>
       </c>
       <c r="C272" t="s">
+        <v>192</v>
+      </c>
+      <c r="D272" t="s">
+        <v>278</v>
+      </c>
+      <c r="E272" t="s">
         <v>193</v>
-      </c>
-      <c r="D272" t="s">
-        <v>279</v>
-      </c>
-      <c r="E272" t="s">
-        <v>194</v>
       </c>
       <c r="F272">
         <v>26</v>
@@ -9386,7 +9386,7 @@
         <v>No</v>
       </c>
       <c r="H272" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
@@ -9394,16 +9394,16 @@
         <v>5</v>
       </c>
       <c r="B273" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C273" t="s">
+        <v>506</v>
+      </c>
+      <c r="D273" t="s">
         <v>507</v>
       </c>
-      <c r="D273" t="s">
+      <c r="E273" t="s">
         <v>508</v>
-      </c>
-      <c r="E273" t="s">
-        <v>509</v>
       </c>
       <c r="F273">
         <v>35</v>
@@ -9413,24 +9413,24 @@
         <v>No</v>
       </c>
       <c r="H273" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B274" t="s">
         <v>6</v>
       </c>
       <c r="C274" t="s">
+        <v>509</v>
+      </c>
+      <c r="D274" t="s">
+        <v>10</v>
+      </c>
+      <c r="E274" t="s">
         <v>510</v>
-      </c>
-      <c r="D274" t="s">
-        <v>11</v>
-      </c>
-      <c r="E274" t="s">
-        <v>511</v>
       </c>
       <c r="F274">
         <v>11</v>
@@ -9445,19 +9445,19 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B275" t="s">
         <v>6</v>
       </c>
       <c r="C275" t="s">
+        <v>511</v>
+      </c>
+      <c r="D275" t="s">
+        <v>10</v>
+      </c>
+      <c r="E275" t="s">
         <v>512</v>
-      </c>
-      <c r="D275" t="s">
-        <v>11</v>
-      </c>
-      <c r="E275" t="s">
-        <v>513</v>
       </c>
       <c r="F275">
         <v>11</v>
@@ -9467,24 +9467,24 @@
         <v>No</v>
       </c>
       <c r="H275" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B276" t="s">
         <v>6</v>
       </c>
       <c r="C276" t="s">
+        <v>513</v>
+      </c>
+      <c r="D276" t="s">
+        <v>10</v>
+      </c>
+      <c r="E276" t="s">
         <v>514</v>
-      </c>
-      <c r="D276" t="s">
-        <v>11</v>
-      </c>
-      <c r="E276" t="s">
-        <v>515</v>
       </c>
       <c r="F276">
         <v>11</v>
@@ -9494,33 +9494,33 @@
         <v>No</v>
       </c>
       <c r="H276" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B277" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C277" t="s">
+        <v>515</v>
+      </c>
+      <c r="D277" t="s">
+        <v>10</v>
+      </c>
+      <c r="E277" t="s">
         <v>516</v>
       </c>
-      <c r="D277" t="s">
-        <v>11</v>
-      </c>
-      <c r="E277" t="s">
-        <v>517</v>
-      </c>
       <c r="F277">
         <v>11</v>
       </c>
       <c r="G277" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H277" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
@@ -9528,16 +9528,16 @@
         <v>5</v>
       </c>
       <c r="B278" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C278" t="s">
+        <v>517</v>
+      </c>
+      <c r="D278" t="s">
         <v>518</v>
       </c>
-      <c r="D278" t="s">
+      <c r="E278" t="s">
         <v>519</v>
-      </c>
-      <c r="E278" t="s">
-        <v>520</v>
       </c>
       <c r="F278">
         <v>12</v>
@@ -9547,24 +9547,24 @@
         <v>No</v>
       </c>
       <c r="H278" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B279" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C279" t="s">
+        <v>520</v>
+      </c>
+      <c r="D279" t="s">
+        <v>10</v>
+      </c>
+      <c r="E279" t="s">
         <v>521</v>
-      </c>
-      <c r="D279" t="s">
-        <v>11</v>
-      </c>
-      <c r="E279" t="s">
-        <v>522</v>
       </c>
       <c r="F279">
         <v>11</v>
@@ -9574,24 +9574,24 @@
         <v>No</v>
       </c>
       <c r="H279" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B280" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C280" t="s">
+        <v>522</v>
+      </c>
+      <c r="D280" t="s">
+        <v>10</v>
+      </c>
+      <c r="E280" t="s">
         <v>523</v>
-      </c>
-      <c r="D280" t="s">
-        <v>11</v>
-      </c>
-      <c r="E280" t="s">
-        <v>524</v>
       </c>
       <c r="F280">
         <v>11</v>
@@ -9601,7 +9601,7 @@
         <v>No</v>
       </c>
       <c r="H280" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
@@ -9609,16 +9609,16 @@
         <v>5</v>
       </c>
       <c r="B281" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C281" t="s">
+        <v>524</v>
+      </c>
+      <c r="D281" t="s">
         <v>525</v>
       </c>
-      <c r="D281" t="s">
+      <c r="E281" t="s">
         <v>526</v>
-      </c>
-      <c r="E281" t="s">
-        <v>527</v>
       </c>
       <c r="F281">
         <v>33</v>
@@ -9628,7 +9628,7 @@
         <v>No</v>
       </c>
       <c r="H281" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
@@ -9636,16 +9636,16 @@
         <v>5</v>
       </c>
       <c r="B282" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C282" t="s">
+        <v>527</v>
+      </c>
+      <c r="D282" t="s">
         <v>528</v>
       </c>
-      <c r="D282" t="s">
+      <c r="E282" t="s">
         <v>529</v>
-      </c>
-      <c r="E282" t="s">
-        <v>530</v>
       </c>
       <c r="F282">
         <v>24</v>
@@ -9655,24 +9655,24 @@
         <v>No</v>
       </c>
       <c r="H282" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B283" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C283" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D283" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E283" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F283">
         <v>11</v>
@@ -9682,24 +9682,24 @@
         <v>No</v>
       </c>
       <c r="H283" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B284" t="s">
+        <v>531</v>
+      </c>
+      <c r="C284" t="s">
         <v>532</v>
       </c>
-      <c r="C284" t="s">
+      <c r="D284" t="s">
+        <v>10</v>
+      </c>
+      <c r="E284" t="s">
         <v>533</v>
-      </c>
-      <c r="D284" t="s">
-        <v>11</v>
-      </c>
-      <c r="E284" t="s">
-        <v>534</v>
       </c>
       <c r="F284">
         <v>11</v>
@@ -9709,24 +9709,24 @@
         <v>No</v>
       </c>
       <c r="H284" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B285" t="s">
         <v>6</v>
       </c>
       <c r="C285" t="s">
+        <v>534</v>
+      </c>
+      <c r="D285" t="s">
+        <v>10</v>
+      </c>
+      <c r="E285" t="s">
         <v>535</v>
-      </c>
-      <c r="D285" t="s">
-        <v>11</v>
-      </c>
-      <c r="E285" t="s">
-        <v>536</v>
       </c>
       <c r="F285">
         <v>11</v>
@@ -9736,24 +9736,24 @@
         <v>No</v>
       </c>
       <c r="H285" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B286" t="s">
         <v>6</v>
       </c>
       <c r="C286" t="s">
+        <v>536</v>
+      </c>
+      <c r="D286" t="s">
+        <v>10</v>
+      </c>
+      <c r="E286" t="s">
         <v>537</v>
-      </c>
-      <c r="D286" t="s">
-        <v>11</v>
-      </c>
-      <c r="E286" t="s">
-        <v>538</v>
       </c>
       <c r="F286">
         <v>11</v>
@@ -9763,24 +9763,24 @@
         <v>No</v>
       </c>
       <c r="H286" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B287" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C287" t="s">
+        <v>538</v>
+      </c>
+      <c r="D287" t="s">
+        <v>10</v>
+      </c>
+      <c r="E287" t="s">
         <v>539</v>
-      </c>
-      <c r="D287" t="s">
-        <v>11</v>
-      </c>
-      <c r="E287" t="s">
-        <v>540</v>
       </c>
       <c r="F287">
         <v>11</v>
@@ -9790,24 +9790,24 @@
         <v>No</v>
       </c>
       <c r="H287" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B288" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C288" t="s">
+        <v>540</v>
+      </c>
+      <c r="D288" t="s">
+        <v>10</v>
+      </c>
+      <c r="E288" t="s">
         <v>541</v>
-      </c>
-      <c r="D288" t="s">
-        <v>11</v>
-      </c>
-      <c r="E288" t="s">
-        <v>542</v>
       </c>
       <c r="F288">
         <v>11</v>
@@ -9817,24 +9817,24 @@
         <v>No</v>
       </c>
       <c r="H288" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B289" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C289" t="s">
+        <v>542</v>
+      </c>
+      <c r="D289" t="s">
+        <v>10</v>
+      </c>
+      <c r="E289" t="s">
         <v>543</v>
-      </c>
-      <c r="D289" t="s">
-        <v>11</v>
-      </c>
-      <c r="E289" t="s">
-        <v>544</v>
       </c>
       <c r="F289">
         <v>11</v>
@@ -9844,24 +9844,24 @@
         <v>No</v>
       </c>
       <c r="H289" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B290" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C290" t="s">
+        <v>544</v>
+      </c>
+      <c r="D290" t="s">
+        <v>10</v>
+      </c>
+      <c r="E290" t="s">
         <v>545</v>
-      </c>
-      <c r="D290" t="s">
-        <v>11</v>
-      </c>
-      <c r="E290" t="s">
-        <v>546</v>
       </c>
       <c r="F290">
         <v>11</v>
@@ -9871,24 +9871,24 @@
         <v>No</v>
       </c>
       <c r="H290" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B291" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C291" t="s">
+        <v>546</v>
+      </c>
+      <c r="D291" t="s">
+        <v>10</v>
+      </c>
+      <c r="E291" t="s">
         <v>547</v>
-      </c>
-      <c r="D291" t="s">
-        <v>11</v>
-      </c>
-      <c r="E291" t="s">
-        <v>548</v>
       </c>
       <c r="F291">
         <v>11</v>
@@ -9898,24 +9898,24 @@
         <v>No</v>
       </c>
       <c r="H291" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B292" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C292" t="s">
+        <v>548</v>
+      </c>
+      <c r="D292" t="s">
+        <v>10</v>
+      </c>
+      <c r="E292" t="s">
         <v>549</v>
-      </c>
-      <c r="D292" t="s">
-        <v>11</v>
-      </c>
-      <c r="E292" t="s">
-        <v>550</v>
       </c>
       <c r="F292">
         <v>11</v>
@@ -9925,7 +9925,7 @@
         <v>No</v>
       </c>
       <c r="H292" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
@@ -9933,16 +9933,16 @@
         <v>5</v>
       </c>
       <c r="B293" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C293" t="s">
+        <v>550</v>
+      </c>
+      <c r="D293" t="s">
         <v>551</v>
       </c>
-      <c r="D293" t="s">
+      <c r="E293" t="s">
         <v>552</v>
-      </c>
-      <c r="E293" t="s">
-        <v>553</v>
       </c>
       <c r="F293">
         <v>27</v>
@@ -9952,7 +9952,7 @@
         <v>No</v>
       </c>
       <c r="H293" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
@@ -9960,16 +9960,16 @@
         <v>5</v>
       </c>
       <c r="B294" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C294" t="s">
+        <v>553</v>
+      </c>
+      <c r="D294" t="s">
         <v>554</v>
       </c>
-      <c r="D294" t="s">
+      <c r="E294" t="s">
         <v>555</v>
-      </c>
-      <c r="E294" t="s">
-        <v>556</v>
       </c>
       <c r="F294">
         <v>32</v>
@@ -9979,33 +9979,33 @@
         <v>No</v>
       </c>
       <c r="H294" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B295" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D295" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E295" t="s">
+        <v>559</v>
+      </c>
+      <c r="F295">
+        <v>11</v>
+      </c>
+      <c r="G295" t="s">
         <v>560</v>
       </c>
-      <c r="F295">
-        <v>11</v>
-      </c>
-      <c r="G295" t="s">
-        <v>561</v>
-      </c>
       <c r="H295" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>

--- a/public/CountryData.xlsx
+++ b/public/CountryData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\source\countrysearch\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD685C70-0718-45A1-9DBE-97DB5BF13E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60720D64-E89B-4EF4-80D1-65799F3EE12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="574">
   <si>
     <t>Plan</t>
   </si>
@@ -416,9 +416,6 @@
     <t xml:space="preserve">EE </t>
   </si>
   <si>
-    <t>Faroe Islands</t>
-  </si>
-  <si>
     <t xml:space="preserve">FO </t>
   </si>
   <si>
@@ -1728,6 +1725,39 @@
   </si>
   <si>
     <t>No Region</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>Argentina (local)</t>
+  </si>
+  <si>
+    <t>Chile (local)</t>
+  </si>
+  <si>
+    <t>Uruguay (local)</t>
+  </si>
+  <si>
+    <t>ARS</t>
+  </si>
+  <si>
+    <t>CLP</t>
+  </si>
+  <si>
+    <t>UYU</t>
+  </si>
+  <si>
+    <t>South Americas</t>
+  </si>
+  <si>
+    <t>North Cyprus</t>
   </si>
 </sst>
 </file>
@@ -2063,10 +2093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H295"/>
+  <dimension ref="A1:H298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="B241" sqref="B241"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2095,13 +2125,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2371,7 +2401,7 @@
         <v>No</v>
       </c>
       <c r="H11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2907,10 +2937,10 @@
         <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H31" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2987,7 +3017,7 @@
         <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H34">
         <v>996</v>
@@ -3013,7 +3043,7 @@
         <v>22</v>
       </c>
       <c r="G35" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H35">
         <v>7</v>
@@ -3039,10 +3069,10 @@
         <v>11</v>
       </c>
       <c r="G36" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H36" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -3065,7 +3095,7 @@
         <v>11</v>
       </c>
       <c r="G37" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H37">
         <v>995</v>
@@ -3091,7 +3121,7 @@
         <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H38">
         <v>992</v>
@@ -3364,7 +3394,7 @@
         <v>No</v>
       </c>
       <c r="H48" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -3391,7 +3421,7 @@
         <v>No</v>
       </c>
       <c r="H49" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -3418,7 +3448,7 @@
         <v>No</v>
       </c>
       <c r="H50" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -3445,7 +3475,7 @@
         <v>No</v>
       </c>
       <c r="H51" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -3472,7 +3502,7 @@
         <v>No</v>
       </c>
       <c r="H52" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -3499,7 +3529,7 @@
         <v>No</v>
       </c>
       <c r="H53" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -3553,7 +3583,7 @@
         <v>No</v>
       </c>
       <c r="H55" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -3580,7 +3610,7 @@
         <v>No</v>
       </c>
       <c r="H56" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -3607,7 +3637,7 @@
         <v>No</v>
       </c>
       <c r="H57" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -3645,13 +3675,13 @@
         <v>6</v>
       </c>
       <c r="C59" t="s">
+        <v>573</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" t="s">
         <v>126</v>
-      </c>
-      <c r="D59" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" t="s">
-        <v>127</v>
       </c>
       <c r="F59">
         <v>11</v>
@@ -3672,13 +3702,13 @@
         <v>6</v>
       </c>
       <c r="C60" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" t="s">
         <v>128</v>
-      </c>
-      <c r="D60" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" t="s">
-        <v>129</v>
       </c>
       <c r="F60">
         <v>26</v>
@@ -3699,13 +3729,13 @@
         <v>6</v>
       </c>
       <c r="C61" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" t="s">
         <v>130</v>
-      </c>
-      <c r="D61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" t="s">
-        <v>131</v>
       </c>
       <c r="F61">
         <v>26</v>
@@ -3726,13 +3756,13 @@
         <v>6</v>
       </c>
       <c r="C62" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" t="s">
         <v>132</v>
-      </c>
-      <c r="D62" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" t="s">
-        <v>133</v>
       </c>
       <c r="F62">
         <v>11</v>
@@ -3753,13 +3783,13 @@
         <v>6</v>
       </c>
       <c r="C63" t="s">
+        <v>133</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" t="s">
         <v>134</v>
-      </c>
-      <c r="D63" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" t="s">
-        <v>135</v>
       </c>
       <c r="F63">
         <v>11</v>
@@ -3780,13 +3810,13 @@
         <v>6</v>
       </c>
       <c r="C64" t="s">
+        <v>135</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" t="s">
         <v>136</v>
-      </c>
-      <c r="D64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" t="s">
-        <v>137</v>
       </c>
       <c r="F64">
         <v>26</v>
@@ -3796,7 +3826,7 @@
         <v>No</v>
       </c>
       <c r="H64" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -3807,13 +3837,13 @@
         <v>6</v>
       </c>
       <c r="C65" t="s">
+        <v>137</v>
+      </c>
+      <c r="D65" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" t="s">
         <v>138</v>
-      </c>
-      <c r="D65" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" t="s">
-        <v>139</v>
       </c>
       <c r="F65">
         <v>11</v>
@@ -3834,13 +3864,13 @@
         <v>6</v>
       </c>
       <c r="C66" t="s">
+        <v>139</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" t="s">
         <v>140</v>
-      </c>
-      <c r="D66" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" t="s">
-        <v>141</v>
       </c>
       <c r="F66">
         <v>26</v>
@@ -3861,13 +3891,13 @@
         <v>6</v>
       </c>
       <c r="C67" t="s">
+        <v>141</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" t="s">
         <v>142</v>
-      </c>
-      <c r="D67" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" t="s">
-        <v>143</v>
       </c>
       <c r="F67">
         <v>11</v>
@@ -3888,13 +3918,13 @@
         <v>6</v>
       </c>
       <c r="C68" t="s">
+        <v>143</v>
+      </c>
+      <c r="D68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" t="s">
         <v>144</v>
-      </c>
-      <c r="D68" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" t="s">
-        <v>145</v>
       </c>
       <c r="F68">
         <v>26</v>
@@ -3915,13 +3945,13 @@
         <v>6</v>
       </c>
       <c r="C69" t="s">
+        <v>145</v>
+      </c>
+      <c r="D69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" t="s">
         <v>146</v>
-      </c>
-      <c r="D69" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" t="s">
-        <v>147</v>
       </c>
       <c r="F69">
         <v>11</v>
@@ -3942,13 +3972,13 @@
         <v>6</v>
       </c>
       <c r="C70" t="s">
+        <v>147</v>
+      </c>
+      <c r="D70" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" t="s">
         <v>148</v>
-      </c>
-      <c r="D70" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" t="s">
-        <v>149</v>
       </c>
       <c r="F70">
         <v>26</v>
@@ -3969,13 +3999,13 @@
         <v>6</v>
       </c>
       <c r="C71" t="s">
+        <v>149</v>
+      </c>
+      <c r="D71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" t="s">
         <v>150</v>
-      </c>
-      <c r="D71" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" t="s">
-        <v>151</v>
       </c>
       <c r="F71">
         <v>11</v>
@@ -3996,13 +4026,13 @@
         <v>6</v>
       </c>
       <c r="C72" t="s">
+        <v>151</v>
+      </c>
+      <c r="D72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" t="s">
         <v>152</v>
-      </c>
-      <c r="D72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" t="s">
-        <v>153</v>
       </c>
       <c r="F72">
         <v>26</v>
@@ -4023,13 +4053,13 @@
         <v>6</v>
       </c>
       <c r="C73" t="s">
+        <v>153</v>
+      </c>
+      <c r="D73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" t="s">
         <v>154</v>
-      </c>
-      <c r="D73" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" t="s">
-        <v>155</v>
       </c>
       <c r="F73">
         <v>11</v>
@@ -4050,13 +4080,13 @@
         <v>6</v>
       </c>
       <c r="C74" t="s">
+        <v>155</v>
+      </c>
+      <c r="D74" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" t="s">
         <v>156</v>
-      </c>
-      <c r="D74" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" t="s">
-        <v>157</v>
       </c>
       <c r="F74">
         <v>26</v>
@@ -4077,13 +4107,13 @@
         <v>6</v>
       </c>
       <c r="C75" t="s">
+        <v>157</v>
+      </c>
+      <c r="D75" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" t="s">
         <v>158</v>
-      </c>
-      <c r="D75" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" t="s">
-        <v>159</v>
       </c>
       <c r="F75">
         <v>11</v>
@@ -4104,13 +4134,13 @@
         <v>6</v>
       </c>
       <c r="C76" t="s">
+        <v>159</v>
+      </c>
+      <c r="D76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" t="s">
         <v>160</v>
-      </c>
-      <c r="D76" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" t="s">
-        <v>161</v>
       </c>
       <c r="F76">
         <v>26</v>
@@ -4131,13 +4161,13 @@
         <v>6</v>
       </c>
       <c r="C77" t="s">
+        <v>161</v>
+      </c>
+      <c r="D77" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" t="s">
         <v>162</v>
-      </c>
-      <c r="D77" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" t="s">
-        <v>163</v>
       </c>
       <c r="F77">
         <v>26</v>
@@ -4158,13 +4188,13 @@
         <v>6</v>
       </c>
       <c r="C78" t="s">
+        <v>163</v>
+      </c>
+      <c r="D78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" t="s">
         <v>164</v>
-      </c>
-      <c r="D78" t="s">
-        <v>10</v>
-      </c>
-      <c r="E78" t="s">
-        <v>165</v>
       </c>
       <c r="F78">
         <v>26</v>
@@ -4185,13 +4215,13 @@
         <v>6</v>
       </c>
       <c r="C79" t="s">
+        <v>165</v>
+      </c>
+      <c r="D79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" t="s">
         <v>166</v>
-      </c>
-      <c r="D79" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" t="s">
-        <v>167</v>
       </c>
       <c r="F79">
         <v>11</v>
@@ -4212,13 +4242,13 @@
         <v>6</v>
       </c>
       <c r="C80" t="s">
+        <v>167</v>
+      </c>
+      <c r="D80" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" t="s">
         <v>168</v>
-      </c>
-      <c r="D80" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80" t="s">
-        <v>169</v>
       </c>
       <c r="F80">
         <v>11</v>
@@ -4239,13 +4269,13 @@
         <v>6</v>
       </c>
       <c r="C81" t="s">
+        <v>169</v>
+      </c>
+      <c r="D81" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" t="s">
         <v>170</v>
-      </c>
-      <c r="D81" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81" t="s">
-        <v>171</v>
       </c>
       <c r="F81">
         <v>11</v>
@@ -4266,13 +4296,13 @@
         <v>6</v>
       </c>
       <c r="C82" t="s">
+        <v>171</v>
+      </c>
+      <c r="D82" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" t="s">
         <v>172</v>
-      </c>
-      <c r="D82" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82" t="s">
-        <v>173</v>
       </c>
       <c r="F82">
         <v>26</v>
@@ -4293,13 +4323,13 @@
         <v>6</v>
       </c>
       <c r="C83" t="s">
+        <v>173</v>
+      </c>
+      <c r="D83" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" t="s">
         <v>174</v>
-      </c>
-      <c r="D83" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" t="s">
-        <v>175</v>
       </c>
       <c r="F83">
         <v>26</v>
@@ -4320,13 +4350,13 @@
         <v>6</v>
       </c>
       <c r="C84" t="s">
+        <v>175</v>
+      </c>
+      <c r="D84" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" t="s">
         <v>176</v>
-      </c>
-      <c r="D84" t="s">
-        <v>10</v>
-      </c>
-      <c r="E84" t="s">
-        <v>177</v>
       </c>
       <c r="F84">
         <v>26</v>
@@ -4347,13 +4377,13 @@
         <v>6</v>
       </c>
       <c r="C85" t="s">
+        <v>177</v>
+      </c>
+      <c r="D85" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" t="s">
         <v>178</v>
-      </c>
-      <c r="D85" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" t="s">
-        <v>179</v>
       </c>
       <c r="F85">
         <v>11</v>
@@ -4374,13 +4404,13 @@
         <v>6</v>
       </c>
       <c r="C86" t="s">
+        <v>179</v>
+      </c>
+      <c r="D86" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" t="s">
         <v>180</v>
-      </c>
-      <c r="D86" t="s">
-        <v>10</v>
-      </c>
-      <c r="E86" t="s">
-        <v>181</v>
       </c>
       <c r="F86">
         <v>26</v>
@@ -4401,13 +4431,13 @@
         <v>6</v>
       </c>
       <c r="C87" t="s">
+        <v>181</v>
+      </c>
+      <c r="D87" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" t="s">
         <v>182</v>
-      </c>
-      <c r="D87" t="s">
-        <v>10</v>
-      </c>
-      <c r="E87" t="s">
-        <v>183</v>
       </c>
       <c r="F87">
         <v>26</v>
@@ -4428,13 +4458,13 @@
         <v>6</v>
       </c>
       <c r="C88" t="s">
+        <v>183</v>
+      </c>
+      <c r="D88" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" t="s">
         <v>184</v>
-      </c>
-      <c r="D88" t="s">
-        <v>10</v>
-      </c>
-      <c r="E88" t="s">
-        <v>185</v>
       </c>
       <c r="F88">
         <v>26</v>
@@ -4444,7 +4474,7 @@
         <v>No</v>
       </c>
       <c r="H88" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -4455,13 +4485,13 @@
         <v>6</v>
       </c>
       <c r="C89" t="s">
+        <v>185</v>
+      </c>
+      <c r="D89" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" t="s">
         <v>186</v>
-      </c>
-      <c r="D89" t="s">
-        <v>10</v>
-      </c>
-      <c r="E89" t="s">
-        <v>187</v>
       </c>
       <c r="F89">
         <v>11</v>
@@ -4471,7 +4501,7 @@
         <v>No</v>
       </c>
       <c r="H89" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -4482,13 +4512,13 @@
         <v>6</v>
       </c>
       <c r="C90" t="s">
+        <v>187</v>
+      </c>
+      <c r="D90" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" t="s">
         <v>188</v>
-      </c>
-      <c r="D90" t="s">
-        <v>10</v>
-      </c>
-      <c r="E90" t="s">
-        <v>189</v>
       </c>
       <c r="F90">
         <v>26</v>
@@ -4509,13 +4539,13 @@
         <v>6</v>
       </c>
       <c r="C91" t="s">
+        <v>189</v>
+      </c>
+      <c r="D91" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" t="s">
         <v>190</v>
-      </c>
-      <c r="D91" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91" t="s">
-        <v>191</v>
       </c>
       <c r="F91">
         <v>11</v>
@@ -4525,7 +4555,7 @@
         <v>No</v>
       </c>
       <c r="H91" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -4536,13 +4566,13 @@
         <v>6</v>
       </c>
       <c r="C92" t="s">
+        <v>191</v>
+      </c>
+      <c r="D92" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" t="s">
         <v>192</v>
-      </c>
-      <c r="D92" t="s">
-        <v>10</v>
-      </c>
-      <c r="E92" t="s">
-        <v>193</v>
       </c>
       <c r="F92">
         <v>26</v>
@@ -4563,13 +4593,13 @@
         <v>6</v>
       </c>
       <c r="C93" t="s">
+        <v>193</v>
+      </c>
+      <c r="D93" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" t="s">
         <v>194</v>
-      </c>
-      <c r="D93" t="s">
-        <v>10</v>
-      </c>
-      <c r="E93" t="s">
-        <v>195</v>
       </c>
       <c r="F93">
         <v>11</v>
@@ -4590,13 +4620,13 @@
         <v>6</v>
       </c>
       <c r="C94" t="s">
+        <v>195</v>
+      </c>
+      <c r="D94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" t="s">
         <v>196</v>
-      </c>
-      <c r="D94" t="s">
-        <v>10</v>
-      </c>
-      <c r="E94" t="s">
-        <v>197</v>
       </c>
       <c r="F94">
         <v>11</v>
@@ -4614,25 +4644,25 @@
         <v>14</v>
       </c>
       <c r="B95" t="s">
+        <v>197</v>
+      </c>
+      <c r="C95" t="s">
         <v>198</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" t="s">
         <v>199</v>
       </c>
-      <c r="D95" t="s">
-        <v>10</v>
-      </c>
-      <c r="E95" t="s">
-        <v>200</v>
-      </c>
       <c r="F95">
         <v>11</v>
       </c>
       <c r="G95" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H95" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -4640,25 +4670,25 @@
         <v>14</v>
       </c>
       <c r="B96" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C96" t="s">
+        <v>200</v>
+      </c>
+      <c r="D96" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" t="s">
         <v>201</v>
       </c>
-      <c r="D96" t="s">
-        <v>10</v>
-      </c>
-      <c r="E96" t="s">
-        <v>202</v>
-      </c>
       <c r="F96">
         <v>11</v>
       </c>
       <c r="G96" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H96" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -4666,25 +4696,25 @@
         <v>14</v>
       </c>
       <c r="B97" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C97" t="s">
+        <v>202</v>
+      </c>
+      <c r="D97" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" t="s">
         <v>203</v>
       </c>
-      <c r="D97" t="s">
-        <v>10</v>
-      </c>
-      <c r="E97" t="s">
-        <v>204</v>
-      </c>
       <c r="F97">
         <v>11</v>
       </c>
       <c r="G97" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H97" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -4692,22 +4722,22 @@
         <v>14</v>
       </c>
       <c r="B98" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C98" t="s">
+        <v>204</v>
+      </c>
+      <c r="D98" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" t="s">
         <v>205</v>
       </c>
-      <c r="D98" t="s">
-        <v>10</v>
-      </c>
-      <c r="E98" t="s">
-        <v>206</v>
-      </c>
       <c r="F98">
         <v>11</v>
       </c>
       <c r="G98" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H98">
         <v>964</v>
@@ -4718,16 +4748,16 @@
         <v>14</v>
       </c>
       <c r="B99" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C99" t="s">
+        <v>206</v>
+      </c>
+      <c r="D99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" t="s">
         <v>207</v>
-      </c>
-      <c r="D99" t="s">
-        <v>10</v>
-      </c>
-      <c r="E99" t="s">
-        <v>208</v>
       </c>
       <c r="F99">
         <v>11</v>
@@ -4745,16 +4775,16 @@
         <v>14</v>
       </c>
       <c r="B100" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C100" t="s">
+        <v>208</v>
+      </c>
+      <c r="D100" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" t="s">
         <v>209</v>
-      </c>
-      <c r="D100" t="s">
-        <v>10</v>
-      </c>
-      <c r="E100" t="s">
-        <v>210</v>
       </c>
       <c r="F100">
         <v>11</v>
@@ -4772,22 +4802,22 @@
         <v>14</v>
       </c>
       <c r="B101" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C101" t="s">
+        <v>210</v>
+      </c>
+      <c r="D101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" t="s">
         <v>211</v>
       </c>
-      <c r="D101" t="s">
-        <v>10</v>
-      </c>
-      <c r="E101" t="s">
-        <v>212</v>
-      </c>
       <c r="F101">
         <v>11</v>
       </c>
       <c r="G101" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H101">
         <v>964</v>
@@ -4798,22 +4828,22 @@
         <v>14</v>
       </c>
       <c r="B102" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C102" t="s">
+        <v>212</v>
+      </c>
+      <c r="D102" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" t="s">
         <v>213</v>
       </c>
-      <c r="D102" t="s">
-        <v>10</v>
-      </c>
-      <c r="E102" t="s">
-        <v>214</v>
-      </c>
       <c r="F102">
         <v>11</v>
       </c>
       <c r="G102" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H102">
         <v>965</v>
@@ -4824,22 +4854,22 @@
         <v>14</v>
       </c>
       <c r="B103" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D103" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" t="s">
         <v>215</v>
       </c>
-      <c r="D103" t="s">
-        <v>10</v>
-      </c>
-      <c r="E103" t="s">
-        <v>216</v>
-      </c>
       <c r="F103">
         <v>11</v>
       </c>
       <c r="G103" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H103">
         <v>961</v>
@@ -4850,16 +4880,16 @@
         <v>14</v>
       </c>
       <c r="B104" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C104" t="s">
+        <v>216</v>
+      </c>
+      <c r="D104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" t="s">
         <v>217</v>
-      </c>
-      <c r="D104" t="s">
-        <v>10</v>
-      </c>
-      <c r="E104" t="s">
-        <v>218</v>
       </c>
       <c r="F104">
         <v>11</v>
@@ -4877,16 +4907,16 @@
         <v>14</v>
       </c>
       <c r="B105" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C105" t="s">
+        <v>218</v>
+      </c>
+      <c r="D105" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" t="s">
         <v>219</v>
-      </c>
-      <c r="D105" t="s">
-        <v>10</v>
-      </c>
-      <c r="E105" t="s">
-        <v>220</v>
       </c>
       <c r="F105">
         <v>11</v>
@@ -4904,22 +4934,22 @@
         <v>14</v>
       </c>
       <c r="B106" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C106" t="s">
+        <v>220</v>
+      </c>
+      <c r="D106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" t="s">
         <v>221</v>
       </c>
-      <c r="D106" t="s">
-        <v>10</v>
-      </c>
-      <c r="E106" t="s">
-        <v>222</v>
-      </c>
       <c r="F106">
         <v>11</v>
       </c>
       <c r="G106" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H106">
         <v>968</v>
@@ -4930,16 +4960,16 @@
         <v>14</v>
       </c>
       <c r="B107" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C107" t="s">
+        <v>222</v>
+      </c>
+      <c r="D107" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" t="s">
         <v>223</v>
-      </c>
-      <c r="D107" t="s">
-        <v>10</v>
-      </c>
-      <c r="E107" t="s">
-        <v>224</v>
       </c>
       <c r="F107">
         <v>11</v>
@@ -4957,16 +4987,16 @@
         <v>14</v>
       </c>
       <c r="B108" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C108" t="s">
+        <v>224</v>
+      </c>
+      <c r="D108" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" t="s">
         <v>225</v>
-      </c>
-      <c r="D108" t="s">
-        <v>10</v>
-      </c>
-      <c r="E108" t="s">
-        <v>226</v>
       </c>
       <c r="F108">
         <v>11</v>
@@ -4984,22 +5014,22 @@
         <v>14</v>
       </c>
       <c r="B109" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C109" t="s">
+        <v>226</v>
+      </c>
+      <c r="D109" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" t="s">
         <v>227</v>
       </c>
-      <c r="D109" t="s">
-        <v>10</v>
-      </c>
-      <c r="E109" t="s">
-        <v>228</v>
-      </c>
       <c r="F109">
         <v>11</v>
       </c>
       <c r="G109" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H109">
         <v>974</v>
@@ -5010,16 +5040,16 @@
         <v>14</v>
       </c>
       <c r="B110" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C110" t="s">
+        <v>228</v>
+      </c>
+      <c r="D110" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110" t="s">
         <v>229</v>
-      </c>
-      <c r="D110" t="s">
-        <v>10</v>
-      </c>
-      <c r="E110" t="s">
-        <v>230</v>
       </c>
       <c r="F110">
         <v>14</v>
@@ -5037,16 +5067,16 @@
         <v>14</v>
       </c>
       <c r="B111" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C111" t="s">
+        <v>230</v>
+      </c>
+      <c r="D111" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" t="s">
         <v>231</v>
-      </c>
-      <c r="D111" t="s">
-        <v>10</v>
-      </c>
-      <c r="E111" t="s">
-        <v>232</v>
       </c>
       <c r="F111">
         <v>11</v>
@@ -5064,16 +5094,16 @@
         <v>14</v>
       </c>
       <c r="B112" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C112" t="s">
+        <v>232</v>
+      </c>
+      <c r="D112" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" t="s">
         <v>233</v>
-      </c>
-      <c r="D112" t="s">
-        <v>10</v>
-      </c>
-      <c r="E112" t="s">
-        <v>234</v>
       </c>
       <c r="F112">
         <v>11</v>
@@ -5091,22 +5121,22 @@
         <v>14</v>
       </c>
       <c r="B113" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C113" t="s">
+        <v>234</v>
+      </c>
+      <c r="D113" t="s">
+        <v>10</v>
+      </c>
+      <c r="E113" t="s">
         <v>235</v>
       </c>
-      <c r="D113" t="s">
-        <v>10</v>
-      </c>
-      <c r="E113" t="s">
-        <v>236</v>
-      </c>
       <c r="F113">
         <v>11</v>
       </c>
       <c r="G113" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H113">
         <v>216</v>
@@ -5117,16 +5147,16 @@
         <v>14</v>
       </c>
       <c r="B114" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C114" t="s">
+        <v>236</v>
+      </c>
+      <c r="D114" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" t="s">
         <v>237</v>
-      </c>
-      <c r="D114" t="s">
-        <v>10</v>
-      </c>
-      <c r="E114" t="s">
-        <v>238</v>
       </c>
       <c r="F114">
         <v>11</v>
@@ -5136,7 +5166,7 @@
         <v>No</v>
       </c>
       <c r="H114" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -5144,16 +5174,16 @@
         <v>14</v>
       </c>
       <c r="B115" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C115" t="s">
+        <v>238</v>
+      </c>
+      <c r="D115" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" t="s">
         <v>239</v>
-      </c>
-      <c r="D115" t="s">
-        <v>10</v>
-      </c>
-      <c r="E115" t="s">
-        <v>240</v>
       </c>
       <c r="F115">
         <v>11</v>
@@ -5171,16 +5201,16 @@
         <v>14</v>
       </c>
       <c r="B116" t="s">
+        <v>240</v>
+      </c>
+      <c r="C116" t="s">
         <v>241</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116" t="s">
         <v>242</v>
-      </c>
-      <c r="D116" t="s">
-        <v>10</v>
-      </c>
-      <c r="E116" t="s">
-        <v>243</v>
       </c>
       <c r="F116">
         <v>11</v>
@@ -5190,7 +5220,7 @@
         <v>No</v>
       </c>
       <c r="H116" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -5198,25 +5228,25 @@
         <v>14</v>
       </c>
       <c r="B117" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C117" t="s">
+        <v>243</v>
+      </c>
+      <c r="D117" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" t="s">
         <v>244</v>
       </c>
-      <c r="D117" t="s">
-        <v>10</v>
-      </c>
-      <c r="E117" t="s">
-        <v>245</v>
-      </c>
       <c r="F117">
         <v>11</v>
       </c>
       <c r="G117" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H117" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -5224,16 +5254,16 @@
         <v>14</v>
       </c>
       <c r="B118" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C118" t="s">
+        <v>245</v>
+      </c>
+      <c r="D118" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" t="s">
         <v>246</v>
-      </c>
-      <c r="D118" t="s">
-        <v>10</v>
-      </c>
-      <c r="E118" t="s">
-        <v>247</v>
       </c>
       <c r="F118">
         <v>11</v>
@@ -5243,7 +5273,7 @@
         <v>No</v>
       </c>
       <c r="H118" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -5251,16 +5281,16 @@
         <v>14</v>
       </c>
       <c r="B119" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C119" t="s">
+        <v>247</v>
+      </c>
+      <c r="D119" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" t="s">
         <v>248</v>
-      </c>
-      <c r="D119" t="s">
-        <v>10</v>
-      </c>
-      <c r="E119" t="s">
-        <v>249</v>
       </c>
       <c r="F119">
         <v>11</v>
@@ -5278,16 +5308,16 @@
         <v>14</v>
       </c>
       <c r="B120" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C120" t="s">
+        <v>249</v>
+      </c>
+      <c r="D120" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" t="s">
         <v>250</v>
-      </c>
-      <c r="D120" t="s">
-        <v>10</v>
-      </c>
-      <c r="E120" t="s">
-        <v>251</v>
       </c>
       <c r="F120">
         <v>11</v>
@@ -5305,16 +5335,16 @@
         <v>14</v>
       </c>
       <c r="B121" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C121" t="s">
+        <v>251</v>
+      </c>
+      <c r="D121" t="s">
+        <v>10</v>
+      </c>
+      <c r="E121" t="s">
         <v>252</v>
-      </c>
-      <c r="D121" t="s">
-        <v>10</v>
-      </c>
-      <c r="E121" t="s">
-        <v>253</v>
       </c>
       <c r="F121">
         <v>11</v>
@@ -5332,16 +5362,16 @@
         <v>14</v>
       </c>
       <c r="B122" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C122" t="s">
+        <v>253</v>
+      </c>
+      <c r="D122" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122" t="s">
         <v>254</v>
-      </c>
-      <c r="D122" t="s">
-        <v>10</v>
-      </c>
-      <c r="E122" t="s">
-        <v>255</v>
       </c>
       <c r="F122">
         <v>11</v>
@@ -5359,16 +5389,16 @@
         <v>14</v>
       </c>
       <c r="B123" t="s">
+        <v>255</v>
+      </c>
+      <c r="C123" t="s">
         <v>256</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123" t="s">
         <v>257</v>
-      </c>
-      <c r="D123" t="s">
-        <v>10</v>
-      </c>
-      <c r="E123" t="s">
-        <v>258</v>
       </c>
       <c r="F123">
         <v>11</v>
@@ -5378,7 +5408,7 @@
         <v>No</v>
       </c>
       <c r="H123" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -5386,16 +5416,16 @@
         <v>14</v>
       </c>
       <c r="B124" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C124" t="s">
+        <v>258</v>
+      </c>
+      <c r="D124" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" t="s">
         <v>259</v>
-      </c>
-      <c r="D124" t="s">
-        <v>10</v>
-      </c>
-      <c r="E124" t="s">
-        <v>260</v>
       </c>
       <c r="F124">
         <v>11</v>
@@ -5405,7 +5435,7 @@
         <v>No</v>
       </c>
       <c r="H124" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -5413,16 +5443,16 @@
         <v>14</v>
       </c>
       <c r="B125" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C125" t="s">
+        <v>260</v>
+      </c>
+      <c r="D125" t="s">
+        <v>10</v>
+      </c>
+      <c r="E125" t="s">
         <v>261</v>
-      </c>
-      <c r="D125" t="s">
-        <v>10</v>
-      </c>
-      <c r="E125" t="s">
-        <v>262</v>
       </c>
       <c r="F125">
         <v>11</v>
@@ -5432,7 +5462,7 @@
         <v>No</v>
       </c>
       <c r="H125" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -5440,16 +5470,16 @@
         <v>14</v>
       </c>
       <c r="B126" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C126" t="s">
+        <v>262</v>
+      </c>
+      <c r="D126" t="s">
+        <v>10</v>
+      </c>
+      <c r="E126" t="s">
         <v>263</v>
-      </c>
-      <c r="D126" t="s">
-        <v>10</v>
-      </c>
-      <c r="E126" t="s">
-        <v>264</v>
       </c>
       <c r="F126">
         <v>11</v>
@@ -5467,16 +5497,16 @@
         <v>14</v>
       </c>
       <c r="B127" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C127" t="s">
+        <v>264</v>
+      </c>
+      <c r="D127" t="s">
+        <v>10</v>
+      </c>
+      <c r="E127" t="s">
         <v>265</v>
-      </c>
-      <c r="D127" t="s">
-        <v>10</v>
-      </c>
-      <c r="E127" t="s">
-        <v>266</v>
       </c>
       <c r="F127">
         <v>11</v>
@@ -5494,16 +5524,16 @@
         <v>14</v>
       </c>
       <c r="B128" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C128" t="s">
+        <v>266</v>
+      </c>
+      <c r="D128" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128" t="s">
         <v>267</v>
-      </c>
-      <c r="D128" t="s">
-        <v>10</v>
-      </c>
-      <c r="E128" t="s">
-        <v>268</v>
       </c>
       <c r="F128">
         <v>26</v>
@@ -5521,16 +5551,16 @@
         <v>14</v>
       </c>
       <c r="B129" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C129" t="s">
+        <v>268</v>
+      </c>
+      <c r="D129" t="s">
+        <v>10</v>
+      </c>
+      <c r="E129" t="s">
         <v>269</v>
-      </c>
-      <c r="D129" t="s">
-        <v>10</v>
-      </c>
-      <c r="E129" t="s">
-        <v>270</v>
       </c>
       <c r="F129">
         <v>11</v>
@@ -5548,16 +5578,16 @@
         <v>14</v>
       </c>
       <c r="B130" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C130" t="s">
+        <v>270</v>
+      </c>
+      <c r="D130" t="s">
+        <v>10</v>
+      </c>
+      <c r="E130" t="s">
         <v>271</v>
-      </c>
-      <c r="D130" t="s">
-        <v>10</v>
-      </c>
-      <c r="E130" t="s">
-        <v>272</v>
       </c>
       <c r="F130">
         <v>11</v>
@@ -5575,16 +5605,16 @@
         <v>14</v>
       </c>
       <c r="B131" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C131" t="s">
+        <v>272</v>
+      </c>
+      <c r="D131" t="s">
+        <v>10</v>
+      </c>
+      <c r="E131" t="s">
         <v>273</v>
-      </c>
-      <c r="D131" t="s">
-        <v>10</v>
-      </c>
-      <c r="E131" t="s">
-        <v>274</v>
       </c>
       <c r="F131">
         <v>11</v>
@@ -5605,13 +5635,13 @@
         <v>11</v>
       </c>
       <c r="C132" t="s">
+        <v>274</v>
+      </c>
+      <c r="D132" t="s">
+        <v>10</v>
+      </c>
+      <c r="E132" t="s">
         <v>275</v>
-      </c>
-      <c r="D132" t="s">
-        <v>10</v>
-      </c>
-      <c r="E132" t="s">
-        <v>276</v>
       </c>
       <c r="F132">
         <v>11</v>
@@ -5621,7 +5651,7 @@
         <v>No</v>
       </c>
       <c r="H132" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -5632,13 +5662,13 @@
         <v>11</v>
       </c>
       <c r="C133" t="s">
+        <v>276</v>
+      </c>
+      <c r="D133" t="s">
         <v>277</v>
       </c>
-      <c r="D133" t="s">
+      <c r="E133" t="s">
         <v>278</v>
-      </c>
-      <c r="E133" t="s">
-        <v>279</v>
       </c>
       <c r="F133">
         <v>30</v>
@@ -5648,7 +5678,7 @@
         <v>No</v>
       </c>
       <c r="H133" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -5659,13 +5689,13 @@
         <v>11</v>
       </c>
       <c r="C134" t="s">
+        <v>279</v>
+      </c>
+      <c r="D134" t="s">
+        <v>10</v>
+      </c>
+      <c r="E134" t="s">
         <v>280</v>
-      </c>
-      <c r="D134" t="s">
-        <v>10</v>
-      </c>
-      <c r="E134" t="s">
-        <v>281</v>
       </c>
       <c r="F134">
         <v>11</v>
@@ -5675,7 +5705,7 @@
         <v>No</v>
       </c>
       <c r="H134" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -5686,22 +5716,22 @@
         <v>11</v>
       </c>
       <c r="C135" t="s">
+        <v>281</v>
+      </c>
+      <c r="D135" t="s">
+        <v>277</v>
+      </c>
+      <c r="E135" t="s">
         <v>282</v>
-      </c>
-      <c r="D135" t="s">
-        <v>278</v>
-      </c>
-      <c r="E135" t="s">
-        <v>283</v>
       </c>
       <c r="F135">
         <v>30</v>
       </c>
       <c r="G135" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H135" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -5712,13 +5742,13 @@
         <v>11</v>
       </c>
       <c r="C136" t="s">
+        <v>283</v>
+      </c>
+      <c r="D136" t="s">
+        <v>10</v>
+      </c>
+      <c r="E136" t="s">
         <v>284</v>
-      </c>
-      <c r="D136" t="s">
-        <v>10</v>
-      </c>
-      <c r="E136" t="s">
-        <v>285</v>
       </c>
       <c r="F136">
         <v>11</v>
@@ -5728,7 +5758,7 @@
         <v>No</v>
       </c>
       <c r="H136" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -5739,13 +5769,13 @@
         <v>11</v>
       </c>
       <c r="C137" t="s">
+        <v>285</v>
+      </c>
+      <c r="D137" t="s">
+        <v>10</v>
+      </c>
+      <c r="E137" t="s">
         <v>286</v>
-      </c>
-      <c r="D137" t="s">
-        <v>10</v>
-      </c>
-      <c r="E137" t="s">
-        <v>287</v>
       </c>
       <c r="F137">
         <v>11</v>
@@ -5755,7 +5785,7 @@
         <v>No</v>
       </c>
       <c r="H137" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -5766,13 +5796,13 @@
         <v>11</v>
       </c>
       <c r="C138" t="s">
+        <v>287</v>
+      </c>
+      <c r="D138" t="s">
+        <v>277</v>
+      </c>
+      <c r="E138" t="s">
         <v>288</v>
-      </c>
-      <c r="D138" t="s">
-        <v>278</v>
-      </c>
-      <c r="E138" t="s">
-        <v>289</v>
       </c>
       <c r="F138">
         <v>30</v>
@@ -5782,7 +5812,7 @@
         <v>No</v>
       </c>
       <c r="H138" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -5793,13 +5823,13 @@
         <v>11</v>
       </c>
       <c r="C139" t="s">
+        <v>289</v>
+      </c>
+      <c r="D139" t="s">
+        <v>277</v>
+      </c>
+      <c r="E139" t="s">
         <v>290</v>
-      </c>
-      <c r="D139" t="s">
-        <v>278</v>
-      </c>
-      <c r="E139" t="s">
-        <v>291</v>
       </c>
       <c r="F139">
         <v>30</v>
@@ -5820,13 +5850,13 @@
         <v>11</v>
       </c>
       <c r="C140" t="s">
+        <v>291</v>
+      </c>
+      <c r="D140" t="s">
+        <v>277</v>
+      </c>
+      <c r="E140" t="s">
         <v>292</v>
-      </c>
-      <c r="D140" t="s">
-        <v>278</v>
-      </c>
-      <c r="E140" t="s">
-        <v>293</v>
       </c>
       <c r="F140">
         <v>30</v>
@@ -5836,7 +5866,7 @@
         <v>No</v>
       </c>
       <c r="H140" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -5847,22 +5877,22 @@
         <v>11</v>
       </c>
       <c r="C141" t="s">
+        <v>293</v>
+      </c>
+      <c r="D141" t="s">
+        <v>277</v>
+      </c>
+      <c r="E141" t="s">
         <v>294</v>
-      </c>
-      <c r="D141" t="s">
-        <v>278</v>
-      </c>
-      <c r="E141" t="s">
-        <v>295</v>
       </c>
       <c r="F141">
         <v>30</v>
       </c>
       <c r="G141" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H141" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -5873,13 +5903,13 @@
         <v>11</v>
       </c>
       <c r="C142" t="s">
+        <v>295</v>
+      </c>
+      <c r="D142" t="s">
+        <v>10</v>
+      </c>
+      <c r="E142" t="s">
         <v>296</v>
-      </c>
-      <c r="D142" t="s">
-        <v>10</v>
-      </c>
-      <c r="E142" t="s">
-        <v>297</v>
       </c>
       <c r="F142">
         <v>11</v>
@@ -5900,13 +5930,13 @@
         <v>11</v>
       </c>
       <c r="C143" t="s">
+        <v>297</v>
+      </c>
+      <c r="D143" t="s">
+        <v>10</v>
+      </c>
+      <c r="E143" t="s">
         <v>298</v>
-      </c>
-      <c r="D143" t="s">
-        <v>10</v>
-      </c>
-      <c r="E143" t="s">
-        <v>299</v>
       </c>
       <c r="F143">
         <v>11</v>
@@ -5916,7 +5946,7 @@
         <v>No</v>
       </c>
       <c r="H143" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -5927,13 +5957,13 @@
         <v>11</v>
       </c>
       <c r="C144" t="s">
+        <v>299</v>
+      </c>
+      <c r="D144" t="s">
+        <v>277</v>
+      </c>
+      <c r="E144" t="s">
         <v>300</v>
-      </c>
-      <c r="D144" t="s">
-        <v>278</v>
-      </c>
-      <c r="E144" t="s">
-        <v>301</v>
       </c>
       <c r="F144">
         <v>30</v>
@@ -5943,7 +5973,7 @@
         <v>No</v>
       </c>
       <c r="H144" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -5954,13 +5984,13 @@
         <v>11</v>
       </c>
       <c r="C145" t="s">
+        <v>301</v>
+      </c>
+      <c r="D145" t="s">
+        <v>10</v>
+      </c>
+      <c r="E145" t="s">
         <v>302</v>
-      </c>
-      <c r="D145" t="s">
-        <v>10</v>
-      </c>
-      <c r="E145" t="s">
-        <v>303</v>
       </c>
       <c r="F145">
         <v>11</v>
@@ -5970,7 +6000,7 @@
         <v>No</v>
       </c>
       <c r="H145" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -5981,13 +6011,13 @@
         <v>11</v>
       </c>
       <c r="C146" t="s">
+        <v>303</v>
+      </c>
+      <c r="D146" t="s">
+        <v>10</v>
+      </c>
+      <c r="E146" t="s">
         <v>304</v>
-      </c>
-      <c r="D146" t="s">
-        <v>10</v>
-      </c>
-      <c r="E146" t="s">
-        <v>305</v>
       </c>
       <c r="F146">
         <v>11</v>
@@ -5997,7 +6027,7 @@
         <v>No</v>
       </c>
       <c r="H146" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -6008,13 +6038,13 @@
         <v>11</v>
       </c>
       <c r="C147" t="s">
+        <v>305</v>
+      </c>
+      <c r="D147" t="s">
+        <v>277</v>
+      </c>
+      <c r="E147" t="s">
         <v>306</v>
-      </c>
-      <c r="D147" t="s">
-        <v>278</v>
-      </c>
-      <c r="E147" t="s">
-        <v>307</v>
       </c>
       <c r="F147">
         <v>30</v>
@@ -6024,7 +6054,7 @@
         <v>No</v>
       </c>
       <c r="H147" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -6035,13 +6065,13 @@
         <v>11</v>
       </c>
       <c r="C148" t="s">
+        <v>307</v>
+      </c>
+      <c r="D148" t="s">
+        <v>10</v>
+      </c>
+      <c r="E148" t="s">
         <v>308</v>
-      </c>
-      <c r="D148" t="s">
-        <v>10</v>
-      </c>
-      <c r="E148" t="s">
-        <v>309</v>
       </c>
       <c r="F148">
         <v>11</v>
@@ -6062,13 +6092,13 @@
         <v>11</v>
       </c>
       <c r="C149" t="s">
+        <v>309</v>
+      </c>
+      <c r="D149" t="s">
+        <v>10</v>
+      </c>
+      <c r="E149" t="s">
         <v>310</v>
-      </c>
-      <c r="D149" t="s">
-        <v>10</v>
-      </c>
-      <c r="E149" t="s">
-        <v>311</v>
       </c>
       <c r="F149">
         <v>11</v>
@@ -6078,7 +6108,7 @@
         <v>No</v>
       </c>
       <c r="H149" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -6089,22 +6119,22 @@
         <v>11</v>
       </c>
       <c r="C150" t="s">
+        <v>311</v>
+      </c>
+      <c r="D150" t="s">
+        <v>10</v>
+      </c>
+      <c r="E150" t="s">
         <v>312</v>
-      </c>
-      <c r="D150" t="s">
-        <v>10</v>
-      </c>
-      <c r="E150" t="s">
-        <v>313</v>
       </c>
       <c r="F150">
         <v>29</v>
       </c>
       <c r="G150" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H150" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -6115,13 +6145,13 @@
         <v>11</v>
       </c>
       <c r="C151" t="s">
+        <v>313</v>
+      </c>
+      <c r="D151" t="s">
+        <v>10</v>
+      </c>
+      <c r="E151" t="s">
         <v>314</v>
-      </c>
-      <c r="D151" t="s">
-        <v>10</v>
-      </c>
-      <c r="E151" t="s">
-        <v>315</v>
       </c>
       <c r="F151">
         <v>11</v>
@@ -6131,7 +6161,7 @@
         <v>No</v>
       </c>
       <c r="H151" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -6142,13 +6172,13 @@
         <v>11</v>
       </c>
       <c r="C152" t="s">
+        <v>315</v>
+      </c>
+      <c r="D152" t="s">
+        <v>277</v>
+      </c>
+      <c r="E152" t="s">
         <v>316</v>
-      </c>
-      <c r="D152" t="s">
-        <v>278</v>
-      </c>
-      <c r="E152" t="s">
-        <v>317</v>
       </c>
       <c r="F152">
         <v>30</v>
@@ -6158,7 +6188,7 @@
         <v>No</v>
       </c>
       <c r="H152" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -6169,13 +6199,13 @@
         <v>11</v>
       </c>
       <c r="C153" t="s">
+        <v>317</v>
+      </c>
+      <c r="D153" t="s">
+        <v>10</v>
+      </c>
+      <c r="E153" t="s">
         <v>318</v>
-      </c>
-      <c r="D153" t="s">
-        <v>10</v>
-      </c>
-      <c r="E153" t="s">
-        <v>319</v>
       </c>
       <c r="F153">
         <v>11</v>
@@ -6185,7 +6215,7 @@
         <v>No</v>
       </c>
       <c r="H153" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -6196,13 +6226,13 @@
         <v>11</v>
       </c>
       <c r="C154" t="s">
+        <v>319</v>
+      </c>
+      <c r="D154" t="s">
+        <v>10</v>
+      </c>
+      <c r="E154" t="s">
         <v>320</v>
-      </c>
-      <c r="D154" t="s">
-        <v>10</v>
-      </c>
-      <c r="E154" t="s">
-        <v>321</v>
       </c>
       <c r="F154">
         <v>11</v>
@@ -6212,7 +6242,7 @@
         <v>No</v>
       </c>
       <c r="H154" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -6223,13 +6253,13 @@
         <v>11</v>
       </c>
       <c r="C155" t="s">
+        <v>321</v>
+      </c>
+      <c r="D155" t="s">
+        <v>10</v>
+      </c>
+      <c r="E155" t="s">
         <v>322</v>
-      </c>
-      <c r="D155" t="s">
-        <v>10</v>
-      </c>
-      <c r="E155" t="s">
-        <v>323</v>
       </c>
       <c r="F155">
         <v>11</v>
@@ -6239,7 +6269,7 @@
         <v>No</v>
       </c>
       <c r="H155" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -6250,13 +6280,13 @@
         <v>11</v>
       </c>
       <c r="C156" t="s">
+        <v>323</v>
+      </c>
+      <c r="D156" t="s">
+        <v>10</v>
+      </c>
+      <c r="E156" t="s">
         <v>324</v>
-      </c>
-      <c r="D156" t="s">
-        <v>10</v>
-      </c>
-      <c r="E156" t="s">
-        <v>325</v>
       </c>
       <c r="F156">
         <v>11</v>
@@ -6266,7 +6296,7 @@
         <v>No</v>
       </c>
       <c r="H156" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -6277,22 +6307,22 @@
         <v>11</v>
       </c>
       <c r="C157" t="s">
+        <v>325</v>
+      </c>
+      <c r="D157" t="s">
+        <v>10</v>
+      </c>
+      <c r="E157" t="s">
         <v>326</v>
-      </c>
-      <c r="D157" t="s">
-        <v>10</v>
-      </c>
-      <c r="E157" t="s">
-        <v>327</v>
       </c>
       <c r="F157">
         <v>29</v>
       </c>
       <c r="G157" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H157" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -6303,13 +6333,13 @@
         <v>11</v>
       </c>
       <c r="C158" t="s">
+        <v>327</v>
+      </c>
+      <c r="D158" t="s">
+        <v>10</v>
+      </c>
+      <c r="E158" t="s">
         <v>328</v>
-      </c>
-      <c r="D158" t="s">
-        <v>10</v>
-      </c>
-      <c r="E158" t="s">
-        <v>329</v>
       </c>
       <c r="F158">
         <v>11</v>
@@ -6319,7 +6349,7 @@
         <v>No</v>
       </c>
       <c r="H158" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -6330,13 +6360,13 @@
         <v>11</v>
       </c>
       <c r="C159" t="s">
+        <v>329</v>
+      </c>
+      <c r="D159" t="s">
+        <v>10</v>
+      </c>
+      <c r="E159" t="s">
         <v>330</v>
-      </c>
-      <c r="D159" t="s">
-        <v>10</v>
-      </c>
-      <c r="E159" t="s">
-        <v>331</v>
       </c>
       <c r="F159">
         <v>11</v>
@@ -6346,7 +6376,7 @@
         <v>No</v>
       </c>
       <c r="H159" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -6357,13 +6387,13 @@
         <v>11</v>
       </c>
       <c r="C160" t="s">
+        <v>331</v>
+      </c>
+      <c r="D160" t="s">
+        <v>10</v>
+      </c>
+      <c r="E160" t="s">
         <v>332</v>
-      </c>
-      <c r="D160" t="s">
-        <v>10</v>
-      </c>
-      <c r="E160" t="s">
-        <v>333</v>
       </c>
       <c r="F160">
         <v>11</v>
@@ -6373,7 +6403,7 @@
         <v>No</v>
       </c>
       <c r="H160" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -6384,22 +6414,22 @@
         <v>11</v>
       </c>
       <c r="C161" t="s">
+        <v>333</v>
+      </c>
+      <c r="D161" t="s">
+        <v>277</v>
+      </c>
+      <c r="E161" t="s">
         <v>334</v>
-      </c>
-      <c r="D161" t="s">
-        <v>278</v>
-      </c>
-      <c r="E161" t="s">
-        <v>335</v>
       </c>
       <c r="F161">
         <v>30</v>
       </c>
       <c r="G161" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H161" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -6410,22 +6440,22 @@
         <v>11</v>
       </c>
       <c r="C162" t="s">
+        <v>335</v>
+      </c>
+      <c r="D162" t="s">
+        <v>10</v>
+      </c>
+      <c r="E162" t="s">
         <v>336</v>
-      </c>
-      <c r="D162" t="s">
-        <v>10</v>
-      </c>
-      <c r="E162" t="s">
-        <v>337</v>
       </c>
       <c r="F162">
         <v>29</v>
       </c>
       <c r="G162" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H162" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -6436,13 +6466,13 @@
         <v>11</v>
       </c>
       <c r="C163" t="s">
+        <v>337</v>
+      </c>
+      <c r="D163" t="s">
+        <v>277</v>
+      </c>
+      <c r="E163" t="s">
         <v>338</v>
-      </c>
-      <c r="D163" t="s">
-        <v>278</v>
-      </c>
-      <c r="E163" t="s">
-        <v>339</v>
       </c>
       <c r="F163">
         <v>30</v>
@@ -6463,19 +6493,19 @@
         <v>11</v>
       </c>
       <c r="C164" t="s">
+        <v>339</v>
+      </c>
+      <c r="D164" t="s">
+        <v>277</v>
+      </c>
+      <c r="E164" t="s">
         <v>340</v>
-      </c>
-      <c r="D164" t="s">
-        <v>278</v>
-      </c>
-      <c r="E164" t="s">
-        <v>341</v>
       </c>
       <c r="F164">
         <v>30</v>
       </c>
       <c r="G164" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H164">
         <v>221</v>
@@ -6489,13 +6519,13 @@
         <v>11</v>
       </c>
       <c r="C165" t="s">
+        <v>341</v>
+      </c>
+      <c r="D165" t="s">
+        <v>10</v>
+      </c>
+      <c r="E165" t="s">
         <v>342</v>
-      </c>
-      <c r="D165" t="s">
-        <v>10</v>
-      </c>
-      <c r="E165" t="s">
-        <v>343</v>
       </c>
       <c r="F165">
         <v>11</v>
@@ -6516,13 +6546,13 @@
         <v>11</v>
       </c>
       <c r="C166" t="s">
+        <v>343</v>
+      </c>
+      <c r="D166" t="s">
+        <v>10</v>
+      </c>
+      <c r="E166" t="s">
         <v>344</v>
-      </c>
-      <c r="D166" t="s">
-        <v>10</v>
-      </c>
-      <c r="E166" t="s">
-        <v>345</v>
       </c>
       <c r="F166">
         <v>11</v>
@@ -6543,13 +6573,13 @@
         <v>11</v>
       </c>
       <c r="C167" t="s">
+        <v>345</v>
+      </c>
+      <c r="D167" t="s">
+        <v>10</v>
+      </c>
+      <c r="E167" t="s">
         <v>346</v>
-      </c>
-      <c r="D167" t="s">
-        <v>10</v>
-      </c>
-      <c r="E167" t="s">
-        <v>347</v>
       </c>
       <c r="F167">
         <v>11</v>
@@ -6570,19 +6600,19 @@
         <v>11</v>
       </c>
       <c r="C168" t="s">
+        <v>347</v>
+      </c>
+      <c r="D168" t="s">
+        <v>10</v>
+      </c>
+      <c r="E168" t="s">
         <v>348</v>
-      </c>
-      <c r="D168" t="s">
-        <v>10</v>
-      </c>
-      <c r="E168" t="s">
-        <v>349</v>
       </c>
       <c r="F168">
         <v>29</v>
       </c>
       <c r="G168" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H168">
         <v>211</v>
@@ -6596,13 +6626,13 @@
         <v>11</v>
       </c>
       <c r="C169" t="s">
+        <v>349</v>
+      </c>
+      <c r="D169" t="s">
+        <v>10</v>
+      </c>
+      <c r="E169" t="s">
         <v>350</v>
-      </c>
-      <c r="D169" t="s">
-        <v>10</v>
-      </c>
-      <c r="E169" t="s">
-        <v>351</v>
       </c>
       <c r="F169">
         <v>11</v>
@@ -6623,13 +6653,13 @@
         <v>11</v>
       </c>
       <c r="C170" t="s">
+        <v>351</v>
+      </c>
+      <c r="D170" t="s">
+        <v>10</v>
+      </c>
+      <c r="E170" t="s">
         <v>352</v>
-      </c>
-      <c r="D170" t="s">
-        <v>10</v>
-      </c>
-      <c r="E170" t="s">
-        <v>353</v>
       </c>
       <c r="F170">
         <v>11</v>
@@ -6650,19 +6680,19 @@
         <v>11</v>
       </c>
       <c r="C171" t="s">
+        <v>353</v>
+      </c>
+      <c r="D171" t="s">
+        <v>10</v>
+      </c>
+      <c r="E171" t="s">
         <v>354</v>
-      </c>
-      <c r="D171" t="s">
-        <v>10</v>
-      </c>
-      <c r="E171" t="s">
-        <v>355</v>
       </c>
       <c r="F171">
         <v>29</v>
       </c>
       <c r="G171" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H171">
         <v>255</v>
@@ -6676,19 +6706,19 @@
         <v>11</v>
       </c>
       <c r="C172" t="s">
+        <v>355</v>
+      </c>
+      <c r="D172" t="s">
+        <v>277</v>
+      </c>
+      <c r="E172" t="s">
         <v>356</v>
-      </c>
-      <c r="D172" t="s">
-        <v>278</v>
-      </c>
-      <c r="E172" t="s">
-        <v>357</v>
       </c>
       <c r="F172">
         <v>30</v>
       </c>
       <c r="G172" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H172">
         <v>228</v>
@@ -6702,19 +6732,19 @@
         <v>11</v>
       </c>
       <c r="C173" t="s">
+        <v>357</v>
+      </c>
+      <c r="D173" t="s">
+        <v>10</v>
+      </c>
+      <c r="E173" t="s">
         <v>358</v>
-      </c>
-      <c r="D173" t="s">
-        <v>10</v>
-      </c>
-      <c r="E173" t="s">
-        <v>359</v>
       </c>
       <c r="F173">
         <v>29</v>
       </c>
       <c r="G173" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H173">
         <v>256</v>
@@ -6728,13 +6758,13 @@
         <v>11</v>
       </c>
       <c r="C174" t="s">
+        <v>359</v>
+      </c>
+      <c r="D174" t="s">
+        <v>10</v>
+      </c>
+      <c r="E174" t="s">
         <v>360</v>
-      </c>
-      <c r="D174" t="s">
-        <v>10</v>
-      </c>
-      <c r="E174" t="s">
-        <v>361</v>
       </c>
       <c r="F174">
         <v>11</v>
@@ -6744,7 +6774,7 @@
         <v>No</v>
       </c>
       <c r="H174" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -6755,13 +6785,13 @@
         <v>11</v>
       </c>
       <c r="C175" t="s">
+        <v>361</v>
+      </c>
+      <c r="D175" t="s">
+        <v>10</v>
+      </c>
+      <c r="E175" t="s">
         <v>362</v>
-      </c>
-      <c r="D175" t="s">
-        <v>10</v>
-      </c>
-      <c r="E175" t="s">
-        <v>363</v>
       </c>
       <c r="F175">
         <v>11</v>
@@ -6782,13 +6812,13 @@
         <v>11</v>
       </c>
       <c r="C176" t="s">
+        <v>363</v>
+      </c>
+      <c r="D176" t="s">
+        <v>10</v>
+      </c>
+      <c r="E176" t="s">
         <v>364</v>
-      </c>
-      <c r="D176" t="s">
-        <v>10</v>
-      </c>
-      <c r="E176" t="s">
-        <v>365</v>
       </c>
       <c r="F176">
         <v>11</v>
@@ -6806,16 +6836,16 @@
         <v>14</v>
       </c>
       <c r="B177" t="s">
+        <v>365</v>
+      </c>
+      <c r="C177" t="s">
         <v>366</v>
       </c>
-      <c r="C177" t="s">
+      <c r="D177" t="s">
+        <v>10</v>
+      </c>
+      <c r="E177" t="s">
         <v>367</v>
-      </c>
-      <c r="D177" t="s">
-        <v>10</v>
-      </c>
-      <c r="E177" t="s">
-        <v>368</v>
       </c>
       <c r="F177">
         <v>11</v>
@@ -6825,7 +6855,7 @@
         <v>No</v>
       </c>
       <c r="H177" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -6833,16 +6863,16 @@
         <v>14</v>
       </c>
       <c r="B178" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C178" t="s">
+        <v>368</v>
+      </c>
+      <c r="D178" t="s">
+        <v>10</v>
+      </c>
+      <c r="E178" t="s">
         <v>369</v>
-      </c>
-      <c r="D178" t="s">
-        <v>10</v>
-      </c>
-      <c r="E178" t="s">
-        <v>370</v>
       </c>
       <c r="F178">
         <v>11</v>
@@ -6852,7 +6882,7 @@
         <v>No</v>
       </c>
       <c r="H178" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -6860,16 +6890,16 @@
         <v>14</v>
       </c>
       <c r="B179" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C179" t="s">
+        <v>370</v>
+      </c>
+      <c r="D179" t="s">
+        <v>10</v>
+      </c>
+      <c r="E179" t="s">
         <v>371</v>
-      </c>
-      <c r="D179" t="s">
-        <v>10</v>
-      </c>
-      <c r="E179" t="s">
-        <v>372</v>
       </c>
       <c r="F179">
         <v>11</v>
@@ -6879,7 +6909,7 @@
         <v>No</v>
       </c>
       <c r="H179" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -6887,16 +6917,16 @@
         <v>14</v>
       </c>
       <c r="B180" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C180" t="s">
+        <v>372</v>
+      </c>
+      <c r="D180" t="s">
+        <v>10</v>
+      </c>
+      <c r="E180" t="s">
         <v>373</v>
-      </c>
-      <c r="D180" t="s">
-        <v>10</v>
-      </c>
-      <c r="E180" t="s">
-        <v>374</v>
       </c>
       <c r="F180">
         <v>11</v>
@@ -6906,7 +6936,7 @@
         <v>No</v>
       </c>
       <c r="H180" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -6914,16 +6944,16 @@
         <v>14</v>
       </c>
       <c r="B181" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C181" t="s">
+        <v>374</v>
+      </c>
+      <c r="D181" t="s">
+        <v>10</v>
+      </c>
+      <c r="E181" t="s">
         <v>375</v>
-      </c>
-      <c r="D181" t="s">
-        <v>10</v>
-      </c>
-      <c r="E181" t="s">
-        <v>376</v>
       </c>
       <c r="F181">
         <v>11</v>
@@ -6933,7 +6963,7 @@
         <v>No</v>
       </c>
       <c r="H181" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -6941,16 +6971,16 @@
         <v>14</v>
       </c>
       <c r="B182" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C182" t="s">
+        <v>376</v>
+      </c>
+      <c r="D182" t="s">
+        <v>10</v>
+      </c>
+      <c r="E182" t="s">
         <v>377</v>
-      </c>
-      <c r="D182" t="s">
-        <v>10</v>
-      </c>
-      <c r="E182" t="s">
-        <v>378</v>
       </c>
       <c r="F182">
         <v>11</v>
@@ -6960,7 +6990,7 @@
         <v>No</v>
       </c>
       <c r="H182" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -6968,16 +6998,16 @@
         <v>14</v>
       </c>
       <c r="B183" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C183" t="s">
+        <v>378</v>
+      </c>
+      <c r="D183" t="s">
+        <v>10</v>
+      </c>
+      <c r="E183" t="s">
         <v>379</v>
-      </c>
-      <c r="D183" t="s">
-        <v>10</v>
-      </c>
-      <c r="E183" t="s">
-        <v>380</v>
       </c>
       <c r="F183">
         <v>11</v>
@@ -6987,7 +7017,7 @@
         <v>No</v>
       </c>
       <c r="H183" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -6995,16 +7025,16 @@
         <v>14</v>
       </c>
       <c r="B184" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C184" t="s">
+        <v>380</v>
+      </c>
+      <c r="D184" t="s">
+        <v>10</v>
+      </c>
+      <c r="E184" t="s">
         <v>381</v>
-      </c>
-      <c r="D184" t="s">
-        <v>10</v>
-      </c>
-      <c r="E184" t="s">
-        <v>382</v>
       </c>
       <c r="F184">
         <v>11</v>
@@ -7014,7 +7044,7 @@
         <v>No</v>
       </c>
       <c r="H184" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -7022,16 +7052,16 @@
         <v>14</v>
       </c>
       <c r="B185" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C185" t="s">
+        <v>382</v>
+      </c>
+      <c r="D185" t="s">
+        <v>10</v>
+      </c>
+      <c r="E185" t="s">
         <v>383</v>
-      </c>
-      <c r="D185" t="s">
-        <v>10</v>
-      </c>
-      <c r="E185" t="s">
-        <v>384</v>
       </c>
       <c r="F185">
         <v>11</v>
@@ -7041,7 +7071,7 @@
         <v>No</v>
       </c>
       <c r="H185" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -7049,16 +7079,16 @@
         <v>14</v>
       </c>
       <c r="B186" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C186" t="s">
+        <v>384</v>
+      </c>
+      <c r="D186" t="s">
+        <v>10</v>
+      </c>
+      <c r="E186" t="s">
         <v>385</v>
-      </c>
-      <c r="D186" t="s">
-        <v>10</v>
-      </c>
-      <c r="E186" t="s">
-        <v>386</v>
       </c>
       <c r="F186">
         <v>11</v>
@@ -7068,7 +7098,7 @@
         <v>No</v>
       </c>
       <c r="H186" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -7076,16 +7106,16 @@
         <v>14</v>
       </c>
       <c r="B187" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C187" t="s">
+        <v>386</v>
+      </c>
+      <c r="D187" t="s">
+        <v>10</v>
+      </c>
+      <c r="E187" t="s">
         <v>387</v>
-      </c>
-      <c r="D187" t="s">
-        <v>10</v>
-      </c>
-      <c r="E187" t="s">
-        <v>388</v>
       </c>
       <c r="F187">
         <v>11</v>
@@ -7095,7 +7125,7 @@
         <v>No</v>
       </c>
       <c r="H187" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -7103,16 +7133,16 @@
         <v>14</v>
       </c>
       <c r="B188" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C188" t="s">
+        <v>388</v>
+      </c>
+      <c r="D188" t="s">
+        <v>10</v>
+      </c>
+      <c r="E188" t="s">
         <v>389</v>
-      </c>
-      <c r="D188" t="s">
-        <v>10</v>
-      </c>
-      <c r="E188" t="s">
-        <v>390</v>
       </c>
       <c r="F188">
         <v>11</v>
@@ -7122,7 +7152,7 @@
         <v>No</v>
       </c>
       <c r="H188" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -7130,25 +7160,25 @@
         <v>14</v>
       </c>
       <c r="B189" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C189" t="s">
+        <v>390</v>
+      </c>
+      <c r="D189" t="s">
+        <v>10</v>
+      </c>
+      <c r="E189" t="s">
         <v>391</v>
       </c>
-      <c r="D189" t="s">
-        <v>10</v>
-      </c>
-      <c r="E189" t="s">
-        <v>392</v>
-      </c>
       <c r="F189">
         <v>11</v>
       </c>
       <c r="G189" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H189" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -7156,16 +7186,16 @@
         <v>14</v>
       </c>
       <c r="B190" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C190" t="s">
+        <v>392</v>
+      </c>
+      <c r="D190" t="s">
+        <v>10</v>
+      </c>
+      <c r="E190" t="s">
         <v>393</v>
-      </c>
-      <c r="D190" t="s">
-        <v>10</v>
-      </c>
-      <c r="E190" t="s">
-        <v>394</v>
       </c>
       <c r="F190">
         <v>11</v>
@@ -7175,7 +7205,7 @@
         <v>No</v>
       </c>
       <c r="H190" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -7183,16 +7213,16 @@
         <v>14</v>
       </c>
       <c r="B191" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C191" t="s">
+        <v>394</v>
+      </c>
+      <c r="D191" t="s">
+        <v>10</v>
+      </c>
+      <c r="E191" t="s">
         <v>395</v>
-      </c>
-      <c r="D191" t="s">
-        <v>10</v>
-      </c>
-      <c r="E191" t="s">
-        <v>396</v>
       </c>
       <c r="F191">
         <v>11</v>
@@ -7202,7 +7232,7 @@
         <v>No</v>
       </c>
       <c r="H191" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
@@ -7210,16 +7240,16 @@
         <v>14</v>
       </c>
       <c r="B192" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C192" t="s">
+        <v>396</v>
+      </c>
+      <c r="D192" t="s">
+        <v>10</v>
+      </c>
+      <c r="E192" t="s">
         <v>397</v>
-      </c>
-      <c r="D192" t="s">
-        <v>10</v>
-      </c>
-      <c r="E192" t="s">
-        <v>398</v>
       </c>
       <c r="F192">
         <v>11</v>
@@ -7229,7 +7259,7 @@
         <v>No</v>
       </c>
       <c r="H192" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -7237,16 +7267,16 @@
         <v>14</v>
       </c>
       <c r="B193" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C193" t="s">
+        <v>398</v>
+      </c>
+      <c r="D193" t="s">
+        <v>10</v>
+      </c>
+      <c r="E193" t="s">
         <v>399</v>
-      </c>
-      <c r="D193" t="s">
-        <v>10</v>
-      </c>
-      <c r="E193" t="s">
-        <v>400</v>
       </c>
       <c r="F193">
         <v>11</v>
@@ -7256,7 +7286,7 @@
         <v>No</v>
       </c>
       <c r="H193" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -7264,16 +7294,16 @@
         <v>14</v>
       </c>
       <c r="B194" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C194" t="s">
+        <v>400</v>
+      </c>
+      <c r="D194" t="s">
+        <v>10</v>
+      </c>
+      <c r="E194" t="s">
         <v>401</v>
-      </c>
-      <c r="D194" t="s">
-        <v>10</v>
-      </c>
-      <c r="E194" t="s">
-        <v>402</v>
       </c>
       <c r="F194">
         <v>11</v>
@@ -7283,7 +7313,7 @@
         <v>No</v>
       </c>
       <c r="H194" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -7291,16 +7321,16 @@
         <v>14</v>
       </c>
       <c r="B195" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C195" t="s">
+        <v>402</v>
+      </c>
+      <c r="D195" t="s">
+        <v>10</v>
+      </c>
+      <c r="E195" t="s">
         <v>403</v>
-      </c>
-      <c r="D195" t="s">
-        <v>10</v>
-      </c>
-      <c r="E195" t="s">
-        <v>404</v>
       </c>
       <c r="F195">
         <v>11</v>
@@ -7310,7 +7340,7 @@
         <v>No</v>
       </c>
       <c r="H195" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -7318,16 +7348,16 @@
         <v>14</v>
       </c>
       <c r="B196" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C196" t="s">
+        <v>404</v>
+      </c>
+      <c r="D196" t="s">
+        <v>10</v>
+      </c>
+      <c r="E196" t="s">
         <v>405</v>
-      </c>
-      <c r="D196" t="s">
-        <v>10</v>
-      </c>
-      <c r="E196" t="s">
-        <v>406</v>
       </c>
       <c r="F196">
         <v>11</v>
@@ -7337,7 +7367,7 @@
         <v>No</v>
       </c>
       <c r="H196" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -7345,16 +7375,16 @@
         <v>14</v>
       </c>
       <c r="B197" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C197" t="s">
+        <v>406</v>
+      </c>
+      <c r="D197" t="s">
+        <v>10</v>
+      </c>
+      <c r="E197" t="s">
         <v>407</v>
-      </c>
-      <c r="D197" t="s">
-        <v>10</v>
-      </c>
-      <c r="E197" t="s">
-        <v>408</v>
       </c>
       <c r="F197">
         <v>11</v>
@@ -7364,7 +7394,7 @@
         <v>No</v>
       </c>
       <c r="H197" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -7372,16 +7402,16 @@
         <v>14</v>
       </c>
       <c r="B198" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C198" t="s">
+        <v>408</v>
+      </c>
+      <c r="D198" t="s">
+        <v>10</v>
+      </c>
+      <c r="E198" t="s">
         <v>409</v>
-      </c>
-      <c r="D198" t="s">
-        <v>10</v>
-      </c>
-      <c r="E198" t="s">
-        <v>410</v>
       </c>
       <c r="F198">
         <v>11</v>
@@ -7399,16 +7429,16 @@
         <v>14</v>
       </c>
       <c r="B199" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C199" t="s">
+        <v>410</v>
+      </c>
+      <c r="D199" t="s">
+        <v>10</v>
+      </c>
+      <c r="E199" t="s">
         <v>411</v>
-      </c>
-      <c r="D199" t="s">
-        <v>10</v>
-      </c>
-      <c r="E199" t="s">
-        <v>412</v>
       </c>
       <c r="F199">
         <v>11</v>
@@ -7418,7 +7448,7 @@
         <v>No</v>
       </c>
       <c r="H199" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -7426,16 +7456,16 @@
         <v>14</v>
       </c>
       <c r="B200" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C200" t="s">
+        <v>412</v>
+      </c>
+      <c r="D200" t="s">
+        <v>10</v>
+      </c>
+      <c r="E200" t="s">
         <v>413</v>
-      </c>
-      <c r="D200" t="s">
-        <v>10</v>
-      </c>
-      <c r="E200" t="s">
-        <v>414</v>
       </c>
       <c r="F200">
         <v>11</v>
@@ -7445,7 +7475,7 @@
         <v>No</v>
       </c>
       <c r="H200" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -7453,16 +7483,16 @@
         <v>14</v>
       </c>
       <c r="B201" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C201" t="s">
+        <v>414</v>
+      </c>
+      <c r="D201" t="s">
+        <v>10</v>
+      </c>
+      <c r="E201" t="s">
         <v>415</v>
-      </c>
-      <c r="D201" t="s">
-        <v>10</v>
-      </c>
-      <c r="E201" t="s">
-        <v>416</v>
       </c>
       <c r="F201">
         <v>11</v>
@@ -7472,7 +7502,7 @@
         <v>No</v>
       </c>
       <c r="H201" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -7480,16 +7510,16 @@
         <v>14</v>
       </c>
       <c r="B202" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C202" t="s">
+        <v>416</v>
+      </c>
+      <c r="D202" t="s">
+        <v>10</v>
+      </c>
+      <c r="E202" t="s">
         <v>417</v>
-      </c>
-      <c r="D202" t="s">
-        <v>10</v>
-      </c>
-      <c r="E202" t="s">
-        <v>418</v>
       </c>
       <c r="F202">
         <v>11</v>
@@ -7499,7 +7529,7 @@
         <v>No</v>
       </c>
       <c r="H202" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -7507,16 +7537,16 @@
         <v>14</v>
       </c>
       <c r="B203" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C203" t="s">
+        <v>418</v>
+      </c>
+      <c r="D203" t="s">
+        <v>10</v>
+      </c>
+      <c r="E203" t="s">
         <v>419</v>
-      </c>
-      <c r="D203" t="s">
-        <v>10</v>
-      </c>
-      <c r="E203" t="s">
-        <v>420</v>
       </c>
       <c r="F203">
         <v>11</v>
@@ -7534,16 +7564,16 @@
         <v>14</v>
       </c>
       <c r="B204" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C204" t="s">
+        <v>420</v>
+      </c>
+      <c r="D204" t="s">
+        <v>10</v>
+      </c>
+      <c r="E204" t="s">
         <v>421</v>
-      </c>
-      <c r="D204" t="s">
-        <v>10</v>
-      </c>
-      <c r="E204" t="s">
-        <v>422</v>
       </c>
       <c r="F204">
         <v>11</v>
@@ -7553,7 +7583,7 @@
         <v>No</v>
       </c>
       <c r="H204" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
@@ -7561,16 +7591,16 @@
         <v>14</v>
       </c>
       <c r="B205" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C205" t="s">
+        <v>422</v>
+      </c>
+      <c r="D205" t="s">
+        <v>10</v>
+      </c>
+      <c r="E205" t="s">
         <v>423</v>
-      </c>
-      <c r="D205" t="s">
-        <v>10</v>
-      </c>
-      <c r="E205" t="s">
-        <v>424</v>
       </c>
       <c r="F205">
         <v>11</v>
@@ -7580,7 +7610,7 @@
         <v>No</v>
       </c>
       <c r="H205" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -7588,16 +7618,16 @@
         <v>14</v>
       </c>
       <c r="B206" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C206" t="s">
+        <v>424</v>
+      </c>
+      <c r="D206" t="s">
+        <v>10</v>
+      </c>
+      <c r="E206" t="s">
         <v>425</v>
-      </c>
-      <c r="D206" t="s">
-        <v>10</v>
-      </c>
-      <c r="E206" t="s">
-        <v>426</v>
       </c>
       <c r="F206">
         <v>11</v>
@@ -7607,7 +7637,7 @@
         <v>No</v>
       </c>
       <c r="H206" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -7615,16 +7645,16 @@
         <v>14</v>
       </c>
       <c r="B207" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C207" t="s">
+        <v>426</v>
+      </c>
+      <c r="D207" t="s">
+        <v>10</v>
+      </c>
+      <c r="E207" t="s">
         <v>427</v>
-      </c>
-      <c r="D207" t="s">
-        <v>10</v>
-      </c>
-      <c r="E207" t="s">
-        <v>428</v>
       </c>
       <c r="F207">
         <v>11</v>
@@ -7634,7 +7664,7 @@
         <v>No</v>
       </c>
       <c r="H207" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -7642,16 +7672,16 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C208" t="s">
+        <v>428</v>
+      </c>
+      <c r="D208" t="s">
+        <v>10</v>
+      </c>
+      <c r="E208" t="s">
         <v>429</v>
-      </c>
-      <c r="D208" t="s">
-        <v>10</v>
-      </c>
-      <c r="E208" t="s">
-        <v>430</v>
       </c>
       <c r="F208">
         <v>11</v>
@@ -7661,7 +7691,7 @@
         <v>No</v>
       </c>
       <c r="H208" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -7669,16 +7699,16 @@
         <v>14</v>
       </c>
       <c r="B209" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C209" t="s">
+        <v>430</v>
+      </c>
+      <c r="D209" t="s">
+        <v>10</v>
+      </c>
+      <c r="E209" t="s">
         <v>431</v>
-      </c>
-      <c r="D209" t="s">
-        <v>10</v>
-      </c>
-      <c r="E209" t="s">
-        <v>432</v>
       </c>
       <c r="F209">
         <v>11</v>
@@ -7696,16 +7726,16 @@
         <v>14</v>
       </c>
       <c r="B210" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C210" t="s">
+        <v>432</v>
+      </c>
+      <c r="D210" t="s">
+        <v>10</v>
+      </c>
+      <c r="E210" t="s">
         <v>433</v>
-      </c>
-      <c r="D210" t="s">
-        <v>10</v>
-      </c>
-      <c r="E210" t="s">
-        <v>434</v>
       </c>
       <c r="F210">
         <v>11</v>
@@ -7715,7 +7745,7 @@
         <v>No</v>
       </c>
       <c r="H210" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -7723,16 +7753,16 @@
         <v>14</v>
       </c>
       <c r="B211" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C211" t="s">
+        <v>434</v>
+      </c>
+      <c r="D211" t="s">
+        <v>10</v>
+      </c>
+      <c r="E211" t="s">
         <v>435</v>
-      </c>
-      <c r="D211" t="s">
-        <v>10</v>
-      </c>
-      <c r="E211" t="s">
-        <v>436</v>
       </c>
       <c r="F211">
         <v>11</v>
@@ -7742,7 +7772,7 @@
         <v>No</v>
       </c>
       <c r="H211" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -7750,16 +7780,16 @@
         <v>14</v>
       </c>
       <c r="B212" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C212" t="s">
+        <v>436</v>
+      </c>
+      <c r="D212" t="s">
+        <v>10</v>
+      </c>
+      <c r="E212" t="s">
         <v>437</v>
-      </c>
-      <c r="D212" t="s">
-        <v>10</v>
-      </c>
-      <c r="E212" t="s">
-        <v>438</v>
       </c>
       <c r="F212">
         <v>11</v>
@@ -7769,7 +7799,7 @@
         <v>No</v>
       </c>
       <c r="H212" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -7777,16 +7807,16 @@
         <v>14</v>
       </c>
       <c r="B213" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C213" t="s">
+        <v>438</v>
+      </c>
+      <c r="D213" t="s">
+        <v>10</v>
+      </c>
+      <c r="E213" t="s">
         <v>439</v>
-      </c>
-      <c r="D213" t="s">
-        <v>10</v>
-      </c>
-      <c r="E213" t="s">
-        <v>440</v>
       </c>
       <c r="F213">
         <v>11</v>
@@ -7796,7 +7826,7 @@
         <v>No</v>
       </c>
       <c r="H213" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -7804,16 +7834,16 @@
         <v>14</v>
       </c>
       <c r="B214" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C214" t="s">
+        <v>440</v>
+      </c>
+      <c r="D214" t="s">
+        <v>10</v>
+      </c>
+      <c r="E214" t="s">
         <v>441</v>
-      </c>
-      <c r="D214" t="s">
-        <v>10</v>
-      </c>
-      <c r="E214" t="s">
-        <v>442</v>
       </c>
       <c r="F214">
         <v>11</v>
@@ -7823,7 +7853,7 @@
         <v>No</v>
       </c>
       <c r="H214" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -7831,16 +7861,16 @@
         <v>14</v>
       </c>
       <c r="B215" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C215" t="s">
+        <v>442</v>
+      </c>
+      <c r="D215" t="s">
+        <v>10</v>
+      </c>
+      <c r="E215" t="s">
         <v>443</v>
-      </c>
-      <c r="D215" t="s">
-        <v>10</v>
-      </c>
-      <c r="E215" t="s">
-        <v>444</v>
       </c>
       <c r="F215">
         <v>11</v>
@@ -7850,7 +7880,7 @@
         <v>No</v>
       </c>
       <c r="H215" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -7858,16 +7888,16 @@
         <v>14</v>
       </c>
       <c r="B216" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C216" t="s">
+        <v>444</v>
+      </c>
+      <c r="D216" t="s">
+        <v>10</v>
+      </c>
+      <c r="E216" t="s">
         <v>445</v>
-      </c>
-      <c r="D216" t="s">
-        <v>10</v>
-      </c>
-      <c r="E216" t="s">
-        <v>446</v>
       </c>
       <c r="F216">
         <v>11</v>
@@ -7877,7 +7907,7 @@
         <v>No</v>
       </c>
       <c r="H216" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -7885,16 +7915,16 @@
         <v>14</v>
       </c>
       <c r="B217" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C217" t="s">
+        <v>446</v>
+      </c>
+      <c r="D217" t="s">
+        <v>10</v>
+      </c>
+      <c r="E217" t="s">
         <v>447</v>
-      </c>
-      <c r="D217" t="s">
-        <v>10</v>
-      </c>
-      <c r="E217" t="s">
-        <v>448</v>
       </c>
       <c r="F217">
         <v>11</v>
@@ -7904,7 +7934,7 @@
         <v>No</v>
       </c>
       <c r="H217" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -7912,16 +7942,16 @@
         <v>14</v>
       </c>
       <c r="B218" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C218" t="s">
+        <v>448</v>
+      </c>
+      <c r="D218" t="s">
+        <v>10</v>
+      </c>
+      <c r="E218" t="s">
         <v>449</v>
-      </c>
-      <c r="D218" t="s">
-        <v>10</v>
-      </c>
-      <c r="E218" t="s">
-        <v>450</v>
       </c>
       <c r="F218">
         <v>11</v>
@@ -7931,7 +7961,7 @@
         <v>No</v>
       </c>
       <c r="H218" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -7939,16 +7969,16 @@
         <v>14</v>
       </c>
       <c r="B219" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C219" t="s">
+        <v>450</v>
+      </c>
+      <c r="D219" t="s">
+        <v>10</v>
+      </c>
+      <c r="E219" t="s">
         <v>451</v>
-      </c>
-      <c r="D219" t="s">
-        <v>10</v>
-      </c>
-      <c r="E219" t="s">
-        <v>452</v>
       </c>
       <c r="F219">
         <v>11</v>
@@ -7958,7 +7988,7 @@
         <v>No</v>
       </c>
       <c r="H219" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -7966,16 +7996,16 @@
         <v>14</v>
       </c>
       <c r="B220" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C220" t="s">
+        <v>452</v>
+      </c>
+      <c r="D220" t="s">
+        <v>10</v>
+      </c>
+      <c r="E220" t="s">
         <v>453</v>
-      </c>
-      <c r="D220" t="s">
-        <v>10</v>
-      </c>
-      <c r="E220" t="s">
-        <v>454</v>
       </c>
       <c r="F220">
         <v>11</v>
@@ -7985,7 +8015,7 @@
         <v>No</v>
       </c>
       <c r="H220" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -7993,16 +8023,16 @@
         <v>14</v>
       </c>
       <c r="B221" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C221" t="s">
+        <v>454</v>
+      </c>
+      <c r="D221" t="s">
+        <v>10</v>
+      </c>
+      <c r="E221" t="s">
         <v>455</v>
-      </c>
-      <c r="D221" t="s">
-        <v>10</v>
-      </c>
-      <c r="E221" t="s">
-        <v>456</v>
       </c>
       <c r="F221">
         <v>11</v>
@@ -8012,7 +8042,7 @@
         <v>No</v>
       </c>
       <c r="H221" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -8020,16 +8050,16 @@
         <v>14</v>
       </c>
       <c r="B222" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C222" t="s">
+        <v>456</v>
+      </c>
+      <c r="D222" t="s">
+        <v>10</v>
+      </c>
+      <c r="E222" t="s">
         <v>457</v>
-      </c>
-      <c r="D222" t="s">
-        <v>10</v>
-      </c>
-      <c r="E222" t="s">
-        <v>458</v>
       </c>
       <c r="F222">
         <v>11</v>
@@ -8047,16 +8077,16 @@
         <v>14</v>
       </c>
       <c r="B223" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C223" t="s">
+        <v>458</v>
+      </c>
+      <c r="D223" t="s">
+        <v>10</v>
+      </c>
+      <c r="E223" t="s">
         <v>459</v>
-      </c>
-      <c r="D223" t="s">
-        <v>10</v>
-      </c>
-      <c r="E223" t="s">
-        <v>460</v>
       </c>
       <c r="F223">
         <v>11</v>
@@ -8066,7 +8096,7 @@
         <v>No</v>
       </c>
       <c r="H223" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -8074,16 +8104,16 @@
         <v>14</v>
       </c>
       <c r="B224" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C224" t="s">
+        <v>460</v>
+      </c>
+      <c r="D224" t="s">
+        <v>10</v>
+      </c>
+      <c r="E224" t="s">
         <v>461</v>
-      </c>
-      <c r="D224" t="s">
-        <v>10</v>
-      </c>
-      <c r="E224" t="s">
-        <v>462</v>
       </c>
       <c r="F224">
         <v>11</v>
@@ -8093,7 +8123,7 @@
         <v>No</v>
       </c>
       <c r="H224" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -8101,16 +8131,16 @@
         <v>14</v>
       </c>
       <c r="B225" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C225" t="s">
+        <v>462</v>
+      </c>
+      <c r="D225" t="s">
+        <v>10</v>
+      </c>
+      <c r="E225" t="s">
         <v>463</v>
-      </c>
-      <c r="D225" t="s">
-        <v>10</v>
-      </c>
-      <c r="E225" t="s">
-        <v>464</v>
       </c>
       <c r="F225">
         <v>11</v>
@@ -8120,7 +8150,7 @@
         <v>No</v>
       </c>
       <c r="H225" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -8128,16 +8158,16 @@
         <v>14</v>
       </c>
       <c r="B226" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C226" t="s">
+        <v>464</v>
+      </c>
+      <c r="D226" t="s">
+        <v>10</v>
+      </c>
+      <c r="E226" t="s">
         <v>465</v>
-      </c>
-      <c r="D226" t="s">
-        <v>10</v>
-      </c>
-      <c r="E226" t="s">
-        <v>466</v>
       </c>
       <c r="F226">
         <v>11</v>
@@ -8147,7 +8177,7 @@
         <v>No</v>
       </c>
       <c r="H226" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -8155,16 +8185,16 @@
         <v>14</v>
       </c>
       <c r="B227" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C227" t="s">
+        <v>466</v>
+      </c>
+      <c r="D227" t="s">
+        <v>10</v>
+      </c>
+      <c r="E227" t="s">
         <v>467</v>
-      </c>
-      <c r="D227" t="s">
-        <v>10</v>
-      </c>
-      <c r="E227" t="s">
-        <v>468</v>
       </c>
       <c r="F227">
         <v>11</v>
@@ -8174,7 +8204,7 @@
         <v>No</v>
       </c>
       <c r="H227" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -8182,25 +8212,25 @@
         <v>14</v>
       </c>
       <c r="B228" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C228" t="s">
+        <v>468</v>
+      </c>
+      <c r="D228" t="s">
+        <v>10</v>
+      </c>
+      <c r="E228" t="s">
         <v>469</v>
       </c>
-      <c r="D228" t="s">
-        <v>10</v>
-      </c>
-      <c r="E228" t="s">
-        <v>470</v>
-      </c>
       <c r="F228">
         <v>11</v>
       </c>
       <c r="G228" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H228" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -8208,16 +8238,16 @@
         <v>14</v>
       </c>
       <c r="B229" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C229" t="s">
+        <v>470</v>
+      </c>
+      <c r="D229" t="s">
+        <v>10</v>
+      </c>
+      <c r="E229" t="s">
         <v>471</v>
-      </c>
-      <c r="D229" t="s">
-        <v>10</v>
-      </c>
-      <c r="E229" t="s">
-        <v>472</v>
       </c>
       <c r="F229">
         <v>11</v>
@@ -8227,7 +8257,7 @@
         <v>No</v>
       </c>
       <c r="H229" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -8235,16 +8265,16 @@
         <v>14</v>
       </c>
       <c r="B230" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C230" t="s">
+        <v>472</v>
+      </c>
+      <c r="D230" t="s">
+        <v>10</v>
+      </c>
+      <c r="E230" t="s">
         <v>473</v>
-      </c>
-      <c r="D230" t="s">
-        <v>10</v>
-      </c>
-      <c r="E230" t="s">
-        <v>474</v>
       </c>
       <c r="F230">
         <v>11</v>
@@ -8254,7 +8284,7 @@
         <v>No</v>
       </c>
       <c r="H230" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -8262,25 +8292,25 @@
         <v>14</v>
       </c>
       <c r="B231" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C231" t="s">
+        <v>474</v>
+      </c>
+      <c r="D231" t="s">
+        <v>10</v>
+      </c>
+      <c r="E231" t="s">
         <v>475</v>
       </c>
-      <c r="D231" t="s">
-        <v>10</v>
-      </c>
-      <c r="E231" t="s">
-        <v>476</v>
-      </c>
       <c r="F231">
         <v>11</v>
       </c>
       <c r="G231" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H231" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -8297,7 +8327,7 @@
         <v>10</v>
       </c>
       <c r="E232" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F232">
         <v>11</v>
@@ -8307,7 +8337,7 @@
         <v>No</v>
       </c>
       <c r="H232" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
@@ -8318,22 +8348,22 @@
         <v>68</v>
       </c>
       <c r="C233" t="s">
+        <v>477</v>
+      </c>
+      <c r="D233" t="s">
+        <v>10</v>
+      </c>
+      <c r="E233" t="s">
         <v>478</v>
       </c>
-      <c r="D233" t="s">
-        <v>10</v>
-      </c>
-      <c r="E233" t="s">
-        <v>479</v>
-      </c>
       <c r="F233">
         <v>11</v>
       </c>
       <c r="G233" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H233" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
@@ -8344,13 +8374,13 @@
         <v>6</v>
       </c>
       <c r="C234" t="s">
+        <v>479</v>
+      </c>
+      <c r="D234" t="s">
+        <v>10</v>
+      </c>
+      <c r="E234" t="s">
         <v>480</v>
-      </c>
-      <c r="D234" t="s">
-        <v>10</v>
-      </c>
-      <c r="E234" t="s">
-        <v>481</v>
       </c>
       <c r="F234">
         <v>26</v>
@@ -8360,7 +8390,7 @@
         <v>No</v>
       </c>
       <c r="H234" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
@@ -8371,13 +8401,13 @@
         <v>11</v>
       </c>
       <c r="C235" t="s">
+        <v>481</v>
+      </c>
+      <c r="D235" t="s">
+        <v>277</v>
+      </c>
+      <c r="E235" t="s">
         <v>482</v>
-      </c>
-      <c r="D235" t="s">
-        <v>278</v>
-      </c>
-      <c r="E235" t="s">
-        <v>483</v>
       </c>
       <c r="F235">
         <v>30</v>
@@ -8387,7 +8417,7 @@
         <v>No</v>
       </c>
       <c r="H235" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
@@ -8398,13 +8428,13 @@
         <v>11</v>
       </c>
       <c r="C236" t="s">
+        <v>483</v>
+      </c>
+      <c r="D236" t="s">
+        <v>10</v>
+      </c>
+      <c r="E236" t="s">
         <v>484</v>
-      </c>
-      <c r="D236" t="s">
-        <v>10</v>
-      </c>
-      <c r="E236" t="s">
-        <v>485</v>
       </c>
       <c r="F236">
         <v>11</v>
@@ -8414,7 +8444,7 @@
         <v>No</v>
       </c>
       <c r="H236" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
@@ -8422,16 +8452,16 @@
         <v>14</v>
       </c>
       <c r="B237" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C237" t="s">
+        <v>485</v>
+      </c>
+      <c r="D237" t="s">
+        <v>10</v>
+      </c>
+      <c r="E237" t="s">
         <v>486</v>
-      </c>
-      <c r="D237" t="s">
-        <v>10</v>
-      </c>
-      <c r="E237" t="s">
-        <v>487</v>
       </c>
       <c r="F237">
         <v>11</v>
@@ -8441,7 +8471,7 @@
         <v>No</v>
       </c>
       <c r="H237" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -8449,16 +8479,16 @@
         <v>14</v>
       </c>
       <c r="B238" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C238" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D238" t="s">
         <v>10</v>
       </c>
       <c r="E238" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F238">
         <v>11</v>
@@ -8468,7 +8498,7 @@
         <v>No</v>
       </c>
       <c r="H238" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -8476,16 +8506,16 @@
         <v>14</v>
       </c>
       <c r="B239" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C239" t="s">
+        <v>488</v>
+      </c>
+      <c r="D239" t="s">
+        <v>10</v>
+      </c>
+      <c r="E239" t="s">
         <v>489</v>
-      </c>
-      <c r="D239" t="s">
-        <v>10</v>
-      </c>
-      <c r="E239" t="s">
-        <v>490</v>
       </c>
       <c r="F239">
         <v>11</v>
@@ -8495,7 +8525,7 @@
         <v>No</v>
       </c>
       <c r="H239" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
@@ -8503,23 +8533,22 @@
         <v>5</v>
       </c>
       <c r="B240" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C240" t="s">
+        <v>490</v>
+      </c>
+      <c r="D240" t="s">
         <v>491</v>
       </c>
-      <c r="D240" t="s">
+      <c r="E240" t="s">
         <v>492</v>
-      </c>
-      <c r="E240" t="s">
-        <v>493</v>
       </c>
       <c r="F240">
         <v>36</v>
       </c>
-      <c r="G240" t="str">
-        <f>IFERROR(IF(VLOOKUP(E240,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G240" t="s">
+        <v>559</v>
       </c>
       <c r="H240">
         <v>212</v>
@@ -8536,7 +8565,7 @@
         <v>108</v>
       </c>
       <c r="D241" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E241" t="s">
         <v>109</v>
@@ -8549,7 +8578,7 @@
         <v>No</v>
       </c>
       <c r="H241" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
@@ -8563,7 +8592,7 @@
         <v>110</v>
       </c>
       <c r="D242" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E242" t="s">
         <v>111</v>
@@ -8576,7 +8605,7 @@
         <v>No</v>
       </c>
       <c r="H242" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
@@ -8590,7 +8619,7 @@
         <v>114</v>
       </c>
       <c r="D243" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E243" t="s">
         <v>115</v>
@@ -8603,7 +8632,7 @@
         <v>No</v>
       </c>
       <c r="H243" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
@@ -8617,7 +8646,7 @@
         <v>116</v>
       </c>
       <c r="D244" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E244" t="s">
         <v>117</v>
@@ -8630,7 +8659,7 @@
         <v>No</v>
       </c>
       <c r="H244" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
@@ -8644,7 +8673,7 @@
         <v>118</v>
       </c>
       <c r="D245" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E245" t="s">
         <v>119</v>
@@ -8657,7 +8686,7 @@
         <v>No</v>
       </c>
       <c r="H245" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
@@ -8671,7 +8700,7 @@
         <v>124</v>
       </c>
       <c r="D246" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E246" t="s">
         <v>125</v>
@@ -8684,7 +8713,7 @@
         <v>No</v>
       </c>
       <c r="H246" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
@@ -8695,13 +8724,13 @@
         <v>6</v>
       </c>
       <c r="C247" t="s">
+        <v>127</v>
+      </c>
+      <c r="D247" t="s">
+        <v>277</v>
+      </c>
+      <c r="E247" t="s">
         <v>128</v>
-      </c>
-      <c r="D247" t="s">
-        <v>278</v>
-      </c>
-      <c r="E247" t="s">
-        <v>129</v>
       </c>
       <c r="F247">
         <v>26</v>
@@ -8711,7 +8740,7 @@
         <v>No</v>
       </c>
       <c r="H247" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
@@ -8722,13 +8751,13 @@
         <v>6</v>
       </c>
       <c r="C248" t="s">
+        <v>129</v>
+      </c>
+      <c r="D248" t="s">
+        <v>277</v>
+      </c>
+      <c r="E248" t="s">
         <v>130</v>
-      </c>
-      <c r="D248" t="s">
-        <v>278</v>
-      </c>
-      <c r="E248" t="s">
-        <v>131</v>
       </c>
       <c r="F248">
         <v>26</v>
@@ -8738,7 +8767,7 @@
         <v>No</v>
       </c>
       <c r="H248" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
@@ -8749,13 +8778,13 @@
         <v>6</v>
       </c>
       <c r="C249" t="s">
+        <v>135</v>
+      </c>
+      <c r="D249" t="s">
+        <v>277</v>
+      </c>
+      <c r="E249" t="s">
         <v>136</v>
-      </c>
-      <c r="D249" t="s">
-        <v>278</v>
-      </c>
-      <c r="E249" t="s">
-        <v>137</v>
       </c>
       <c r="F249">
         <v>26</v>
@@ -8765,7 +8794,7 @@
         <v>No</v>
       </c>
       <c r="H249" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
@@ -8776,13 +8805,13 @@
         <v>6</v>
       </c>
       <c r="C250" t="s">
+        <v>143</v>
+      </c>
+      <c r="D250" t="s">
+        <v>277</v>
+      </c>
+      <c r="E250" t="s">
         <v>144</v>
-      </c>
-      <c r="D250" t="s">
-        <v>278</v>
-      </c>
-      <c r="E250" t="s">
-        <v>145</v>
       </c>
       <c r="F250">
         <v>26</v>
@@ -8792,7 +8821,7 @@
         <v>No</v>
       </c>
       <c r="H250" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
@@ -8803,13 +8832,13 @@
         <v>6</v>
       </c>
       <c r="C251" t="s">
+        <v>147</v>
+      </c>
+      <c r="D251" t="s">
+        <v>277</v>
+      </c>
+      <c r="E251" t="s">
         <v>148</v>
-      </c>
-      <c r="D251" t="s">
-        <v>278</v>
-      </c>
-      <c r="E251" t="s">
-        <v>149</v>
       </c>
       <c r="F251">
         <v>26</v>
@@ -8819,7 +8848,7 @@
         <v>No</v>
       </c>
       <c r="H251" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
@@ -8830,13 +8859,13 @@
         <v>6</v>
       </c>
       <c r="C252" t="s">
+        <v>151</v>
+      </c>
+      <c r="D252" t="s">
+        <v>277</v>
+      </c>
+      <c r="E252" t="s">
         <v>152</v>
-      </c>
-      <c r="D252" t="s">
-        <v>278</v>
-      </c>
-      <c r="E252" t="s">
-        <v>153</v>
       </c>
       <c r="F252">
         <v>26</v>
@@ -8846,7 +8875,7 @@
         <v>No</v>
       </c>
       <c r="H252" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
@@ -8857,13 +8886,13 @@
         <v>6</v>
       </c>
       <c r="C253" t="s">
+        <v>155</v>
+      </c>
+      <c r="D253" t="s">
+        <v>277</v>
+      </c>
+      <c r="E253" t="s">
         <v>156</v>
-      </c>
-      <c r="D253" t="s">
-        <v>278</v>
-      </c>
-      <c r="E253" t="s">
-        <v>157</v>
       </c>
       <c r="F253">
         <v>26</v>
@@ -8873,7 +8902,7 @@
         <v>No</v>
       </c>
       <c r="H253" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
@@ -8884,13 +8913,13 @@
         <v>6</v>
       </c>
       <c r="C254" t="s">
+        <v>159</v>
+      </c>
+      <c r="D254" t="s">
+        <v>277</v>
+      </c>
+      <c r="E254" t="s">
         <v>160</v>
-      </c>
-      <c r="D254" t="s">
-        <v>278</v>
-      </c>
-      <c r="E254" t="s">
-        <v>161</v>
       </c>
       <c r="F254">
         <v>26</v>
@@ -8900,7 +8929,7 @@
         <v>No</v>
       </c>
       <c r="H254" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
@@ -8911,13 +8940,13 @@
         <v>6</v>
       </c>
       <c r="C255" t="s">
+        <v>161</v>
+      </c>
+      <c r="D255" t="s">
+        <v>277</v>
+      </c>
+      <c r="E255" t="s">
         <v>162</v>
-      </c>
-      <c r="D255" t="s">
-        <v>278</v>
-      </c>
-      <c r="E255" t="s">
-        <v>163</v>
       </c>
       <c r="F255">
         <v>26</v>
@@ -8927,7 +8956,7 @@
         <v>No</v>
       </c>
       <c r="H255" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
@@ -8938,13 +8967,13 @@
         <v>6</v>
       </c>
       <c r="C256" t="s">
+        <v>163</v>
+      </c>
+      <c r="D256" t="s">
+        <v>277</v>
+      </c>
+      <c r="E256" t="s">
         <v>164</v>
-      </c>
-      <c r="D256" t="s">
-        <v>278</v>
-      </c>
-      <c r="E256" t="s">
-        <v>165</v>
       </c>
       <c r="F256">
         <v>26</v>
@@ -8954,7 +8983,7 @@
         <v>No</v>
       </c>
       <c r="H256" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
@@ -8965,13 +8994,13 @@
         <v>6</v>
       </c>
       <c r="C257" t="s">
+        <v>171</v>
+      </c>
+      <c r="D257" t="s">
+        <v>277</v>
+      </c>
+      <c r="E257" t="s">
         <v>172</v>
-      </c>
-      <c r="D257" t="s">
-        <v>278</v>
-      </c>
-      <c r="E257" t="s">
-        <v>173</v>
       </c>
       <c r="F257">
         <v>26</v>
@@ -8981,7 +9010,7 @@
         <v>No</v>
       </c>
       <c r="H257" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
@@ -8992,13 +9021,13 @@
         <v>6</v>
       </c>
       <c r="C258" t="s">
+        <v>173</v>
+      </c>
+      <c r="D258" t="s">
+        <v>277</v>
+      </c>
+      <c r="E258" t="s">
         <v>174</v>
-      </c>
-      <c r="D258" t="s">
-        <v>278</v>
-      </c>
-      <c r="E258" t="s">
-        <v>175</v>
       </c>
       <c r="F258">
         <v>26</v>
@@ -9008,7 +9037,7 @@
         <v>No</v>
       </c>
       <c r="H258" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
@@ -9019,13 +9048,13 @@
         <v>6</v>
       </c>
       <c r="C259" t="s">
+        <v>175</v>
+      </c>
+      <c r="D259" t="s">
+        <v>277</v>
+      </c>
+      <c r="E259" t="s">
         <v>176</v>
-      </c>
-      <c r="D259" t="s">
-        <v>278</v>
-      </c>
-      <c r="E259" t="s">
-        <v>177</v>
       </c>
       <c r="F259">
         <v>26</v>
@@ -9035,7 +9064,7 @@
         <v>No</v>
       </c>
       <c r="H259" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
@@ -9046,13 +9075,13 @@
         <v>6</v>
       </c>
       <c r="C260" t="s">
+        <v>179</v>
+      </c>
+      <c r="D260" t="s">
+        <v>277</v>
+      </c>
+      <c r="E260" t="s">
         <v>180</v>
-      </c>
-      <c r="D260" t="s">
-        <v>278</v>
-      </c>
-      <c r="E260" t="s">
-        <v>181</v>
       </c>
       <c r="F260">
         <v>26</v>
@@ -9062,7 +9091,7 @@
         <v>No</v>
       </c>
       <c r="H260" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
@@ -9073,13 +9102,13 @@
         <v>6</v>
       </c>
       <c r="C261" t="s">
+        <v>181</v>
+      </c>
+      <c r="D261" t="s">
+        <v>277</v>
+      </c>
+      <c r="E261" t="s">
         <v>182</v>
-      </c>
-      <c r="D261" t="s">
-        <v>278</v>
-      </c>
-      <c r="E261" t="s">
-        <v>183</v>
       </c>
       <c r="F261">
         <v>26</v>
@@ -9089,7 +9118,7 @@
         <v>No</v>
       </c>
       <c r="H261" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
@@ -9100,13 +9129,13 @@
         <v>6</v>
       </c>
       <c r="C262" t="s">
+        <v>187</v>
+      </c>
+      <c r="D262" t="s">
+        <v>277</v>
+      </c>
+      <c r="E262" t="s">
         <v>188</v>
-      </c>
-      <c r="D262" t="s">
-        <v>278</v>
-      </c>
-      <c r="E262" t="s">
-        <v>189</v>
       </c>
       <c r="F262">
         <v>26</v>
@@ -9116,7 +9145,7 @@
         <v>No</v>
       </c>
       <c r="H262" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
@@ -9127,13 +9156,13 @@
         <v>6</v>
       </c>
       <c r="C263" t="s">
+        <v>479</v>
+      </c>
+      <c r="D263" t="s">
+        <v>277</v>
+      </c>
+      <c r="E263" t="s">
         <v>480</v>
-      </c>
-      <c r="D263" t="s">
-        <v>278</v>
-      </c>
-      <c r="E263" t="s">
-        <v>481</v>
       </c>
       <c r="F263">
         <v>26</v>
@@ -9143,7 +9172,7 @@
         <v>No</v>
       </c>
       <c r="H263" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
@@ -9151,16 +9180,16 @@
         <v>5</v>
       </c>
       <c r="B264" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C264" t="s">
+        <v>493</v>
+      </c>
+      <c r="D264" t="s">
         <v>494</v>
       </c>
-      <c r="D264" t="s">
+      <c r="E264" t="s">
         <v>495</v>
-      </c>
-      <c r="E264" t="s">
-        <v>496</v>
       </c>
       <c r="F264">
         <v>37</v>
@@ -9178,16 +9207,16 @@
         <v>5</v>
       </c>
       <c r="B265" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C265" t="s">
+        <v>496</v>
+      </c>
+      <c r="D265" t="s">
         <v>497</v>
       </c>
-      <c r="D265" t="s">
+      <c r="E265" t="s">
         <v>498</v>
-      </c>
-      <c r="E265" t="s">
-        <v>499</v>
       </c>
       <c r="F265">
         <v>10</v>
@@ -9197,7 +9226,7 @@
         <v>No</v>
       </c>
       <c r="H265" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
@@ -9205,16 +9234,16 @@
         <v>5</v>
       </c>
       <c r="B266" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C266" t="s">
+        <v>499</v>
+      </c>
+      <c r="D266" t="s">
         <v>500</v>
       </c>
-      <c r="D266" t="s">
+      <c r="E266" t="s">
         <v>501</v>
-      </c>
-      <c r="E266" t="s">
-        <v>502</v>
       </c>
       <c r="F266">
         <v>16</v>
@@ -9232,16 +9261,16 @@
         <v>5</v>
       </c>
       <c r="B267" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C267" t="s">
+        <v>502</v>
+      </c>
+      <c r="D267" t="s">
         <v>503</v>
       </c>
-      <c r="D267" t="s">
+      <c r="E267" t="s">
         <v>504</v>
-      </c>
-      <c r="E267" t="s">
-        <v>505</v>
       </c>
       <c r="F267">
         <v>23</v>
@@ -9265,7 +9294,7 @@
         <v>120</v>
       </c>
       <c r="D268" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E268" t="s">
         <v>121</v>
@@ -9278,7 +9307,7 @@
         <v>No</v>
       </c>
       <c r="H268" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
@@ -9292,7 +9321,7 @@
         <v>122</v>
       </c>
       <c r="D269" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E269" t="s">
         <v>123</v>
@@ -9305,7 +9334,7 @@
         <v>No</v>
       </c>
       <c r="H269" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
@@ -9316,13 +9345,13 @@
         <v>6</v>
       </c>
       <c r="C270" t="s">
+        <v>139</v>
+      </c>
+      <c r="D270" t="s">
+        <v>277</v>
+      </c>
+      <c r="E270" t="s">
         <v>140</v>
-      </c>
-      <c r="D270" t="s">
-        <v>278</v>
-      </c>
-      <c r="E270" t="s">
-        <v>141</v>
       </c>
       <c r="F270">
         <v>26</v>
@@ -9332,7 +9361,7 @@
         <v>No</v>
       </c>
       <c r="H270" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
@@ -9343,13 +9372,13 @@
         <v>6</v>
       </c>
       <c r="C271" t="s">
+        <v>183</v>
+      </c>
+      <c r="D271" t="s">
+        <v>277</v>
+      </c>
+      <c r="E271" t="s">
         <v>184</v>
-      </c>
-      <c r="D271" t="s">
-        <v>278</v>
-      </c>
-      <c r="E271" t="s">
-        <v>185</v>
       </c>
       <c r="F271">
         <v>26</v>
@@ -9359,7 +9388,7 @@
         <v>No</v>
       </c>
       <c r="H271" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
@@ -9370,13 +9399,13 @@
         <v>6</v>
       </c>
       <c r="C272" t="s">
+        <v>191</v>
+      </c>
+      <c r="D272" t="s">
+        <v>277</v>
+      </c>
+      <c r="E272" t="s">
         <v>192</v>
-      </c>
-      <c r="D272" t="s">
-        <v>278</v>
-      </c>
-      <c r="E272" t="s">
-        <v>193</v>
       </c>
       <c r="F272">
         <v>26</v>
@@ -9386,7 +9415,7 @@
         <v>No</v>
       </c>
       <c r="H272" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
@@ -9397,13 +9426,13 @@
         <v>11</v>
       </c>
       <c r="C273" t="s">
+        <v>505</v>
+      </c>
+      <c r="D273" t="s">
         <v>506</v>
       </c>
-      <c r="D273" t="s">
+      <c r="E273" t="s">
         <v>507</v>
-      </c>
-      <c r="E273" t="s">
-        <v>508</v>
       </c>
       <c r="F273">
         <v>35</v>
@@ -9413,7 +9442,7 @@
         <v>No</v>
       </c>
       <c r="H273" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
@@ -9424,13 +9453,13 @@
         <v>6</v>
       </c>
       <c r="C274" t="s">
+        <v>508</v>
+      </c>
+      <c r="D274" t="s">
+        <v>10</v>
+      </c>
+      <c r="E274" t="s">
         <v>509</v>
-      </c>
-      <c r="D274" t="s">
-        <v>10</v>
-      </c>
-      <c r="E274" t="s">
-        <v>510</v>
       </c>
       <c r="F274">
         <v>11</v>
@@ -9451,13 +9480,13 @@
         <v>6</v>
       </c>
       <c r="C275" t="s">
+        <v>510</v>
+      </c>
+      <c r="D275" t="s">
+        <v>10</v>
+      </c>
+      <c r="E275" t="s">
         <v>511</v>
-      </c>
-      <c r="D275" t="s">
-        <v>10</v>
-      </c>
-      <c r="E275" t="s">
-        <v>512</v>
       </c>
       <c r="F275">
         <v>11</v>
@@ -9467,7 +9496,7 @@
         <v>No</v>
       </c>
       <c r="H275" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
@@ -9478,13 +9507,13 @@
         <v>6</v>
       </c>
       <c r="C276" t="s">
+        <v>512</v>
+      </c>
+      <c r="D276" t="s">
+        <v>10</v>
+      </c>
+      <c r="E276" t="s">
         <v>513</v>
-      </c>
-      <c r="D276" t="s">
-        <v>10</v>
-      </c>
-      <c r="E276" t="s">
-        <v>514</v>
       </c>
       <c r="F276">
         <v>11</v>
@@ -9494,7 +9523,7 @@
         <v>No</v>
       </c>
       <c r="H276" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
@@ -9502,25 +9531,25 @@
         <v>14</v>
       </c>
       <c r="B277" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C277" t="s">
+        <v>514</v>
+      </c>
+      <c r="D277" t="s">
+        <v>10</v>
+      </c>
+      <c r="E277" t="s">
         <v>515</v>
       </c>
-      <c r="D277" t="s">
-        <v>10</v>
-      </c>
-      <c r="E277" t="s">
-        <v>516</v>
-      </c>
       <c r="F277">
         <v>11</v>
       </c>
       <c r="G277" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H277" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
@@ -9528,16 +9557,16 @@
         <v>5</v>
       </c>
       <c r="B278" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C278" t="s">
+        <v>516</v>
+      </c>
+      <c r="D278" t="s">
         <v>517</v>
       </c>
-      <c r="D278" t="s">
+      <c r="E278" t="s">
         <v>518</v>
-      </c>
-      <c r="E278" t="s">
-        <v>519</v>
       </c>
       <c r="F278">
         <v>12</v>
@@ -9547,7 +9576,7 @@
         <v>No</v>
       </c>
       <c r="H278" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
@@ -9558,13 +9587,13 @@
         <v>11</v>
       </c>
       <c r="C279" t="s">
+        <v>519</v>
+      </c>
+      <c r="D279" t="s">
+        <v>10</v>
+      </c>
+      <c r="E279" t="s">
         <v>520</v>
-      </c>
-      <c r="D279" t="s">
-        <v>10</v>
-      </c>
-      <c r="E279" t="s">
-        <v>521</v>
       </c>
       <c r="F279">
         <v>11</v>
@@ -9574,7 +9603,7 @@
         <v>No</v>
       </c>
       <c r="H279" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
@@ -9582,16 +9611,16 @@
         <v>14</v>
       </c>
       <c r="B280" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C280" t="s">
+        <v>521</v>
+      </c>
+      <c r="D280" t="s">
+        <v>10</v>
+      </c>
+      <c r="E280" t="s">
         <v>522</v>
-      </c>
-      <c r="D280" t="s">
-        <v>10</v>
-      </c>
-      <c r="E280" t="s">
-        <v>523</v>
       </c>
       <c r="F280">
         <v>11</v>
@@ -9601,7 +9630,7 @@
         <v>No</v>
       </c>
       <c r="H280" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
@@ -9609,16 +9638,16 @@
         <v>5</v>
       </c>
       <c r="B281" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C281" t="s">
+        <v>523</v>
+      </c>
+      <c r="D281" t="s">
         <v>524</v>
       </c>
-      <c r="D281" t="s">
+      <c r="E281" t="s">
         <v>525</v>
-      </c>
-      <c r="E281" t="s">
-        <v>526</v>
       </c>
       <c r="F281">
         <v>33</v>
@@ -9628,7 +9657,7 @@
         <v>No</v>
       </c>
       <c r="H281" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
@@ -9636,16 +9665,16 @@
         <v>5</v>
       </c>
       <c r="B282" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C282" t="s">
+        <v>526</v>
+      </c>
+      <c r="D282" t="s">
         <v>527</v>
       </c>
-      <c r="D282" t="s">
+      <c r="E282" t="s">
         <v>528</v>
-      </c>
-      <c r="E282" t="s">
-        <v>529</v>
       </c>
       <c r="F282">
         <v>24</v>
@@ -9655,7 +9684,7 @@
         <v>No</v>
       </c>
       <c r="H282" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
@@ -9663,16 +9692,16 @@
         <v>14</v>
       </c>
       <c r="B283" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C283" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D283" t="s">
         <v>10</v>
       </c>
       <c r="E283" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F283">
         <v>11</v>
@@ -9682,7 +9711,7 @@
         <v>No</v>
       </c>
       <c r="H283" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
@@ -9690,16 +9719,16 @@
         <v>14</v>
       </c>
       <c r="B284" t="s">
+        <v>530</v>
+      </c>
+      <c r="C284" t="s">
         <v>531</v>
       </c>
-      <c r="C284" t="s">
+      <c r="D284" t="s">
+        <v>10</v>
+      </c>
+      <c r="E284" t="s">
         <v>532</v>
-      </c>
-      <c r="D284" t="s">
-        <v>10</v>
-      </c>
-      <c r="E284" t="s">
-        <v>533</v>
       </c>
       <c r="F284">
         <v>11</v>
@@ -9709,7 +9738,7 @@
         <v>No</v>
       </c>
       <c r="H284" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
@@ -9720,13 +9749,13 @@
         <v>6</v>
       </c>
       <c r="C285" t="s">
+        <v>533</v>
+      </c>
+      <c r="D285" t="s">
+        <v>10</v>
+      </c>
+      <c r="E285" t="s">
         <v>534</v>
-      </c>
-      <c r="D285" t="s">
-        <v>10</v>
-      </c>
-      <c r="E285" t="s">
-        <v>535</v>
       </c>
       <c r="F285">
         <v>11</v>
@@ -9736,7 +9765,7 @@
         <v>No</v>
       </c>
       <c r="H285" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
@@ -9747,13 +9776,13 @@
         <v>6</v>
       </c>
       <c r="C286" t="s">
+        <v>535</v>
+      </c>
+      <c r="D286" t="s">
+        <v>10</v>
+      </c>
+      <c r="E286" t="s">
         <v>536</v>
-      </c>
-      <c r="D286" t="s">
-        <v>10</v>
-      </c>
-      <c r="E286" t="s">
-        <v>537</v>
       </c>
       <c r="F286">
         <v>11</v>
@@ -9763,7 +9792,7 @@
         <v>No</v>
       </c>
       <c r="H286" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
@@ -9771,16 +9800,16 @@
         <v>14</v>
       </c>
       <c r="B287" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C287" t="s">
+        <v>537</v>
+      </c>
+      <c r="D287" t="s">
+        <v>10</v>
+      </c>
+      <c r="E287" t="s">
         <v>538</v>
-      </c>
-      <c r="D287" t="s">
-        <v>10</v>
-      </c>
-      <c r="E287" t="s">
-        <v>539</v>
       </c>
       <c r="F287">
         <v>11</v>
@@ -9790,7 +9819,7 @@
         <v>No</v>
       </c>
       <c r="H287" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
@@ -9798,16 +9827,16 @@
         <v>14</v>
       </c>
       <c r="B288" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C288" t="s">
+        <v>539</v>
+      </c>
+      <c r="D288" t="s">
+        <v>10</v>
+      </c>
+      <c r="E288" t="s">
         <v>540</v>
-      </c>
-      <c r="D288" t="s">
-        <v>10</v>
-      </c>
-      <c r="E288" t="s">
-        <v>541</v>
       </c>
       <c r="F288">
         <v>11</v>
@@ -9817,7 +9846,7 @@
         <v>No</v>
       </c>
       <c r="H288" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
@@ -9828,13 +9857,13 @@
         <v>91</v>
       </c>
       <c r="C289" t="s">
+        <v>541</v>
+      </c>
+      <c r="D289" t="s">
+        <v>10</v>
+      </c>
+      <c r="E289" t="s">
         <v>542</v>
-      </c>
-      <c r="D289" t="s">
-        <v>10</v>
-      </c>
-      <c r="E289" t="s">
-        <v>543</v>
       </c>
       <c r="F289">
         <v>11</v>
@@ -9844,7 +9873,7 @@
         <v>No</v>
       </c>
       <c r="H289" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
@@ -9855,13 +9884,13 @@
         <v>91</v>
       </c>
       <c r="C290" t="s">
+        <v>543</v>
+      </c>
+      <c r="D290" t="s">
+        <v>10</v>
+      </c>
+      <c r="E290" t="s">
         <v>544</v>
-      </c>
-      <c r="D290" t="s">
-        <v>10</v>
-      </c>
-      <c r="E290" t="s">
-        <v>545</v>
       </c>
       <c r="F290">
         <v>11</v>
@@ -9871,7 +9900,7 @@
         <v>No</v>
       </c>
       <c r="H290" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
@@ -9879,16 +9908,16 @@
         <v>14</v>
       </c>
       <c r="B291" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C291" t="s">
+        <v>545</v>
+      </c>
+      <c r="D291" t="s">
+        <v>10</v>
+      </c>
+      <c r="E291" t="s">
         <v>546</v>
-      </c>
-      <c r="D291" t="s">
-        <v>10</v>
-      </c>
-      <c r="E291" t="s">
-        <v>547</v>
       </c>
       <c r="F291">
         <v>11</v>
@@ -9898,7 +9927,7 @@
         <v>No</v>
       </c>
       <c r="H291" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
@@ -9906,16 +9935,16 @@
         <v>14</v>
       </c>
       <c r="B292" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C292" t="s">
+        <v>547</v>
+      </c>
+      <c r="D292" t="s">
+        <v>10</v>
+      </c>
+      <c r="E292" t="s">
         <v>548</v>
-      </c>
-      <c r="D292" t="s">
-        <v>10</v>
-      </c>
-      <c r="E292" t="s">
-        <v>549</v>
       </c>
       <c r="F292">
         <v>11</v>
@@ -9925,7 +9954,7 @@
         <v>No</v>
       </c>
       <c r="H292" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
@@ -9933,16 +9962,16 @@
         <v>5</v>
       </c>
       <c r="B293" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C293" t="s">
+        <v>549</v>
+      </c>
+      <c r="D293" t="s">
         <v>550</v>
       </c>
-      <c r="D293" t="s">
+      <c r="E293" t="s">
         <v>551</v>
-      </c>
-      <c r="E293" t="s">
-        <v>552</v>
       </c>
       <c r="F293">
         <v>27</v>
@@ -9952,7 +9981,7 @@
         <v>No</v>
       </c>
       <c r="H293" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
@@ -9960,16 +9989,16 @@
         <v>5</v>
       </c>
       <c r="B294" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C294" t="s">
+        <v>552</v>
+      </c>
+      <c r="D294" t="s">
         <v>553</v>
       </c>
-      <c r="D294" t="s">
+      <c r="E294" t="s">
         <v>554</v>
-      </c>
-      <c r="E294" t="s">
-        <v>555</v>
       </c>
       <c r="F294">
         <v>32</v>
@@ -9979,7 +10008,7 @@
         <v>No</v>
       </c>
       <c r="H294" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
@@ -9987,25 +10016,103 @@
         <v>14</v>
       </c>
       <c r="B295" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D295" t="s">
         <v>10</v>
       </c>
       <c r="E295" t="s">
+        <v>558</v>
+      </c>
+      <c r="F295">
+        <v>11</v>
+      </c>
+      <c r="G295" t="s">
         <v>559</v>
       </c>
-      <c r="F295">
-        <v>11</v>
-      </c>
-      <c r="G295" t="s">
-        <v>560</v>
-      </c>
       <c r="H295" t="s">
-        <v>562</v>
+        <v>561</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>5</v>
+      </c>
+      <c r="B296" t="s">
+        <v>572</v>
+      </c>
+      <c r="C296" t="s">
+        <v>566</v>
+      </c>
+      <c r="D296" t="s">
+        <v>569</v>
+      </c>
+      <c r="E296" t="s">
+        <v>564</v>
+      </c>
+      <c r="F296">
+        <v>11</v>
+      </c>
+      <c r="G296" t="s">
+        <v>559</v>
+      </c>
+      <c r="H296">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>5</v>
+      </c>
+      <c r="B297" t="s">
+        <v>572</v>
+      </c>
+      <c r="C297" t="s">
+        <v>568</v>
+      </c>
+      <c r="D297" t="s">
+        <v>571</v>
+      </c>
+      <c r="E297" t="s">
+        <v>563</v>
+      </c>
+      <c r="F297">
+        <v>11</v>
+      </c>
+      <c r="G297" t="s">
+        <v>559</v>
+      </c>
+      <c r="H297">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>5</v>
+      </c>
+      <c r="B298" t="s">
+        <v>572</v>
+      </c>
+      <c r="C298" t="s">
+        <v>567</v>
+      </c>
+      <c r="D298" t="s">
+        <v>570</v>
+      </c>
+      <c r="E298" t="s">
+        <v>565</v>
+      </c>
+      <c r="F298">
+        <v>11</v>
+      </c>
+      <c r="G298" t="s">
+        <v>559</v>
+      </c>
+      <c r="H298">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/public/CountryData.xlsx
+++ b/public/CountryData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\source\countrysearch\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jittakorn.s\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60720D64-E89B-4EF4-80D1-65799F3EE12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8209455-6906-45DB-9970-3A8D0084D686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="575">
   <si>
     <t>Plan</t>
   </si>
@@ -1758,6 +1758,9 @@
   </si>
   <si>
     <t>North Cyprus</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -2095,8 +2098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2153,9 +2156,8 @@
       <c r="F2">
         <v>34</v>
       </c>
-      <c r="G2" t="str">
-        <f>IFERROR(IF(VLOOKUP(E2,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G2" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="H2">
         <v>90</v>
@@ -2180,9 +2182,8 @@
       <c r="F3">
         <v>34</v>
       </c>
-      <c r="G3" t="str">
-        <f>IFERROR(IF(VLOOKUP(E3,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G3" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="H3">
         <v>90</v>
@@ -2207,9 +2208,8 @@
       <c r="F4">
         <v>25</v>
       </c>
-      <c r="G4" t="str">
-        <f>IFERROR(IF(VLOOKUP(E4,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G4" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H4">
         <v>250</v>
@@ -2234,9 +2234,8 @@
       <c r="F5">
         <v>11</v>
       </c>
-      <c r="G5" t="str">
-        <f>IFERROR(IF(VLOOKUP(E5,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G5" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H5">
         <v>684</v>
@@ -2261,9 +2260,8 @@
       <c r="F6">
         <v>11</v>
       </c>
-      <c r="G6" t="str">
-        <f>IFERROR(IF(VLOOKUP(E6,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G6" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H6">
         <v>61</v>
@@ -2288,9 +2286,8 @@
       <c r="F7">
         <v>11</v>
       </c>
-      <c r="G7" t="str">
-        <f>IFERROR(IF(VLOOKUP(E7,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G7" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H7">
         <v>672</v>
@@ -2315,9 +2312,8 @@
       <c r="F8">
         <v>11</v>
       </c>
-      <c r="G8" t="str">
-        <f>IFERROR(IF(VLOOKUP(E8,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G8" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H8">
         <v>61</v>
@@ -2342,9 +2338,8 @@
       <c r="F9">
         <v>11</v>
       </c>
-      <c r="G9" t="str">
-        <f>IFERROR(IF(VLOOKUP(E9,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G9" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H9">
         <v>682</v>
@@ -2369,9 +2364,8 @@
       <c r="F10">
         <v>11</v>
       </c>
-      <c r="G10" t="str">
-        <f>IFERROR(IF(VLOOKUP(E10,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G10" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H10">
         <v>679</v>
@@ -2396,9 +2390,8 @@
       <c r="F11">
         <v>11</v>
       </c>
-      <c r="G11" t="str">
-        <f>IFERROR(IF(VLOOKUP(E11,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G11" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H11" t="s">
         <v>561</v>
@@ -2423,9 +2416,8 @@
       <c r="F12">
         <v>11</v>
       </c>
-      <c r="G12" t="str">
-        <f>IFERROR(IF(VLOOKUP(E12,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G12" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H12">
         <v>686</v>
@@ -2450,9 +2442,8 @@
       <c r="F13">
         <v>11</v>
       </c>
-      <c r="G13" t="str">
-        <f>IFERROR(IF(VLOOKUP(E13,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G13" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H13">
         <v>692</v>
@@ -2477,9 +2468,8 @@
       <c r="F14">
         <v>11</v>
       </c>
-      <c r="G14" t="str">
-        <f>IFERROR(IF(VLOOKUP(E14,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G14" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H14">
         <v>691</v>
@@ -2504,9 +2494,8 @@
       <c r="F15">
         <v>11</v>
       </c>
-      <c r="G15" t="str">
-        <f>IFERROR(IF(VLOOKUP(E15,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G15" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H15">
         <v>674</v>
@@ -2531,9 +2520,8 @@
       <c r="F16">
         <v>11</v>
       </c>
-      <c r="G16" t="str">
-        <f>IFERROR(IF(VLOOKUP(E16,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G16" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H16">
         <v>687</v>
@@ -2558,9 +2546,8 @@
       <c r="F17">
         <v>11</v>
       </c>
-      <c r="G17" t="str">
-        <f>IFERROR(IF(VLOOKUP(E17,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G17" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H17">
         <v>64</v>
@@ -2585,9 +2572,8 @@
       <c r="F18">
         <v>11</v>
       </c>
-      <c r="G18" t="str">
-        <f>IFERROR(IF(VLOOKUP(E18,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G18" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H18">
         <v>683</v>
@@ -2612,9 +2598,8 @@
       <c r="F19">
         <v>11</v>
       </c>
-      <c r="G19" t="str">
-        <f>IFERROR(IF(VLOOKUP(E19,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G19" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H19">
         <v>672</v>
@@ -2639,9 +2624,8 @@
       <c r="F20">
         <v>11</v>
       </c>
-      <c r="G20" t="str">
-        <f>IFERROR(IF(VLOOKUP(E20,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G20" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H20">
         <v>670</v>
@@ -2666,9 +2650,8 @@
       <c r="F21">
         <v>11</v>
       </c>
-      <c r="G21" t="str">
-        <f>IFERROR(IF(VLOOKUP(E21,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G21" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H21">
         <v>680</v>
@@ -2693,9 +2676,8 @@
       <c r="F22">
         <v>11</v>
       </c>
-      <c r="G22" t="str">
-        <f>IFERROR(IF(VLOOKUP(E22,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G22" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H22">
         <v>675</v>
@@ -2720,9 +2702,8 @@
       <c r="F23">
         <v>11</v>
       </c>
-      <c r="G23" t="str">
-        <f>IFERROR(IF(VLOOKUP(E23,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G23" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H23">
         <v>685</v>
@@ -2747,9 +2728,8 @@
       <c r="F24">
         <v>11</v>
       </c>
-      <c r="G24" t="str">
-        <f>IFERROR(IF(VLOOKUP(E24,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G24" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H24">
         <v>677</v>
@@ -2774,9 +2754,8 @@
       <c r="F25">
         <v>11</v>
       </c>
-      <c r="G25" t="str">
-        <f>IFERROR(IF(VLOOKUP(E25,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G25" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H25">
         <v>690</v>
@@ -2801,9 +2780,8 @@
       <c r="F26">
         <v>11</v>
       </c>
-      <c r="G26" t="str">
-        <f>IFERROR(IF(VLOOKUP(E26,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G26" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H26">
         <v>676</v>
@@ -2828,9 +2806,8 @@
       <c r="F27">
         <v>11</v>
       </c>
-      <c r="G27" t="str">
-        <f>IFERROR(IF(VLOOKUP(E27,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G27" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H27">
         <v>688</v>
@@ -2855,9 +2832,8 @@
       <c r="F28">
         <v>11</v>
       </c>
-      <c r="G28" t="str">
-        <f>IFERROR(IF(VLOOKUP(E28,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G28" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -2882,9 +2858,8 @@
       <c r="F29">
         <v>11</v>
       </c>
-      <c r="G29" t="str">
-        <f>IFERROR(IF(VLOOKUP(E29,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G29" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H29">
         <v>678</v>
@@ -2909,9 +2884,8 @@
       <c r="F30">
         <v>11</v>
       </c>
-      <c r="G30" t="str">
-        <f>IFERROR(IF(VLOOKUP(E30,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G30" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H30">
         <v>681</v>
@@ -2936,8 +2910,8 @@
       <c r="F31">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>559</v>
+      <c r="G31" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H31" t="s">
         <v>561</v>
@@ -2962,9 +2936,8 @@
       <c r="F32">
         <v>11</v>
       </c>
-      <c r="G32" t="str">
-        <f>IFERROR(IF(VLOOKUP(E32,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G32" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H32">
         <v>375</v>
@@ -2989,9 +2962,8 @@
       <c r="F33">
         <v>11</v>
       </c>
-      <c r="G33" t="str">
-        <f>IFERROR(IF(VLOOKUP(E33,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G33" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H33">
         <v>7</v>
@@ -3016,8 +2988,8 @@
       <c r="F34">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>559</v>
+      <c r="G34" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H34">
         <v>996</v>
@@ -3042,8 +3014,8 @@
       <c r="F35">
         <v>22</v>
       </c>
-      <c r="G35" t="s">
-        <v>559</v>
+      <c r="G35" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H35">
         <v>7</v>
@@ -3068,8 +3040,8 @@
       <c r="F36">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>559</v>
+      <c r="G36" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H36" t="s">
         <v>561</v>
@@ -3094,8 +3066,8 @@
       <c r="F37">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>559</v>
+      <c r="G37" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H37">
         <v>995</v>
@@ -3120,8 +3092,8 @@
       <c r="F38">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>559</v>
+      <c r="G38" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H38">
         <v>992</v>
@@ -3146,9 +3118,8 @@
       <c r="F39">
         <v>11</v>
       </c>
-      <c r="G39" t="str">
-        <f>IFERROR(IF(VLOOKUP(E39,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G39" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H39">
         <v>993</v>
@@ -3173,9 +3144,8 @@
       <c r="F40">
         <v>11</v>
       </c>
-      <c r="G40" t="str">
-        <f>IFERROR(IF(VLOOKUP(E40,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G40" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H40">
         <v>380</v>
@@ -3200,9 +3170,8 @@
       <c r="F41">
         <v>11</v>
       </c>
-      <c r="G41" t="str">
-        <f>IFERROR(IF(VLOOKUP(E41,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G41" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H41">
         <v>998</v>
@@ -3227,9 +3196,8 @@
       <c r="F42">
         <v>11</v>
       </c>
-      <c r="G42" t="str">
-        <f>IFERROR(IF(VLOOKUP(E42,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G42" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H42">
         <v>852</v>
@@ -3254,9 +3222,8 @@
       <c r="F43">
         <v>11</v>
       </c>
-      <c r="G43" t="str">
-        <f>IFERROR(IF(VLOOKUP(E43,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G43" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H43">
         <v>81</v>
@@ -3281,9 +3248,8 @@
       <c r="F44">
         <v>11</v>
       </c>
-      <c r="G44" t="str">
-        <f>IFERROR(IF(VLOOKUP(E44,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G44" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H44">
         <v>82</v>
@@ -3308,9 +3274,8 @@
       <c r="F45">
         <v>11</v>
       </c>
-      <c r="G45" t="str">
-        <f>IFERROR(IF(VLOOKUP(E45,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G45" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H45">
         <v>853</v>
@@ -3335,9 +3300,8 @@
       <c r="F46">
         <v>11</v>
       </c>
-      <c r="G46" t="str">
-        <f>IFERROR(IF(VLOOKUP(E46,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G46" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H46">
         <v>976</v>
@@ -3362,9 +3326,8 @@
       <c r="F47">
         <v>11</v>
       </c>
-      <c r="G47" t="str">
-        <f>IFERROR(IF(VLOOKUP(E47,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G47" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H47">
         <v>886</v>
@@ -3389,9 +3352,8 @@
       <c r="F48">
         <v>11</v>
       </c>
-      <c r="G48" t="str">
-        <f>IFERROR(IF(VLOOKUP(E48,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G48" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H48" t="s">
         <v>561</v>
@@ -3416,9 +3378,8 @@
       <c r="F49">
         <v>11</v>
       </c>
-      <c r="G49" t="str">
-        <f>IFERROR(IF(VLOOKUP(E49,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G49" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H49" t="s">
         <v>561</v>
@@ -3443,9 +3404,8 @@
       <c r="F50">
         <v>26</v>
       </c>
-      <c r="G50" t="str">
-        <f>IFERROR(IF(VLOOKUP(E50,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G50" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H50" t="s">
         <v>561</v>
@@ -3470,9 +3430,8 @@
       <c r="F51">
         <v>26</v>
       </c>
-      <c r="G51" t="str">
-        <f>IFERROR(IF(VLOOKUP(E51,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G51" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H51" t="s">
         <v>561</v>
@@ -3497,9 +3456,8 @@
       <c r="F52">
         <v>11</v>
       </c>
-      <c r="G52" t="str">
-        <f>IFERROR(IF(VLOOKUP(E52,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G52" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H52" t="s">
         <v>561</v>
@@ -3524,9 +3482,8 @@
       <c r="F53">
         <v>26</v>
       </c>
-      <c r="G53" t="str">
-        <f>IFERROR(IF(VLOOKUP(E53,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G53" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H53" t="s">
         <v>561</v>
@@ -3551,9 +3508,8 @@
       <c r="F54">
         <v>26</v>
       </c>
-      <c r="G54" t="str">
-        <f>IFERROR(IF(VLOOKUP(E54,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G54" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H54">
         <v>385</v>
@@ -3578,9 +3534,8 @@
       <c r="F55">
         <v>26</v>
       </c>
-      <c r="G55" t="str">
-        <f>IFERROR(IF(VLOOKUP(E55,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G55" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H55" t="s">
         <v>561</v>
@@ -3605,9 +3560,8 @@
       <c r="F56">
         <v>26</v>
       </c>
-      <c r="G56" t="str">
-        <f>IFERROR(IF(VLOOKUP(E56,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G56" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H56" t="s">
         <v>561</v>
@@ -3632,9 +3586,8 @@
       <c r="F57">
         <v>26</v>
       </c>
-      <c r="G57" t="str">
-        <f>IFERROR(IF(VLOOKUP(E57,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G57" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H57" t="s">
         <v>561</v>
@@ -3659,9 +3612,8 @@
       <c r="F58">
         <v>26</v>
       </c>
-      <c r="G58" t="str">
-        <f>IFERROR(IF(VLOOKUP(E58,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G58" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H58">
         <v>372</v>
@@ -3686,9 +3638,8 @@
       <c r="F59">
         <v>11</v>
       </c>
-      <c r="G59" t="str">
-        <f>IFERROR(IF(VLOOKUP(E59,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G59" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H59">
         <v>90</v>
@@ -3713,9 +3664,8 @@
       <c r="F60">
         <v>26</v>
       </c>
-      <c r="G60" t="str">
-        <f>IFERROR(IF(VLOOKUP(E60,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G60" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H60">
         <v>358</v>
@@ -3740,9 +3690,8 @@
       <c r="F61">
         <v>26</v>
       </c>
-      <c r="G61" t="str">
-        <f>IFERROR(IF(VLOOKUP(E61,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G61" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H61">
         <v>33</v>
@@ -3767,9 +3716,8 @@
       <c r="F62">
         <v>11</v>
       </c>
-      <c r="G62" t="str">
-        <f>IFERROR(IF(VLOOKUP(E62,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G62" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H62">
         <v>689</v>
@@ -3794,9 +3742,8 @@
       <c r="F63">
         <v>11</v>
       </c>
-      <c r="G63" t="str">
-        <f>IFERROR(IF(VLOOKUP(E63,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G63" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H63">
         <v>220</v>
@@ -3821,9 +3768,8 @@
       <c r="F64">
         <v>26</v>
       </c>
-      <c r="G64" t="str">
-        <f>IFERROR(IF(VLOOKUP(E64,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G64" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H64" t="s">
         <v>561</v>
@@ -3848,9 +3794,8 @@
       <c r="F65">
         <v>11</v>
       </c>
-      <c r="G65" t="str">
-        <f>IFERROR(IF(VLOOKUP(E65,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G65" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H65">
         <v>299</v>
@@ -3875,9 +3820,8 @@
       <c r="F66">
         <v>26</v>
       </c>
-      <c r="G66" t="str">
-        <f>IFERROR(IF(VLOOKUP(E66,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G66" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H66">
         <v>30</v>
@@ -3902,9 +3846,8 @@
       <c r="F67">
         <v>11</v>
       </c>
-      <c r="G67" t="str">
-        <f>IFERROR(IF(VLOOKUP(E67,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G67" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H67">
         <v>590</v>
@@ -3929,9 +3872,8 @@
       <c r="F68">
         <v>26</v>
       </c>
-      <c r="G68" t="str">
-        <f>IFERROR(IF(VLOOKUP(E68,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G68" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H68">
         <v>36</v>
@@ -3956,9 +3898,8 @@
       <c r="F69">
         <v>11</v>
       </c>
-      <c r="G69" t="str">
-        <f>IFERROR(IF(VLOOKUP(E69,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G69" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H69">
         <v>354</v>
@@ -3983,9 +3924,8 @@
       <c r="F70">
         <v>26</v>
       </c>
-      <c r="G70" t="str">
-        <f>IFERROR(IF(VLOOKUP(E70,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G70" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H70">
         <v>353</v>
@@ -4010,9 +3950,8 @@
       <c r="F71">
         <v>11</v>
       </c>
-      <c r="G71" t="str">
-        <f>IFERROR(IF(VLOOKUP(E71,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G71" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H71">
         <v>44</v>
@@ -4037,9 +3976,8 @@
       <c r="F72">
         <v>26</v>
       </c>
-      <c r="G72" t="str">
-        <f>IFERROR(IF(VLOOKUP(E72,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G72" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H72">
         <v>39</v>
@@ -4064,9 +4002,8 @@
       <c r="F73">
         <v>11</v>
       </c>
-      <c r="G73" t="str">
-        <f>IFERROR(IF(VLOOKUP(E73,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G73" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H73">
         <v>381</v>
@@ -4091,9 +4028,8 @@
       <c r="F74">
         <v>26</v>
       </c>
-      <c r="G74" t="str">
-        <f>IFERROR(IF(VLOOKUP(E74,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G74" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H74">
         <v>371</v>
@@ -4118,9 +4054,8 @@
       <c r="F75">
         <v>11</v>
       </c>
-      <c r="G75" t="str">
-        <f>IFERROR(IF(VLOOKUP(E75,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G75" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H75">
         <v>423</v>
@@ -4145,9 +4080,8 @@
       <c r="F76">
         <v>26</v>
       </c>
-      <c r="G76" t="str">
-        <f>IFERROR(IF(VLOOKUP(E76,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G76" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H76">
         <v>370</v>
@@ -4172,9 +4106,8 @@
       <c r="F77">
         <v>26</v>
       </c>
-      <c r="G77" t="str">
-        <f>IFERROR(IF(VLOOKUP(E77,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G77" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H77">
         <v>352</v>
@@ -4199,9 +4132,8 @@
       <c r="F78">
         <v>26</v>
       </c>
-      <c r="G78" t="str">
-        <f>IFERROR(IF(VLOOKUP(E78,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G78" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H78">
         <v>356</v>
@@ -4226,9 +4158,8 @@
       <c r="F79">
         <v>11</v>
       </c>
-      <c r="G79" t="str">
-        <f>IFERROR(IF(VLOOKUP(E79,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G79" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H79">
         <v>377</v>
@@ -4253,9 +4184,8 @@
       <c r="F80">
         <v>11</v>
       </c>
-      <c r="G80" t="str">
-        <f>IFERROR(IF(VLOOKUP(E80,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G80" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H80">
         <v>382</v>
@@ -4280,9 +4210,8 @@
       <c r="F81">
         <v>11</v>
       </c>
-      <c r="G81" t="str">
-        <f>IFERROR(IF(VLOOKUP(E81,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G81" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H81">
         <v>47</v>
@@ -4307,9 +4236,8 @@
       <c r="F82">
         <v>26</v>
       </c>
-      <c r="G82" t="str">
-        <f>IFERROR(IF(VLOOKUP(E82,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G82" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H82">
         <v>48</v>
@@ -4334,9 +4262,8 @@
       <c r="F83">
         <v>26</v>
       </c>
-      <c r="G83" t="str">
-        <f>IFERROR(IF(VLOOKUP(E83,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G83" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H83">
         <v>351</v>
@@ -4361,9 +4288,8 @@
       <c r="F84">
         <v>26</v>
       </c>
-      <c r="G84" t="str">
-        <f>IFERROR(IF(VLOOKUP(E84,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G84" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H84">
         <v>40</v>
@@ -4388,9 +4314,8 @@
       <c r="F85">
         <v>11</v>
       </c>
-      <c r="G85" t="str">
-        <f>IFERROR(IF(VLOOKUP(E85,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G85" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H85">
         <v>381</v>
@@ -4415,9 +4340,8 @@
       <c r="F86">
         <v>26</v>
       </c>
-      <c r="G86" t="str">
-        <f>IFERROR(IF(VLOOKUP(E86,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G86" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H86">
         <v>42</v>
@@ -4442,9 +4366,8 @@
       <c r="F87">
         <v>26</v>
       </c>
-      <c r="G87" t="str">
-        <f>IFERROR(IF(VLOOKUP(E87,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G87" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H87">
         <v>386</v>
@@ -4469,9 +4392,8 @@
       <c r="F88">
         <v>26</v>
       </c>
-      <c r="G88" t="str">
-        <f>IFERROR(IF(VLOOKUP(E88,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G88" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H88" t="s">
         <v>561</v>
@@ -4496,9 +4418,8 @@
       <c r="F89">
         <v>11</v>
       </c>
-      <c r="G89" t="str">
-        <f>IFERROR(IF(VLOOKUP(E89,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G89" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H89" t="s">
         <v>561</v>
@@ -4523,9 +4444,8 @@
       <c r="F90">
         <v>26</v>
       </c>
-      <c r="G90" t="str">
-        <f>IFERROR(IF(VLOOKUP(E90,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G90" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H90">
         <v>46</v>
@@ -4550,9 +4470,8 @@
       <c r="F91">
         <v>11</v>
       </c>
-      <c r="G91" t="str">
-        <f>IFERROR(IF(VLOOKUP(E91,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G91" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H91" t="s">
         <v>561</v>
@@ -4577,9 +4496,8 @@
       <c r="F92">
         <v>26</v>
       </c>
-      <c r="G92" t="str">
-        <f>IFERROR(IF(VLOOKUP(E92,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G92" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H92">
         <v>31</v>
@@ -4604,9 +4522,8 @@
       <c r="F93">
         <v>11</v>
       </c>
-      <c r="G93" t="str">
-        <f>IFERROR(IF(VLOOKUP(E93,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G93" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H93">
         <v>90</v>
@@ -4631,9 +4548,8 @@
       <c r="F94">
         <v>11</v>
       </c>
-      <c r="G94" t="str">
-        <f>IFERROR(IF(VLOOKUP(E94,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G94" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H94">
         <v>39</v>
@@ -4658,7 +4574,7 @@
       <c r="F95">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="2" t="s">
         <v>559</v>
       </c>
       <c r="H95" t="s">
@@ -4684,7 +4600,7 @@
       <c r="F96">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" s="2" t="s">
         <v>559</v>
       </c>
       <c r="H96" t="s">
@@ -4710,7 +4626,7 @@
       <c r="F97">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" s="2" t="s">
         <v>559</v>
       </c>
       <c r="H97" t="s">
@@ -4736,7 +4652,7 @@
       <c r="F98">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" s="2" t="s">
         <v>559</v>
       </c>
       <c r="H98">
@@ -4762,9 +4678,8 @@
       <c r="F99">
         <v>11</v>
       </c>
-      <c r="G99" t="str">
-        <f>IFERROR(IF(VLOOKUP(E99,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G99" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="H99">
         <v>972</v>
@@ -4789,9 +4704,8 @@
       <c r="F100">
         <v>11</v>
       </c>
-      <c r="G100" t="str">
-        <f>IFERROR(IF(VLOOKUP(E100,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G100" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="H100">
         <v>962</v>
@@ -4816,7 +4730,7 @@
       <c r="F101">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" s="2" t="s">
         <v>559</v>
       </c>
       <c r="H101">
@@ -4842,7 +4756,7 @@
       <c r="F102">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" s="2" t="s">
         <v>559</v>
       </c>
       <c r="H102">
@@ -4868,7 +4782,7 @@
       <c r="F103">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" s="2" t="s">
         <v>559</v>
       </c>
       <c r="H103">
@@ -4894,9 +4808,8 @@
       <c r="F104">
         <v>11</v>
       </c>
-      <c r="G104" t="str">
-        <f>IFERROR(IF(VLOOKUP(E104,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G104" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="H104">
         <v>218</v>
@@ -4921,9 +4834,8 @@
       <c r="F105">
         <v>11</v>
       </c>
-      <c r="G105" t="str">
-        <f>IFERROR(IF(VLOOKUP(E105,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G105" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H105">
         <v>222</v>
@@ -4948,7 +4860,7 @@
       <c r="F106">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" s="2" t="s">
         <v>559</v>
       </c>
       <c r="H106">
@@ -4974,9 +4886,8 @@
       <c r="F107">
         <v>11</v>
       </c>
-      <c r="G107" t="str">
-        <f>IFERROR(IF(VLOOKUP(E107,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G107" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -5001,9 +4912,8 @@
       <c r="F108">
         <v>11</v>
       </c>
-      <c r="G108" t="str">
-        <f>IFERROR(IF(VLOOKUP(E108,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G108" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="H108">
         <v>92</v>
@@ -5028,7 +4938,7 @@
       <c r="F109">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" s="2" t="s">
         <v>559</v>
       </c>
       <c r="H109">
@@ -5054,9 +4964,8 @@
       <c r="F110">
         <v>14</v>
       </c>
-      <c r="G110" t="str">
-        <f>IFERROR(IF(VLOOKUP(E110,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G110" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="H110">
         <v>249</v>
@@ -5081,9 +4990,8 @@
       <c r="F111">
         <v>11</v>
       </c>
-      <c r="G111" t="str">
-        <f>IFERROR(IF(VLOOKUP(E111,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G111" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="H111">
         <v>970</v>
@@ -5108,9 +5016,8 @@
       <c r="F112">
         <v>11</v>
       </c>
-      <c r="G112" t="str">
-        <f>IFERROR(IF(VLOOKUP(E112,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G112" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H112">
         <v>963</v>
@@ -5135,7 +5042,7 @@
       <c r="F113">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G113" s="2" t="s">
         <v>559</v>
       </c>
       <c r="H113">
@@ -5161,9 +5068,8 @@
       <c r="F114">
         <v>11</v>
       </c>
-      <c r="G114" t="str">
-        <f>IFERROR(IF(VLOOKUP(E114,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G114" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H114" t="s">
         <v>561</v>
@@ -5188,9 +5094,8 @@
       <c r="F115">
         <v>11</v>
       </c>
-      <c r="G115" t="str">
-        <f>IFERROR(IF(VLOOKUP(E115,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G115" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="H115">
         <v>967</v>
@@ -5215,9 +5120,8 @@
       <c r="F116">
         <v>11</v>
       </c>
-      <c r="G116" t="str">
-        <f>IFERROR(IF(VLOOKUP(E116,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G116" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="H116" t="s">
         <v>561</v>
@@ -5242,7 +5146,7 @@
       <c r="F117">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G117" s="2" t="s">
         <v>559</v>
       </c>
       <c r="H117" t="s">
@@ -5268,9 +5172,8 @@
       <c r="F118">
         <v>11</v>
       </c>
-      <c r="G118" t="str">
-        <f>IFERROR(IF(VLOOKUP(E118,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G118" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H118" t="s">
         <v>561</v>
@@ -5295,9 +5198,8 @@
       <c r="F119">
         <v>11</v>
       </c>
-      <c r="G119" t="str">
-        <f>IFERROR(IF(VLOOKUP(E119,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G119" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H119">
         <v>246</v>
@@ -5322,9 +5224,8 @@
       <c r="F120">
         <v>11</v>
       </c>
-      <c r="G120" t="str">
-        <f>IFERROR(IF(VLOOKUP(E120,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G120" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H120">
         <v>960</v>
@@ -5349,9 +5250,8 @@
       <c r="F121">
         <v>11</v>
       </c>
-      <c r="G121" t="str">
-        <f>IFERROR(IF(VLOOKUP(E121,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G121" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H121">
         <v>977</v>
@@ -5376,9 +5276,8 @@
       <c r="F122">
         <v>11</v>
       </c>
-      <c r="G122" t="str">
-        <f>IFERROR(IF(VLOOKUP(E122,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G122" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H122">
         <v>94</v>
@@ -5403,9 +5302,8 @@
       <c r="F123">
         <v>11</v>
       </c>
-      <c r="G123" t="str">
-        <f>IFERROR(IF(VLOOKUP(E123,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G123" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H123" t="s">
         <v>561</v>
@@ -5430,9 +5328,8 @@
       <c r="F124">
         <v>11</v>
       </c>
-      <c r="G124" t="str">
-        <f>IFERROR(IF(VLOOKUP(E124,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G124" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="H124" t="s">
         <v>561</v>
@@ -5457,9 +5354,8 @@
       <c r="F125">
         <v>11</v>
       </c>
-      <c r="G125" t="str">
-        <f>IFERROR(IF(VLOOKUP(E125,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G125" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H125" t="s">
         <v>561</v>
@@ -5484,9 +5380,8 @@
       <c r="F126">
         <v>11</v>
       </c>
-      <c r="G126" t="str">
-        <f>IFERROR(IF(VLOOKUP(E126,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G126" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H126">
         <v>60</v>
@@ -5511,9 +5406,8 @@
       <c r="F127">
         <v>11</v>
       </c>
-      <c r="G127" t="str">
-        <f>IFERROR(IF(VLOOKUP(E127,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G127" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H127">
         <v>95</v>
@@ -5538,9 +5432,8 @@
       <c r="F128">
         <v>26</v>
       </c>
-      <c r="G128" t="str">
-        <f>IFERROR(IF(VLOOKUP(E128,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G128" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H128">
         <v>63</v>
@@ -5565,9 +5458,8 @@
       <c r="F129">
         <v>11</v>
       </c>
-      <c r="G129" t="str">
-        <f>IFERROR(IF(VLOOKUP(E129,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G129" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H129">
         <v>65</v>
@@ -5592,9 +5484,8 @@
       <c r="F130">
         <v>11</v>
       </c>
-      <c r="G130" t="str">
-        <f>IFERROR(IF(VLOOKUP(E130,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G130" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="H130">
         <v>66</v>
@@ -5619,9 +5510,8 @@
       <c r="F131">
         <v>11</v>
       </c>
-      <c r="G131" t="str">
-        <f>IFERROR(IF(VLOOKUP(E131,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G131" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H131">
         <v>84</v>
@@ -5646,9 +5536,8 @@
       <c r="F132">
         <v>11</v>
       </c>
-      <c r="G132" t="str">
-        <f>IFERROR(IF(VLOOKUP(E132,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G132" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="H132" t="s">
         <v>561</v>
@@ -5673,9 +5562,8 @@
       <c r="F133">
         <v>30</v>
       </c>
-      <c r="G133" t="str">
-        <f>IFERROR(IF(VLOOKUP(E133,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G133" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="H133" t="s">
         <v>561</v>
@@ -5700,9 +5588,8 @@
       <c r="F134">
         <v>11</v>
       </c>
-      <c r="G134" t="str">
-        <f>IFERROR(IF(VLOOKUP(E134,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G134" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="H134" t="s">
         <v>561</v>
@@ -5727,7 +5614,7 @@
       <c r="F135">
         <v>30</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G135" s="2" t="s">
         <v>559</v>
       </c>
       <c r="H135" t="s">
@@ -5753,9 +5640,8 @@
       <c r="F136">
         <v>11</v>
       </c>
-      <c r="G136" t="str">
-        <f>IFERROR(IF(VLOOKUP(E136,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G136" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="H136" t="s">
         <v>561</v>
@@ -5780,9 +5666,8 @@
       <c r="F137">
         <v>11</v>
       </c>
-      <c r="G137" t="str">
-        <f>IFERROR(IF(VLOOKUP(E137,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G137" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H137" t="s">
         <v>561</v>
@@ -5807,9 +5692,8 @@
       <c r="F138">
         <v>30</v>
       </c>
-      <c r="G138" t="str">
-        <f>IFERROR(IF(VLOOKUP(E138,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G138" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="H138" t="s">
         <v>561</v>
@@ -5834,9 +5718,8 @@
       <c r="F139">
         <v>30</v>
       </c>
-      <c r="G139" t="str">
-        <f>IFERROR(IF(VLOOKUP(E139,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G139" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="H139">
         <v>639</v>
@@ -5861,9 +5744,8 @@
       <c r="F140">
         <v>30</v>
       </c>
-      <c r="G140" t="str">
-        <f>IFERROR(IF(VLOOKUP(E140,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G140" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="H140" t="s">
         <v>561</v>
@@ -5888,7 +5770,7 @@
       <c r="F141">
         <v>30</v>
       </c>
-      <c r="G141" t="s">
+      <c r="G141" s="2" t="s">
         <v>559</v>
       </c>
       <c r="H141" t="s">
@@ -5914,9 +5796,8 @@
       <c r="F142">
         <v>11</v>
       </c>
-      <c r="G142" t="str">
-        <f>IFERROR(IF(VLOOKUP(E142,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G142" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="H142">
         <v>243</v>
@@ -5941,9 +5822,8 @@
       <c r="F143">
         <v>11</v>
       </c>
-      <c r="G143" t="str">
-        <f>IFERROR(IF(VLOOKUP(E143,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G143" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H143" t="s">
         <v>561</v>
@@ -5968,9 +5848,8 @@
       <c r="F144">
         <v>30</v>
       </c>
-      <c r="G144" t="str">
-        <f>IFERROR(IF(VLOOKUP(E144,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G144" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="H144" t="s">
         <v>561</v>
@@ -5995,9 +5874,8 @@
       <c r="F145">
         <v>11</v>
       </c>
-      <c r="G145" t="str">
-        <f>IFERROR(IF(VLOOKUP(E145,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G145" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H145" t="s">
         <v>561</v>
@@ -6022,9 +5900,8 @@
       <c r="F146">
         <v>11</v>
       </c>
-      <c r="G146" t="str">
-        <f>IFERROR(IF(VLOOKUP(E146,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G146" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H146" t="s">
         <v>561</v>
@@ -6049,9 +5926,8 @@
       <c r="F147">
         <v>30</v>
       </c>
-      <c r="G147" t="str">
-        <f>IFERROR(IF(VLOOKUP(E147,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G147" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="H147" t="s">
         <v>561</v>
@@ -6076,9 +5952,8 @@
       <c r="F148">
         <v>11</v>
       </c>
-      <c r="G148" t="str">
-        <f>IFERROR(IF(VLOOKUP(E148,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G148" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -6103,9 +5978,8 @@
       <c r="F149">
         <v>11</v>
       </c>
-      <c r="G149" t="str">
-        <f>IFERROR(IF(VLOOKUP(E149,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G149" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="H149" t="s">
         <v>561</v>
@@ -6130,7 +6004,7 @@
       <c r="F150">
         <v>29</v>
       </c>
-      <c r="G150" t="s">
+      <c r="G150" s="2" t="s">
         <v>559</v>
       </c>
       <c r="H150" t="s">
@@ -6156,9 +6030,8 @@
       <c r="F151">
         <v>11</v>
       </c>
-      <c r="G151" t="str">
-        <f>IFERROR(IF(VLOOKUP(E151,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G151" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="H151" t="s">
         <v>561</v>
@@ -6183,9 +6056,8 @@
       <c r="F152">
         <v>30</v>
       </c>
-      <c r="G152" t="str">
-        <f>IFERROR(IF(VLOOKUP(E152,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G152" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="H152" t="s">
         <v>561</v>
@@ -6210,9 +6082,8 @@
       <c r="F153">
         <v>11</v>
       </c>
-      <c r="G153" t="str">
-        <f>IFERROR(IF(VLOOKUP(E153,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G153" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="H153" t="s">
         <v>561</v>
@@ -6237,9 +6108,8 @@
       <c r="F154">
         <v>11</v>
       </c>
-      <c r="G154" t="str">
-        <f>IFERROR(IF(VLOOKUP(E154,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G154" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="H154" t="s">
         <v>561</v>
@@ -6264,9 +6134,8 @@
       <c r="F155">
         <v>11</v>
       </c>
-      <c r="G155" t="str">
-        <f>IFERROR(IF(VLOOKUP(E155,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G155" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H155" t="s">
         <v>561</v>
@@ -6291,9 +6160,8 @@
       <c r="F156">
         <v>11</v>
       </c>
-      <c r="G156" t="str">
-        <f>IFERROR(IF(VLOOKUP(E156,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G156" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="H156" t="s">
         <v>561</v>
@@ -6318,7 +6186,7 @@
       <c r="F157">
         <v>29</v>
       </c>
-      <c r="G157" t="s">
+      <c r="G157" s="2" t="s">
         <v>559</v>
       </c>
       <c r="H157" t="s">
@@ -6344,9 +6212,8 @@
       <c r="F158">
         <v>11</v>
       </c>
-      <c r="G158" t="str">
-        <f>IFERROR(IF(VLOOKUP(E158,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G158" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="H158" t="s">
         <v>561</v>
@@ -6371,9 +6238,8 @@
       <c r="F159">
         <v>11</v>
       </c>
-      <c r="G159" t="str">
-        <f>IFERROR(IF(VLOOKUP(E159,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G159" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="H159" t="s">
         <v>561</v>
@@ -6398,9 +6264,8 @@
       <c r="F160">
         <v>11</v>
       </c>
-      <c r="G160" t="str">
-        <f>IFERROR(IF(VLOOKUP(E160,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G160" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="H160" t="s">
         <v>561</v>
@@ -6425,7 +6290,7 @@
       <c r="F161">
         <v>30</v>
       </c>
-      <c r="G161" t="s">
+      <c r="G161" s="2" t="s">
         <v>559</v>
       </c>
       <c r="H161" t="s">
@@ -6451,7 +6316,7 @@
       <c r="F162">
         <v>29</v>
       </c>
-      <c r="G162" t="s">
+      <c r="G162" s="2" t="s">
         <v>559</v>
       </c>
       <c r="H162" t="s">
@@ -6477,9 +6342,8 @@
       <c r="F163">
         <v>30</v>
       </c>
-      <c r="G163" t="str">
-        <f>IFERROR(IF(VLOOKUP(E163,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G163" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H163">
         <v>239</v>
@@ -6504,7 +6368,7 @@
       <c r="F164">
         <v>30</v>
       </c>
-      <c r="G164" t="s">
+      <c r="G164" s="2" t="s">
         <v>559</v>
       </c>
       <c r="H164">
@@ -6530,9 +6394,8 @@
       <c r="F165">
         <v>11</v>
       </c>
-      <c r="G165" t="str">
-        <f>IFERROR(IF(VLOOKUP(E165,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G165" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="H165">
         <v>248</v>
@@ -6557,9 +6420,8 @@
       <c r="F166">
         <v>11</v>
       </c>
-      <c r="G166" t="str">
-        <f>IFERROR(IF(VLOOKUP(E166,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G166" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="H166">
         <v>232</v>
@@ -6584,9 +6446,8 @@
       <c r="F167">
         <v>11</v>
       </c>
-      <c r="G167" t="str">
-        <f>IFERROR(IF(VLOOKUP(E167,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G167" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H167">
         <v>252</v>
@@ -6611,7 +6472,7 @@
       <c r="F168">
         <v>29</v>
       </c>
-      <c r="G168" t="s">
+      <c r="G168" s="2" t="s">
         <v>559</v>
       </c>
       <c r="H168">
@@ -6637,9 +6498,8 @@
       <c r="F169">
         <v>11</v>
       </c>
-      <c r="G169" t="str">
-        <f>IFERROR(IF(VLOOKUP(E169,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G169" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H169">
         <v>290</v>
@@ -6664,9 +6524,8 @@
       <c r="F170">
         <v>11</v>
       </c>
-      <c r="G170" t="str">
-        <f>IFERROR(IF(VLOOKUP(E170,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G170" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="H170">
         <v>268</v>
@@ -6691,7 +6550,7 @@
       <c r="F171">
         <v>29</v>
       </c>
-      <c r="G171" t="s">
+      <c r="G171" s="2" t="s">
         <v>559</v>
       </c>
       <c r="H171">
@@ -6717,7 +6576,7 @@
       <c r="F172">
         <v>30</v>
       </c>
-      <c r="G172" t="s">
+      <c r="G172" s="2" t="s">
         <v>559</v>
       </c>
       <c r="H172">
@@ -6743,7 +6602,7 @@
       <c r="F173">
         <v>29</v>
       </c>
-      <c r="G173" t="s">
+      <c r="G173" s="2" t="s">
         <v>559</v>
       </c>
       <c r="H173">
@@ -6769,9 +6628,8 @@
       <c r="F174">
         <v>11</v>
       </c>
-      <c r="G174" t="str">
-        <f>IFERROR(IF(VLOOKUP(E174,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G174" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="H174" t="s">
         <v>561</v>
@@ -6796,9 +6654,8 @@
       <c r="F175">
         <v>11</v>
       </c>
-      <c r="G175" t="str">
-        <f>IFERROR(IF(VLOOKUP(E175,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G175" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="H175">
         <v>260</v>
@@ -6823,9 +6680,8 @@
       <c r="F176">
         <v>11</v>
       </c>
-      <c r="G176" t="str">
-        <f>IFERROR(IF(VLOOKUP(E176,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G176" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H176">
         <v>263</v>
@@ -6850,9 +6706,8 @@
       <c r="F177">
         <v>11</v>
       </c>
-      <c r="G177" t="str">
-        <f>IFERROR(IF(VLOOKUP(E177,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G177" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H177" t="s">
         <v>561</v>
@@ -6877,9 +6732,8 @@
       <c r="F178">
         <v>11</v>
       </c>
-      <c r="G178" t="str">
-        <f>IFERROR(IF(VLOOKUP(E178,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G178" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H178" t="s">
         <v>561</v>
@@ -6904,9 +6758,8 @@
       <c r="F179">
         <v>11</v>
       </c>
-      <c r="G179" t="str">
-        <f>IFERROR(IF(VLOOKUP(E179,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G179" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H179" t="s">
         <v>561</v>
@@ -6931,9 +6784,8 @@
       <c r="F180">
         <v>11</v>
       </c>
-      <c r="G180" t="str">
-        <f>IFERROR(IF(VLOOKUP(E180,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G180" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H180" t="s">
         <v>561</v>
@@ -6958,9 +6810,8 @@
       <c r="F181">
         <v>11</v>
       </c>
-      <c r="G181" t="str">
-        <f>IFERROR(IF(VLOOKUP(E181,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G181" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H181" t="s">
         <v>561</v>
@@ -6985,9 +6836,8 @@
       <c r="F182">
         <v>11</v>
       </c>
-      <c r="G182" t="str">
-        <f>IFERROR(IF(VLOOKUP(E182,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G182" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H182" t="s">
         <v>561</v>
@@ -7012,9 +6862,8 @@
       <c r="F183">
         <v>11</v>
       </c>
-      <c r="G183" t="str">
-        <f>IFERROR(IF(VLOOKUP(E183,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G183" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H183" t="s">
         <v>561</v>
@@ -7039,9 +6888,8 @@
       <c r="F184">
         <v>11</v>
       </c>
-      <c r="G184" t="str">
-        <f>IFERROR(IF(VLOOKUP(E184,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G184" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H184" t="s">
         <v>561</v>
@@ -7066,9 +6914,8 @@
       <c r="F185">
         <v>11</v>
       </c>
-      <c r="G185" t="str">
-        <f>IFERROR(IF(VLOOKUP(E185,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G185" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H185" t="s">
         <v>561</v>
@@ -7093,9 +6940,8 @@
       <c r="F186">
         <v>11</v>
       </c>
-      <c r="G186" t="str">
-        <f>IFERROR(IF(VLOOKUP(E186,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G186" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H186" t="s">
         <v>561</v>
@@ -7120,9 +6966,8 @@
       <c r="F187">
         <v>11</v>
       </c>
-      <c r="G187" t="str">
-        <f>IFERROR(IF(VLOOKUP(E187,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G187" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H187" t="s">
         <v>561</v>
@@ -7147,9 +6992,8 @@
       <c r="F188">
         <v>11</v>
       </c>
-      <c r="G188" t="str">
-        <f>IFERROR(IF(VLOOKUP(E188,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G188" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H188" t="s">
         <v>561</v>
@@ -7174,7 +7018,7 @@
       <c r="F189">
         <v>11</v>
       </c>
-      <c r="G189" t="s">
+      <c r="G189" s="2" t="s">
         <v>559</v>
       </c>
       <c r="H189" t="s">
@@ -7200,9 +7044,8 @@
       <c r="F190">
         <v>11</v>
       </c>
-      <c r="G190" t="str">
-        <f>IFERROR(IF(VLOOKUP(E190,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G190" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H190" t="s">
         <v>561</v>
@@ -7227,9 +7070,8 @@
       <c r="F191">
         <v>11</v>
       </c>
-      <c r="G191" t="str">
-        <f>IFERROR(IF(VLOOKUP(E191,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G191" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H191" t="s">
         <v>561</v>
@@ -7254,9 +7096,8 @@
       <c r="F192">
         <v>11</v>
       </c>
-      <c r="G192" t="str">
-        <f>IFERROR(IF(VLOOKUP(E192,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G192" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H192" t="s">
         <v>561</v>
@@ -7281,9 +7122,8 @@
       <c r="F193">
         <v>11</v>
       </c>
-      <c r="G193" t="str">
-        <f>IFERROR(IF(VLOOKUP(E193,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G193" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H193" t="s">
         <v>561</v>
@@ -7308,9 +7148,8 @@
       <c r="F194">
         <v>11</v>
       </c>
-      <c r="G194" t="str">
-        <f>IFERROR(IF(VLOOKUP(E194,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G194" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H194" t="s">
         <v>561</v>
@@ -7335,9 +7174,8 @@
       <c r="F195">
         <v>11</v>
       </c>
-      <c r="G195" t="str">
-        <f>IFERROR(IF(VLOOKUP(E195,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G195" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H195" t="s">
         <v>561</v>
@@ -7362,9 +7200,8 @@
       <c r="F196">
         <v>11</v>
       </c>
-      <c r="G196" t="str">
-        <f>IFERROR(IF(VLOOKUP(E196,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G196" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H196" t="s">
         <v>561</v>
@@ -7389,9 +7226,8 @@
       <c r="F197">
         <v>11</v>
       </c>
-      <c r="G197" t="str">
-        <f>IFERROR(IF(VLOOKUP(E197,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G197" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H197" t="s">
         <v>561</v>
@@ -7416,9 +7252,8 @@
       <c r="F198">
         <v>11</v>
       </c>
-      <c r="G198" t="str">
-        <f>IFERROR(IF(VLOOKUP(E198,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G198" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H198">
         <v>503</v>
@@ -7443,9 +7278,8 @@
       <c r="F199">
         <v>11</v>
       </c>
-      <c r="G199" t="str">
-        <f>IFERROR(IF(VLOOKUP(E199,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G199" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H199" t="s">
         <v>561</v>
@@ -7470,9 +7304,8 @@
       <c r="F200">
         <v>11</v>
       </c>
-      <c r="G200" t="str">
-        <f>IFERROR(IF(VLOOKUP(E200,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G200" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H200" t="s">
         <v>561</v>
@@ -7497,9 +7330,8 @@
       <c r="F201">
         <v>11</v>
       </c>
-      <c r="G201" t="str">
-        <f>IFERROR(IF(VLOOKUP(E201,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G201" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H201" t="s">
         <v>561</v>
@@ -7524,9 +7356,8 @@
       <c r="F202">
         <v>11</v>
       </c>
-      <c r="G202" t="str">
-        <f>IFERROR(IF(VLOOKUP(E202,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G202" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H202" t="s">
         <v>561</v>
@@ -7551,9 +7382,8 @@
       <c r="F203">
         <v>11</v>
       </c>
-      <c r="G203" t="str">
-        <f>IFERROR(IF(VLOOKUP(E203,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G203" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H203">
         <v>539</v>
@@ -7578,9 +7408,8 @@
       <c r="F204">
         <v>11</v>
       </c>
-      <c r="G204" t="str">
-        <f>IFERROR(IF(VLOOKUP(E204,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G204" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H204" t="s">
         <v>561</v>
@@ -7605,9 +7434,8 @@
       <c r="F205">
         <v>11</v>
       </c>
-      <c r="G205" t="str">
-        <f>IFERROR(IF(VLOOKUP(E205,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G205" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H205" t="s">
         <v>561</v>
@@ -7632,9 +7460,8 @@
       <c r="F206">
         <v>11</v>
       </c>
-      <c r="G206" t="str">
-        <f>IFERROR(IF(VLOOKUP(E206,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G206" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H206" t="s">
         <v>561</v>
@@ -7659,9 +7486,8 @@
       <c r="F207">
         <v>11</v>
       </c>
-      <c r="G207" t="str">
-        <f>IFERROR(IF(VLOOKUP(E207,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G207" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H207" t="s">
         <v>561</v>
@@ -7686,9 +7512,8 @@
       <c r="F208">
         <v>11</v>
       </c>
-      <c r="G208" t="str">
-        <f>IFERROR(IF(VLOOKUP(E208,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G208" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H208" t="s">
         <v>561</v>
@@ -7713,9 +7538,8 @@
       <c r="F209">
         <v>11</v>
       </c>
-      <c r="G209" t="str">
-        <f>IFERROR(IF(VLOOKUP(E209,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G209" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H209">
         <v>269</v>
@@ -7740,9 +7564,8 @@
       <c r="F210">
         <v>11</v>
       </c>
-      <c r="G210" t="str">
-        <f>IFERROR(IF(VLOOKUP(E210,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G210" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H210" t="s">
         <v>561</v>
@@ -7767,9 +7590,8 @@
       <c r="F211">
         <v>11</v>
       </c>
-      <c r="G211" t="str">
-        <f>IFERROR(IF(VLOOKUP(E211,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G211" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H211" t="s">
         <v>561</v>
@@ -7794,9 +7616,8 @@
       <c r="F212">
         <v>11</v>
       </c>
-      <c r="G212" t="str">
-        <f>IFERROR(IF(VLOOKUP(E212,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G212" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H212" t="s">
         <v>561</v>
@@ -7821,9 +7642,8 @@
       <c r="F213">
         <v>11</v>
       </c>
-      <c r="G213" t="str">
-        <f>IFERROR(IF(VLOOKUP(E213,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G213" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H213" t="s">
         <v>561</v>
@@ -7848,9 +7668,8 @@
       <c r="F214">
         <v>11</v>
       </c>
-      <c r="G214" t="str">
-        <f>IFERROR(IF(VLOOKUP(E214,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G214" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H214" t="s">
         <v>561</v>
@@ -7875,9 +7694,8 @@
       <c r="F215">
         <v>11</v>
       </c>
-      <c r="G215" t="str">
-        <f>IFERROR(IF(VLOOKUP(E215,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G215" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H215" t="s">
         <v>561</v>
@@ -7902,9 +7720,8 @@
       <c r="F216">
         <v>11</v>
       </c>
-      <c r="G216" t="str">
-        <f>IFERROR(IF(VLOOKUP(E216,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G216" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H216" t="s">
         <v>561</v>
@@ -7929,9 +7746,8 @@
       <c r="F217">
         <v>11</v>
       </c>
-      <c r="G217" t="str">
-        <f>IFERROR(IF(VLOOKUP(E217,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G217" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H217" t="s">
         <v>561</v>
@@ -7956,9 +7772,8 @@
       <c r="F218">
         <v>11</v>
       </c>
-      <c r="G218" t="str">
-        <f>IFERROR(IF(VLOOKUP(E218,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G218" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H218" t="s">
         <v>561</v>
@@ -7983,9 +7798,8 @@
       <c r="F219">
         <v>11</v>
       </c>
-      <c r="G219" t="str">
-        <f>IFERROR(IF(VLOOKUP(E219,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G219" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H219" t="s">
         <v>561</v>
@@ -8010,9 +7824,8 @@
       <c r="F220">
         <v>11</v>
       </c>
-      <c r="G220" t="str">
-        <f>IFERROR(IF(VLOOKUP(E220,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G220" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H220" t="s">
         <v>561</v>
@@ -8037,9 +7850,8 @@
       <c r="F221">
         <v>11</v>
       </c>
-      <c r="G221" t="str">
-        <f>IFERROR(IF(VLOOKUP(E221,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G221" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H221" t="s">
         <v>561</v>
@@ -8064,9 +7876,8 @@
       <c r="F222">
         <v>11</v>
       </c>
-      <c r="G222" t="str">
-        <f>IFERROR(IF(VLOOKUP(E222,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G222" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H222">
         <v>784</v>
@@ -8091,9 +7902,8 @@
       <c r="F223">
         <v>11</v>
       </c>
-      <c r="G223" t="str">
-        <f>IFERROR(IF(VLOOKUP(E223,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G223" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H223" t="s">
         <v>561</v>
@@ -8118,9 +7928,8 @@
       <c r="F224">
         <v>11</v>
       </c>
-      <c r="G224" t="str">
-        <f>IFERROR(IF(VLOOKUP(E224,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G224" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H224" t="s">
         <v>561</v>
@@ -8145,9 +7954,8 @@
       <c r="F225">
         <v>11</v>
       </c>
-      <c r="G225" t="str">
-        <f>IFERROR(IF(VLOOKUP(E225,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G225" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H225" t="s">
         <v>561</v>
@@ -8172,9 +7980,8 @@
       <c r="F226">
         <v>11</v>
       </c>
-      <c r="G226" t="str">
-        <f>IFERROR(IF(VLOOKUP(E226,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G226" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H226" t="s">
         <v>561</v>
@@ -8199,9 +8006,8 @@
       <c r="F227">
         <v>11</v>
       </c>
-      <c r="G227" t="str">
-        <f>IFERROR(IF(VLOOKUP(E227,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G227" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H227" t="s">
         <v>561</v>
@@ -8226,7 +8032,7 @@
       <c r="F228">
         <v>11</v>
       </c>
-      <c r="G228" t="s">
+      <c r="G228" s="2" t="s">
         <v>559</v>
       </c>
       <c r="H228" t="s">
@@ -8252,9 +8058,8 @@
       <c r="F229">
         <v>11</v>
       </c>
-      <c r="G229" t="str">
-        <f>IFERROR(IF(VLOOKUP(E229,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G229" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H229" t="s">
         <v>561</v>
@@ -8279,9 +8084,8 @@
       <c r="F230">
         <v>11</v>
       </c>
-      <c r="G230" t="str">
-        <f>IFERROR(IF(VLOOKUP(E230,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G230" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H230" t="s">
         <v>561</v>
@@ -8306,7 +8110,7 @@
       <c r="F231">
         <v>11</v>
       </c>
-      <c r="G231" t="s">
+      <c r="G231" s="2" t="s">
         <v>559</v>
       </c>
       <c r="H231" t="s">
@@ -8332,9 +8136,8 @@
       <c r="F232">
         <v>11</v>
       </c>
-      <c r="G232" t="str">
-        <f>IFERROR(IF(VLOOKUP(E232,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G232" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H232" t="s">
         <v>561</v>
@@ -8359,7 +8162,7 @@
       <c r="F233">
         <v>11</v>
       </c>
-      <c r="G233" t="s">
+      <c r="G233" s="2" t="s">
         <v>559</v>
       </c>
       <c r="H233" t="s">
@@ -8385,9 +8188,8 @@
       <c r="F234">
         <v>26</v>
       </c>
-      <c r="G234" t="str">
-        <f>IFERROR(IF(VLOOKUP(E234,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G234" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H234" t="s">
         <v>561</v>
@@ -8412,9 +8214,8 @@
       <c r="F235">
         <v>30</v>
       </c>
-      <c r="G235" t="str">
-        <f>IFERROR(IF(VLOOKUP(E235,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G235" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="H235" t="s">
         <v>561</v>
@@ -8439,9 +8240,8 @@
       <c r="F236">
         <v>11</v>
       </c>
-      <c r="G236" t="str">
-        <f>IFERROR(IF(VLOOKUP(E236,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G236" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="H236" t="s">
         <v>561</v>
@@ -8466,9 +8266,8 @@
       <c r="F237">
         <v>11</v>
       </c>
-      <c r="G237" t="str">
-        <f>IFERROR(IF(VLOOKUP(E237,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G237" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H237" t="s">
         <v>561</v>
@@ -8493,9 +8292,8 @@
       <c r="F238">
         <v>11</v>
       </c>
-      <c r="G238" t="str">
-        <f>IFERROR(IF(VLOOKUP(E238,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G238" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H238" t="s">
         <v>561</v>
@@ -8520,9 +8318,8 @@
       <c r="F239">
         <v>11</v>
       </c>
-      <c r="G239" t="str">
-        <f>IFERROR(IF(VLOOKUP(E239,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G239" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H239" t="s">
         <v>561</v>
@@ -8547,8 +8344,8 @@
       <c r="F240">
         <v>36</v>
       </c>
-      <c r="G240" t="s">
-        <v>559</v>
+      <c r="G240" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H240">
         <v>212</v>
@@ -8573,9 +8370,8 @@
       <c r="F241">
         <v>26</v>
       </c>
-      <c r="G241" t="str">
-        <f>IFERROR(IF(VLOOKUP(E241,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G241" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H241" t="s">
         <v>561</v>
@@ -8600,9 +8396,8 @@
       <c r="F242">
         <v>26</v>
       </c>
-      <c r="G242" t="str">
-        <f>IFERROR(IF(VLOOKUP(E242,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G242" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H242" t="s">
         <v>561</v>
@@ -8627,9 +8422,8 @@
       <c r="F243">
         <v>26</v>
       </c>
-      <c r="G243" t="str">
-        <f>IFERROR(IF(VLOOKUP(E243,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G243" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H243" t="s">
         <v>561</v>
@@ -8654,9 +8448,8 @@
       <c r="F244">
         <v>26</v>
       </c>
-      <c r="G244" t="str">
-        <f>IFERROR(IF(VLOOKUP(E244,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G244" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H244" t="s">
         <v>561</v>
@@ -8681,9 +8474,8 @@
       <c r="F245">
         <v>26</v>
       </c>
-      <c r="G245" t="str">
-        <f>IFERROR(IF(VLOOKUP(E245,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G245" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H245" t="s">
         <v>561</v>
@@ -8708,9 +8500,8 @@
       <c r="F246">
         <v>26</v>
       </c>
-      <c r="G246" t="str">
-        <f>IFERROR(IF(VLOOKUP(E246,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G246" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H246" t="s">
         <v>561</v>
@@ -8735,9 +8526,8 @@
       <c r="F247">
         <v>26</v>
       </c>
-      <c r="G247" t="str">
-        <f>IFERROR(IF(VLOOKUP(E247,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G247" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H247" t="s">
         <v>561</v>
@@ -8762,9 +8552,8 @@
       <c r="F248">
         <v>26</v>
       </c>
-      <c r="G248" t="str">
-        <f>IFERROR(IF(VLOOKUP(E248,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G248" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H248" t="s">
         <v>561</v>
@@ -8789,9 +8578,8 @@
       <c r="F249">
         <v>26</v>
       </c>
-      <c r="G249" t="str">
-        <f>IFERROR(IF(VLOOKUP(E249,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G249" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H249" t="s">
         <v>561</v>
@@ -8816,9 +8604,8 @@
       <c r="F250">
         <v>26</v>
       </c>
-      <c r="G250" t="str">
-        <f>IFERROR(IF(VLOOKUP(E250,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G250" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H250" t="s">
         <v>561</v>
@@ -8843,9 +8630,8 @@
       <c r="F251">
         <v>26</v>
       </c>
-      <c r="G251" t="str">
-        <f>IFERROR(IF(VLOOKUP(E251,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G251" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H251" t="s">
         <v>561</v>
@@ -8870,9 +8656,8 @@
       <c r="F252">
         <v>26</v>
       </c>
-      <c r="G252" t="str">
-        <f>IFERROR(IF(VLOOKUP(E252,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G252" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H252" t="s">
         <v>561</v>
@@ -8897,9 +8682,8 @@
       <c r="F253">
         <v>26</v>
       </c>
-      <c r="G253" t="str">
-        <f>IFERROR(IF(VLOOKUP(E253,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G253" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H253" t="s">
         <v>561</v>
@@ -8924,9 +8708,8 @@
       <c r="F254">
         <v>26</v>
       </c>
-      <c r="G254" t="str">
-        <f>IFERROR(IF(VLOOKUP(E254,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G254" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H254" t="s">
         <v>561</v>
@@ -8951,9 +8734,8 @@
       <c r="F255">
         <v>26</v>
       </c>
-      <c r="G255" t="str">
-        <f>IFERROR(IF(VLOOKUP(E255,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G255" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H255" t="s">
         <v>561</v>
@@ -8978,9 +8760,8 @@
       <c r="F256">
         <v>26</v>
       </c>
-      <c r="G256" t="str">
-        <f>IFERROR(IF(VLOOKUP(E256,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G256" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H256" t="s">
         <v>561</v>
@@ -9005,9 +8786,8 @@
       <c r="F257">
         <v>26</v>
       </c>
-      <c r="G257" t="str">
-        <f>IFERROR(IF(VLOOKUP(E257,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G257" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H257" t="s">
         <v>561</v>
@@ -9032,9 +8812,8 @@
       <c r="F258">
         <v>26</v>
       </c>
-      <c r="G258" t="str">
-        <f>IFERROR(IF(VLOOKUP(E258,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G258" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H258" t="s">
         <v>561</v>
@@ -9059,9 +8838,8 @@
       <c r="F259">
         <v>26</v>
       </c>
-      <c r="G259" t="str">
-        <f>IFERROR(IF(VLOOKUP(E259,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G259" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H259" t="s">
         <v>561</v>
@@ -9086,9 +8864,8 @@
       <c r="F260">
         <v>26</v>
       </c>
-      <c r="G260" t="str">
-        <f>IFERROR(IF(VLOOKUP(E260,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G260" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H260" t="s">
         <v>561</v>
@@ -9113,9 +8890,8 @@
       <c r="F261">
         <v>26</v>
       </c>
-      <c r="G261" t="str">
-        <f>IFERROR(IF(VLOOKUP(E261,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G261" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H261" t="s">
         <v>561</v>
@@ -9140,9 +8916,8 @@
       <c r="F262">
         <v>26</v>
       </c>
-      <c r="G262" t="str">
-        <f>IFERROR(IF(VLOOKUP(E262,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G262" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H262" t="s">
         <v>561</v>
@@ -9167,9 +8942,8 @@
       <c r="F263">
         <v>26</v>
       </c>
-      <c r="G263" t="str">
-        <f>IFERROR(IF(VLOOKUP(E263,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G263" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H263" t="s">
         <v>561</v>
@@ -9194,9 +8968,8 @@
       <c r="F264">
         <v>37</v>
       </c>
-      <c r="G264" t="str">
-        <f>IFERROR(IF(VLOOKUP(E264,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G264" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H264">
         <v>62</v>
@@ -9221,9 +8994,8 @@
       <c r="F265">
         <v>10</v>
       </c>
-      <c r="G265" t="str">
-        <f>IFERROR(IF(VLOOKUP(E265,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G265" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H265" t="s">
         <v>561</v>
@@ -9248,9 +9020,8 @@
       <c r="F266">
         <v>16</v>
       </c>
-      <c r="G266" t="str">
-        <f>IFERROR(IF(VLOOKUP(E266,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G266" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H266">
         <v>63</v>
@@ -9275,9 +9046,8 @@
       <c r="F267">
         <v>23</v>
       </c>
-      <c r="G267" t="str">
-        <f>IFERROR(IF(VLOOKUP(E267,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G267" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H267">
         <v>65</v>
@@ -9302,9 +9072,8 @@
       <c r="F268">
         <v>26</v>
       </c>
-      <c r="G268" t="str">
-        <f>IFERROR(IF(VLOOKUP(E268,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G268" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H268" t="s">
         <v>561</v>
@@ -9329,9 +9098,8 @@
       <c r="F269">
         <v>26</v>
       </c>
-      <c r="G269" t="str">
-        <f>IFERROR(IF(VLOOKUP(E269,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G269" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H269" t="s">
         <v>561</v>
@@ -9356,9 +9124,8 @@
       <c r="F270">
         <v>26</v>
       </c>
-      <c r="G270" t="str">
-        <f>IFERROR(IF(VLOOKUP(E270,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G270" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H270" t="s">
         <v>561</v>
@@ -9383,9 +9150,8 @@
       <c r="F271">
         <v>26</v>
       </c>
-      <c r="G271" t="str">
-        <f>IFERROR(IF(VLOOKUP(E271,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G271" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H271" t="s">
         <v>561</v>
@@ -9410,9 +9176,8 @@
       <c r="F272">
         <v>26</v>
       </c>
-      <c r="G272" t="str">
-        <f>IFERROR(IF(VLOOKUP(E272,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G272" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H272" t="s">
         <v>561</v>
@@ -9437,9 +9202,8 @@
       <c r="F273">
         <v>35</v>
       </c>
-      <c r="G273" t="str">
-        <f>IFERROR(IF(VLOOKUP(E273,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G273" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H273" t="s">
         <v>561</v>
@@ -9464,9 +9228,8 @@
       <c r="F274">
         <v>11</v>
       </c>
-      <c r="G274" t="str">
-        <f>IFERROR(IF(VLOOKUP(E274,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G274" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H274">
         <v>44</v>
@@ -9491,9 +9254,8 @@
       <c r="F275">
         <v>11</v>
       </c>
-      <c r="G275" t="str">
-        <f>IFERROR(IF(VLOOKUP(E275,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G275" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H275" t="s">
         <v>561</v>
@@ -9518,9 +9280,8 @@
       <c r="F276">
         <v>11</v>
       </c>
-      <c r="G276" t="str">
-        <f>IFERROR(IF(VLOOKUP(E276,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G276" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H276" t="s">
         <v>561</v>
@@ -9545,7 +9306,7 @@
       <c r="F277">
         <v>11</v>
       </c>
-      <c r="G277" t="s">
+      <c r="G277" s="2" t="s">
         <v>559</v>
       </c>
       <c r="H277" t="s">
@@ -9571,9 +9332,8 @@
       <c r="F278">
         <v>12</v>
       </c>
-      <c r="G278" t="str">
-        <f>IFERROR(IF(VLOOKUP(E278,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G278" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H278" t="s">
         <v>561</v>
@@ -9598,9 +9358,8 @@
       <c r="F279">
         <v>11</v>
       </c>
-      <c r="G279" t="str">
-        <f>IFERROR(IF(VLOOKUP(E279,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G279" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H279" t="s">
         <v>561</v>
@@ -9625,9 +9384,8 @@
       <c r="F280">
         <v>11</v>
       </c>
-      <c r="G280" t="str">
-        <f>IFERROR(IF(VLOOKUP(E280,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G280" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H280" t="s">
         <v>561</v>
@@ -9652,9 +9410,8 @@
       <c r="F281">
         <v>33</v>
       </c>
-      <c r="G281" t="str">
-        <f>IFERROR(IF(VLOOKUP(E281,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G281" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H281" t="s">
         <v>561</v>
@@ -9679,9 +9436,8 @@
       <c r="F282">
         <v>24</v>
       </c>
-      <c r="G282" t="str">
-        <f>IFERROR(IF(VLOOKUP(E282,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G282" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H282" t="s">
         <v>561</v>
@@ -9706,9 +9462,8 @@
       <c r="F283">
         <v>11</v>
       </c>
-      <c r="G283" t="str">
-        <f>IFERROR(IF(VLOOKUP(E283,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G283" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H283" t="s">
         <v>561</v>
@@ -9733,9 +9488,8 @@
       <c r="F284">
         <v>11</v>
       </c>
-      <c r="G284" t="str">
-        <f>IFERROR(IF(VLOOKUP(E284,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G284" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H284" t="s">
         <v>561</v>
@@ -9760,9 +9514,8 @@
       <c r="F285">
         <v>11</v>
       </c>
-      <c r="G285" t="str">
-        <f>IFERROR(IF(VLOOKUP(E285,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G285" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H285" t="s">
         <v>561</v>
@@ -9787,9 +9540,8 @@
       <c r="F286">
         <v>11</v>
       </c>
-      <c r="G286" t="str">
-        <f>IFERROR(IF(VLOOKUP(E286,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G286" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H286" t="s">
         <v>561</v>
@@ -9814,9 +9566,8 @@
       <c r="F287">
         <v>11</v>
       </c>
-      <c r="G287" t="str">
-        <f>IFERROR(IF(VLOOKUP(E287,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G287" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H287" t="s">
         <v>561</v>
@@ -9841,9 +9592,8 @@
       <c r="F288">
         <v>11</v>
       </c>
-      <c r="G288" t="str">
-        <f>IFERROR(IF(VLOOKUP(E288,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G288" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H288" t="s">
         <v>561</v>
@@ -9868,9 +9618,8 @@
       <c r="F289">
         <v>11</v>
       </c>
-      <c r="G289" t="str">
-        <f>IFERROR(IF(VLOOKUP(E289,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G289" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H289" t="s">
         <v>561</v>
@@ -9895,9 +9644,8 @@
       <c r="F290">
         <v>11</v>
       </c>
-      <c r="G290" t="str">
-        <f>IFERROR(IF(VLOOKUP(E290,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G290" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H290" t="s">
         <v>561</v>
@@ -9922,9 +9670,8 @@
       <c r="F291">
         <v>11</v>
       </c>
-      <c r="G291" t="str">
-        <f>IFERROR(IF(VLOOKUP(E291,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G291" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H291" t="s">
         <v>561</v>
@@ -9949,9 +9696,8 @@
       <c r="F292">
         <v>11</v>
       </c>
-      <c r="G292" t="str">
-        <f>IFERROR(IF(VLOOKUP(E292,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G292" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H292" t="s">
         <v>561</v>
@@ -9976,9 +9722,8 @@
       <c r="F293">
         <v>27</v>
       </c>
-      <c r="G293" t="str">
-        <f>IFERROR(IF(VLOOKUP(E293,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G293" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H293" t="s">
         <v>561</v>
@@ -10003,9 +9748,8 @@
       <c r="F294">
         <v>32</v>
       </c>
-      <c r="G294" t="str">
-        <f>IFERROR(IF(VLOOKUP(E294,#REF!,1,1), "No", "Yes"), "No")</f>
-        <v>No</v>
+      <c r="G294" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H294" t="s">
         <v>561</v>
@@ -10030,8 +9774,8 @@
       <c r="F295">
         <v>11</v>
       </c>
-      <c r="G295" t="s">
-        <v>559</v>
+      <c r="G295" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H295" t="s">
         <v>561</v>
@@ -10056,8 +9800,8 @@
       <c r="F296">
         <v>11</v>
       </c>
-      <c r="G296" t="s">
-        <v>559</v>
+      <c r="G296" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H296">
         <v>54</v>
@@ -10082,8 +9826,8 @@
       <c r="F297">
         <v>11</v>
       </c>
-      <c r="G297" t="s">
-        <v>559</v>
+      <c r="G297" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H297">
         <v>598</v>
@@ -10108,8 +9852,8 @@
       <c r="F298">
         <v>11</v>
       </c>
-      <c r="G298" t="s">
-        <v>559</v>
+      <c r="G298" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H298">
         <v>56</v>
